--- a/etf_dfs/EWA.xlsx
+++ b/etf_dfs/EWA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Open</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return_12</t>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
   </si>
   <si>
     <t>EWA</t>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J311"/>
+  <dimension ref="A1:K312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>35125</v>
       </c>
@@ -456,13 +462,13 @@
         <v>10.25</v>
       </c>
       <c r="F2">
-        <v>3.633822441101074</v>
+        <v>3.602256059646606</v>
       </c>
       <c r="G2">
         <v>200200</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>35156</v>
       </c>
@@ -479,7 +485,7 @@
         <v>10.6875</v>
       </c>
       <c r="F3">
-        <v>3.788923501968384</v>
+        <v>3.756011247634888</v>
       </c>
       <c r="G3">
         <v>1600</v>
@@ -488,7 +494,7 @@
         <v>0.04268292682926833</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>35186</v>
       </c>
@@ -505,7 +511,7 @@
         <v>10.625</v>
       </c>
       <c r="F4">
-        <v>3.766767024993896</v>
+        <v>3.734045505523682</v>
       </c>
       <c r="G4">
         <v>7600</v>
@@ -513,8 +519,11 @@
       <c r="H4">
         <v>-0.005847953216374324</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0.03431651437722483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>35217</v>
       </c>
@@ -531,7 +540,7 @@
         <v>10.4375</v>
       </c>
       <c r="F5">
-        <v>3.700294971466064</v>
+        <v>3.668150663375854</v>
       </c>
       <c r="G5">
         <v>2400</v>
@@ -539,8 +548,11 @@
       <c r="H5">
         <v>-0.01764705882352946</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0.03197439699718131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>35247</v>
       </c>
@@ -557,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>3.545192956924438</v>
+        <v>3.514395236968994</v>
       </c>
       <c r="G6">
         <v>27700</v>
@@ -565,8 +577,11 @@
       <c r="H6">
         <v>-0.04191616766467066</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0.03556810943648117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>35278</v>
       </c>
@@ -583,7 +598,7 @@
         <v>10.1875</v>
       </c>
       <c r="F7">
-        <v>3.677551746368408</v>
+        <v>3.645607471466064</v>
       </c>
       <c r="G7">
         <v>1900</v>
@@ -591,8 +606,11 @@
       <c r="H7">
         <v>0.01875000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0.03268337420294718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>35309</v>
       </c>
@@ -609,7 +627,7 @@
         <v>10.1875</v>
       </c>
       <c r="F8">
-        <v>3.677551746368408</v>
+        <v>3.645607471466064</v>
       </c>
       <c r="G8">
         <v>1800</v>
@@ -617,8 +635,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0.02923470316943258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>35339</v>
       </c>
@@ -635,7 +656,7 @@
         <v>10.625</v>
       </c>
       <c r="F9">
-        <v>3.835484266281128</v>
+        <v>3.802166223526001</v>
       </c>
       <c r="G9">
         <v>200</v>
@@ -643,8 +664,11 @@
       <c r="H9">
         <v>0.04294478527607359</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0.03136696438700948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>35370</v>
       </c>
@@ -661,7 +685,7 @@
         <v>10.9375</v>
       </c>
       <c r="F10">
-        <v>3.94829249382019</v>
+        <v>3.913994073867798</v>
       </c>
       <c r="G10">
         <v>12300</v>
@@ -669,8 +693,11 @@
       <c r="H10">
         <v>0.02941176470588225</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0.03023912943396604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>35400</v>
       </c>
@@ -687,7 +714,7 @@
         <v>11</v>
       </c>
       <c r="F11">
-        <v>4.013542175292969</v>
+        <v>3.978677272796631</v>
       </c>
       <c r="G11">
         <v>3800</v>
@@ -695,8 +722,11 @@
       <c r="H11">
         <v>0.005714285714285783</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0.02830187443703319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>35431</v>
       </c>
@@ -713,7 +743,7 @@
         <v>10.5</v>
       </c>
       <c r="F12">
-        <v>3.831108570098877</v>
+        <v>3.797827959060669</v>
       </c>
       <c r="G12">
         <v>22600</v>
@@ -721,8 +751,11 @@
       <c r="H12">
         <v>-0.04545454545454541</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0.03162635790172787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>35462</v>
       </c>
@@ -739,7 +772,7 @@
         <v>10.75</v>
       </c>
       <c r="F13">
-        <v>3.922324657440186</v>
+        <v>3.88825249671936</v>
       </c>
       <c r="G13">
         <v>17100</v>
@@ -747,8 +780,11 @@
       <c r="H13">
         <v>0.02380952380952372</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0.0306608510811732</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>35490</v>
       </c>
@@ -765,7 +801,7 @@
         <v>10.6875</v>
       </c>
       <c r="F14">
-        <v>3.899521112442017</v>
+        <v>3.865646362304688</v>
       </c>
       <c r="G14">
         <v>5100</v>
@@ -774,13 +810,16 @@
         <v>-0.005813953488372103</v>
       </c>
       <c r="I14">
-        <v>0.04268292682926833</v>
+        <v>0.02939313985766037</v>
       </c>
       <c r="J14">
         <v>0.04268292682926833</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0.04268292682926833</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>35521</v>
       </c>
@@ -797,7 +836,7 @@
         <v>11</v>
       </c>
       <c r="F15">
-        <v>4.013542175292969</v>
+        <v>3.978677272796631</v>
       </c>
       <c r="G15">
         <v>900</v>
@@ -806,13 +845,16 @@
         <v>0.02923976608187129</v>
       </c>
       <c r="I15">
-        <v>0.02923976608187129</v>
+        <v>0.02900701549114082</v>
       </c>
       <c r="J15">
         <v>0.02923976608187129</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0.02923976608187129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>35551</v>
       </c>
@@ -829,7 +871,7 @@
         <v>11.25</v>
       </c>
       <c r="F16">
-        <v>4.104759693145752</v>
+        <v>4.069100379943848</v>
       </c>
       <c r="G16">
         <v>2200</v>
@@ -838,13 +880,16 @@
         <v>0.02272727272727271</v>
       </c>
       <c r="I16">
-        <v>0.05882352941176472</v>
+        <v>0.02823228627793962</v>
       </c>
       <c r="J16">
         <v>0.05882352941176472</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0.05882352941176472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>35582</v>
       </c>
@@ -861,7 +906,7 @@
         <v>11.625</v>
       </c>
       <c r="F17">
-        <v>4.241583824157715</v>
+        <v>4.204736709594727</v>
       </c>
       <c r="G17">
         <v>900</v>
@@ -870,13 +915,16 @@
         <v>0.03333333333333344</v>
       </c>
       <c r="I17">
-        <v>0.1137724550898203</v>
+        <v>0.02803940269187836</v>
       </c>
       <c r="J17">
         <v>0.1137724550898203</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0.1137724550898203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>35612</v>
       </c>
@@ -893,7 +941,7 @@
         <v>11.5625</v>
       </c>
       <c r="F18">
-        <v>4.21877908706665</v>
+        <v>4.182130336761475</v>
       </c>
       <c r="G18">
         <v>4100</v>
@@ -902,13 +950,16 @@
         <v>-0.005376344086021501</v>
       </c>
       <c r="I18">
-        <v>0.15625</v>
+        <v>0.0273193517003853</v>
       </c>
       <c r="J18">
         <v>0.15625</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>35643</v>
       </c>
@@ -925,7 +976,7 @@
         <v>10.4375</v>
       </c>
       <c r="F19">
-        <v>3.925719261169434</v>
+        <v>3.891616106033325</v>
       </c>
       <c r="G19">
         <v>5300</v>
@@ -934,13 +985,16 @@
         <v>-0.0972972972972973</v>
       </c>
       <c r="I19">
-        <v>0.02453987730061358</v>
+        <v>0.0367531105235743</v>
       </c>
       <c r="J19">
         <v>0.02453987730061358</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0.02453987730061358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>35674</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>10.9375</v>
       </c>
       <c r="F20">
-        <v>4.113777160644531</v>
+        <v>4.078041076660156</v>
       </c>
       <c r="G20">
         <v>12100</v>
@@ -966,13 +1020,16 @@
         <v>0.0479041916167664</v>
       </c>
       <c r="I20">
-        <v>0.07361963190184051</v>
+        <v>0.03728036421708122</v>
       </c>
       <c r="J20">
         <v>0.07361963190184051</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0.07361963190184051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>35704</v>
       </c>
@@ -989,7 +1046,7 @@
         <v>9.5625</v>
       </c>
       <c r="F21">
-        <v>3.596617221832275</v>
+        <v>3.565373659133911</v>
       </c>
       <c r="G21">
         <v>233200</v>
@@ -998,13 +1055,16 @@
         <v>-0.1257142857142857</v>
       </c>
       <c r="I21">
-        <v>-0.09999999999999998</v>
+        <v>0.04692657228092342</v>
       </c>
       <c r="J21">
         <v>-0.09999999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>-0.09999999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>35735</v>
       </c>
@@ -1021,7 +1081,7 @@
         <v>9.1875</v>
       </c>
       <c r="F22">
-        <v>3.455572605133057</v>
+        <v>3.425554275512695</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1030,13 +1090,16 @@
         <v>-0.03921568627450978</v>
       </c>
       <c r="I22">
-        <v>-0.16</v>
+        <v>0.04640476696043341</v>
       </c>
       <c r="J22">
         <v>-0.16</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>35765</v>
       </c>
@@ -1053,7 +1116,7 @@
         <v>9.3125</v>
       </c>
       <c r="F23">
-        <v>3.52710747718811</v>
+        <v>3.496467590332031</v>
       </c>
       <c r="G23">
         <v>4900</v>
@@ -1062,13 +1125,16 @@
         <v>0.01360544217687076</v>
       </c>
       <c r="I23">
-        <v>-0.1534090909090909</v>
+        <v>0.04539989068927124</v>
       </c>
       <c r="J23">
         <v>-0.1534090909090909</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>-0.1534090909090909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>35796</v>
       </c>
@@ -1085,7 +1151,7 @@
         <v>10.0625</v>
       </c>
       <c r="F24">
-        <v>3.811168193817139</v>
+        <v>3.778061151504517</v>
       </c>
       <c r="G24">
         <v>7900</v>
@@ -1094,13 +1160,16 @@
         <v>0.08053691275167796</v>
       </c>
       <c r="I24">
-        <v>-0.04166666666666663</v>
+        <v>0.04779382214442546</v>
       </c>
       <c r="J24">
         <v>-0.04166666666666663</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>-0.04166666666666663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>35827</v>
       </c>
@@ -1117,7 +1186,7 @@
         <v>10</v>
       </c>
       <c r="F25">
-        <v>3.787496566772461</v>
+        <v>3.754595994949341</v>
       </c>
       <c r="G25">
         <v>4000</v>
@@ -1126,13 +1195,16 @@
         <v>-0.006211180124223614</v>
       </c>
       <c r="I25">
-        <v>-0.06976744186046513</v>
+        <v>0.04671463860159546</v>
       </c>
       <c r="J25">
         <v>-0.06976744186046513</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>-0.06976744186046513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>35855</v>
       </c>
@@ -1149,7 +1221,7 @@
         <v>10.3125</v>
       </c>
       <c r="F26">
-        <v>3.905856609344482</v>
+        <v>3.871927261352539</v>
       </c>
       <c r="G26">
         <v>272100</v>
@@ -1158,13 +1230,16 @@
         <v>0.03125</v>
       </c>
       <c r="I26">
-        <v>-0.03508771929824561</v>
+        <v>0.04613077109529182</v>
       </c>
       <c r="J26">
         <v>-0.03508771929824561</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>-0.03508771929824561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>35886</v>
       </c>
@@ -1181,7 +1256,7 @@
         <v>10.25</v>
       </c>
       <c r="F27">
-        <v>3.882184028625488</v>
+        <v>3.84846043586731</v>
       </c>
       <c r="G27">
         <v>30000</v>
@@ -1190,13 +1265,16 @@
         <v>-0.0060606060606061</v>
       </c>
       <c r="I27">
-        <v>-0.06818181818181823</v>
+        <v>0.04518353472907555</v>
       </c>
       <c r="J27">
         <v>-0.06818181818181823</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>-0.06818181818181823</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>35916</v>
       </c>
@@ -1213,7 +1291,7 @@
         <v>9.4375</v>
       </c>
       <c r="F28">
-        <v>3.574449777603149</v>
+        <v>3.543399572372437</v>
       </c>
       <c r="G28">
         <v>6900</v>
@@ -1222,13 +1300,16 @@
         <v>-0.07926829268292679</v>
       </c>
       <c r="I28">
-        <v>-0.1611111111111111</v>
+        <v>0.04698707377026596</v>
       </c>
       <c r="J28">
         <v>-0.1611111111111111</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>-0.1611111111111111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>35947</v>
       </c>
@@ -1245,7 +1326,7 @@
         <v>9.4375</v>
       </c>
       <c r="F29">
-        <v>3.574449777603149</v>
+        <v>3.543399572372437</v>
       </c>
       <c r="G29">
         <v>37300</v>
@@ -1254,13 +1335,16 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>-0.1881720430107527</v>
+        <v>0.04607634468804817</v>
       </c>
       <c r="J29">
         <v>-0.1881720430107527</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>-0.1881720430107527</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>35977</v>
       </c>
@@ -1277,7 +1361,7 @@
         <v>9.25</v>
       </c>
       <c r="F30">
-        <v>3.503434896469116</v>
+        <v>3.473001003265381</v>
       </c>
       <c r="G30">
         <v>500</v>
@@ -1286,13 +1370,16 @@
         <v>-0.01986754966887416</v>
       </c>
       <c r="I30">
-        <v>-0.2</v>
+        <v>0.04534098237626009</v>
       </c>
       <c r="J30">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>36008</v>
       </c>
@@ -1309,7 +1396,7 @@
         <v>7.625</v>
       </c>
       <c r="F31">
-        <v>2.944988965988159</v>
+        <v>2.919405937194824</v>
       </c>
       <c r="G31">
         <v>5400</v>
@@ -1318,13 +1405,16 @@
         <v>-0.1756756756756757</v>
       </c>
       <c r="I31">
-        <v>-0.2694610778443114</v>
+        <v>0.05490812894974498</v>
       </c>
       <c r="J31">
         <v>-0.2694610778443114</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>-0.2694610778443114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>36039</v>
       </c>
@@ -1341,7 +1431,7 @@
         <v>8.3125</v>
       </c>
       <c r="F32">
-        <v>3.21052098274231</v>
+        <v>3.18263053894043</v>
       </c>
       <c r="G32">
         <v>2100</v>
@@ -1350,13 +1440,16 @@
         <v>0.0901639344262295</v>
       </c>
       <c r="I32">
-        <v>-0.24</v>
+        <v>0.05688670401289415</v>
       </c>
       <c r="J32">
         <v>-0.24</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>36069</v>
       </c>
@@ -1373,7 +1466,7 @@
         <v>8.9375</v>
       </c>
       <c r="F33">
-        <v>3.451913595199585</v>
+        <v>3.421925783157349</v>
       </c>
       <c r="G33">
         <v>8900</v>
@@ -1382,13 +1475,16 @@
         <v>0.07518796992481214</v>
       </c>
       <c r="I33">
-        <v>-0.065359477124183</v>
+        <v>0.05776898531151186</v>
       </c>
       <c r="J33">
         <v>-0.065359477124183</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>-0.065359477124183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>36100</v>
       </c>
@@ -1405,7 +1501,7 @@
         <v>9.5625</v>
       </c>
       <c r="F34">
-        <v>3.693305969238281</v>
+        <v>3.661221742630005</v>
       </c>
       <c r="G34">
         <v>27000</v>
@@ -1414,13 +1510,16 @@
         <v>0.06993006993007</v>
       </c>
       <c r="I34">
-        <v>0.04081632653061229</v>
+        <v>0.05826241679631164</v>
       </c>
       <c r="J34">
         <v>0.04081632653061229</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0.04081632653061229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>36130</v>
       </c>
@@ -1437,7 +1536,7 @@
         <v>9.5</v>
       </c>
       <c r="F35">
-        <v>3.675355672836304</v>
+        <v>3.643428325653076</v>
       </c>
       <c r="G35">
         <v>800</v>
@@ -1446,13 +1545,16 @@
         <v>-0.006535947712418277</v>
       </c>
       <c r="I35">
-        <v>0.02013422818791955</v>
+        <v>0.05735464921371753</v>
       </c>
       <c r="J35">
         <v>0.02013422818791955</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>0.02013422818791955</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>36161</v>
       </c>
@@ -1469,7 +1571,7 @@
         <v>10</v>
       </c>
       <c r="F36">
-        <v>3.868795156478882</v>
+        <v>3.835187196731567</v>
       </c>
       <c r="G36">
         <v>6500</v>
@@ -1478,13 +1580,16 @@
         <v>0.05263157894736836</v>
       </c>
       <c r="I36">
-        <v>-0.006211180124223614</v>
+        <v>0.05721275983255149</v>
       </c>
       <c r="J36">
         <v>-0.006211180124223614</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>-0.006211180124223614</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>36192</v>
       </c>
@@ -1501,7 +1606,7 @@
         <v>9.9375</v>
       </c>
       <c r="F37">
-        <v>3.844615459442139</v>
+        <v>3.811217308044434</v>
       </c>
       <c r="G37">
         <v>32400</v>
@@ -1510,13 +1615,16 @@
         <v>-0.006249999999999978</v>
       </c>
       <c r="I37">
-        <v>-0.006249999999999978</v>
+        <v>0.05637821320623584</v>
       </c>
       <c r="J37">
         <v>-0.006249999999999978</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>-0.006249999999999978</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>36220</v>
       </c>
@@ -1533,7 +1641,7 @@
         <v>10.125</v>
       </c>
       <c r="F38">
-        <v>3.917156219482422</v>
+        <v>3.883127927780151</v>
       </c>
       <c r="G38">
         <v>3900</v>
@@ -1542,13 +1650,16 @@
         <v>0.01886792452830188</v>
       </c>
       <c r="I38">
-        <v>-0.01818181818181819</v>
+        <v>0.05564911067161089</v>
       </c>
       <c r="J38">
         <v>-0.01818181818181819</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>-0.01818181818181819</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>36251</v>
       </c>
@@ -1565,7 +1676,7 @@
         <v>11.4375</v>
       </c>
       <c r="F39">
-        <v>4.424934864044189</v>
+        <v>4.386495113372803</v>
       </c>
       <c r="G39">
         <v>8500</v>
@@ -1574,13 +1685,16 @@
         <v>0.1296296296296295</v>
       </c>
       <c r="I39">
-        <v>0.1158536585365855</v>
+        <v>0.05879056741184557</v>
       </c>
       <c r="J39">
         <v>0.1158536585365855</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>0.1158536585365855</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>36281</v>
       </c>
@@ -1597,7 +1711,7 @@
         <v>10.4375</v>
       </c>
       <c r="F40">
-        <v>4.038055896759033</v>
+        <v>4.002976417541504</v>
       </c>
       <c r="G40">
         <v>4100</v>
@@ -1606,13 +1720,16 @@
         <v>-0.08743169398907102</v>
       </c>
       <c r="I40">
-        <v>0.1059602649006623</v>
+        <v>0.05988594718069079</v>
       </c>
       <c r="J40">
         <v>0.1059602649006623</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>0.1059602649006623</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>36312</v>
       </c>
@@ -1629,7 +1746,7 @@
         <v>11.1875</v>
       </c>
       <c r="F41">
-        <v>4.328215599060059</v>
+        <v>4.290616989135742</v>
       </c>
       <c r="G41">
         <v>10400</v>
@@ -1638,13 +1755,16 @@
         <v>0.0718562874251496</v>
       </c>
       <c r="I41">
-        <v>0.185430463576159</v>
+        <v>0.06013372720018625</v>
       </c>
       <c r="J41">
         <v>0.185430463576159</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>0.185430463576159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>36342</v>
       </c>
@@ -1661,7 +1781,7 @@
         <v>11</v>
       </c>
       <c r="F42">
-        <v>4.25567626953125</v>
+        <v>4.218706130981445</v>
       </c>
       <c r="G42">
         <v>3100</v>
@@ -1670,13 +1790,16 @@
         <v>-0.01675977653631289</v>
       </c>
       <c r="I42">
-        <v>0.1891891891891893</v>
+        <v>0.05944904430690879</v>
       </c>
       <c r="J42">
         <v>0.1891891891891893</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>0.1891891891891893</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>36373</v>
       </c>
@@ -1693,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="F43">
-        <v>3.95525860786438</v>
+        <v>3.920899868011475</v>
       </c>
       <c r="G43">
         <v>15600</v>
@@ -1702,13 +1825,16 @@
         <v>-0.09090909090909094</v>
       </c>
       <c r="I43">
-        <v>0.3114754098360655</v>
+        <v>0.06052633652575552</v>
       </c>
       <c r="J43">
         <v>0.3114754098360655</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>0.3114754098360655</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>36404</v>
       </c>
@@ -1725,7 +1851,7 @@
         <v>10.3125</v>
       </c>
       <c r="F44">
-        <v>4.078861713409424</v>
+        <v>4.043428897857666</v>
       </c>
       <c r="G44">
         <v>29000</v>
@@ -1734,13 +1860,16 @@
         <v>0.03125</v>
       </c>
       <c r="I44">
-        <v>0.2406015037593985</v>
+        <v>0.05996269836977754</v>
       </c>
       <c r="J44">
         <v>0.2406015037593985</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>0.2406015037593985</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>36434</v>
       </c>
@@ -1757,7 +1886,7 @@
         <v>10.0625</v>
       </c>
       <c r="F45">
-        <v>3.979980230331421</v>
+        <v>3.945406675338745</v>
       </c>
       <c r="G45">
         <v>24600</v>
@@ -1766,13 +1895,16 @@
         <v>-0.02424242424242429</v>
       </c>
       <c r="I45">
-        <v>0.1258741258741258</v>
+        <v>0.05937912012164776</v>
       </c>
       <c r="J45">
         <v>0.1258741258741258</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>0.1258741258741258</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>36465</v>
       </c>
@@ -1789,7 +1921,7 @@
         <v>10.3125</v>
       </c>
       <c r="F46">
-        <v>4.078861713409424</v>
+        <v>4.043428897857666</v>
       </c>
       <c r="G46">
         <v>3100</v>
@@ -1798,13 +1930,16 @@
         <v>0.02484472049689446</v>
       </c>
       <c r="I46">
-        <v>0.07843137254901955</v>
+        <v>0.05879142051252999</v>
       </c>
       <c r="J46">
         <v>0.07843137254901955</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>0.07843137254901955</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>36495</v>
       </c>
@@ -1821,7 +1956,7 @@
         <v>11.0625</v>
       </c>
       <c r="F47">
-        <v>4.382436275482178</v>
+        <v>4.34436559677124</v>
       </c>
       <c r="G47">
         <v>1100</v>
@@ -1830,13 +1965,16 @@
         <v>0.07272727272727275</v>
       </c>
       <c r="I47">
-        <v>0.1644736842105263</v>
+        <v>0.05907125028408155</v>
       </c>
       <c r="J47">
         <v>0.1644736842105263</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>0.1644736842105263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>36526</v>
       </c>
@@ -1853,7 +1991,7 @@
         <v>10.625</v>
       </c>
       <c r="F48">
-        <v>4.209120273590088</v>
+        <v>4.172554969787598</v>
       </c>
       <c r="G48">
         <v>14000</v>
@@ -1862,13 +2000,16 @@
         <v>-0.03954802259887003</v>
       </c>
       <c r="I48">
-        <v>0.0625</v>
+        <v>0.05875434127412247</v>
       </c>
       <c r="J48">
         <v>0.0625</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>36557</v>
       </c>
@@ -1885,7 +2026,7 @@
         <v>10.3125</v>
       </c>
       <c r="F49">
-        <v>4.085322380065918</v>
+        <v>4.049833297729492</v>
       </c>
       <c r="G49">
         <v>11500</v>
@@ -1894,13 +2035,16 @@
         <v>-0.02941176470588236</v>
       </c>
       <c r="I49">
-        <v>0.03773584905660377</v>
+        <v>0.05829856810608826</v>
       </c>
       <c r="J49">
         <v>0.03773584905660377</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>0.03773584905660377</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>36586</v>
       </c>
@@ -1917,7 +2061,7 @@
         <v>9.875</v>
       </c>
       <c r="F50">
-        <v>3.912005662918091</v>
+        <v>3.878022193908691</v>
       </c>
       <c r="G50">
         <v>3500</v>
@@ -1926,13 +2070,16 @@
         <v>-0.04242424242424248</v>
       </c>
       <c r="I50">
-        <v>-0.02469135802469136</v>
+        <v>0.0580278514314317</v>
       </c>
       <c r="J50">
         <v>-0.02469135802469136</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>-0.02469135802469136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>36617</v>
       </c>
@@ -1949,7 +2096,7 @@
         <v>9.9375</v>
       </c>
       <c r="F51">
-        <v>3.936764240264893</v>
+        <v>3.902565717697144</v>
       </c>
       <c r="G51">
         <v>5000</v>
@@ -1958,13 +2105,16 @@
         <v>0.006329113924050667</v>
       </c>
       <c r="I51">
-        <v>-0.1311475409836066</v>
+        <v>0.05742541406895014</v>
       </c>
       <c r="J51">
         <v>-0.1311475409836066</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>-0.1311475409836066</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>36647</v>
       </c>
@@ -1981,7 +2131,7 @@
         <v>9.4375</v>
       </c>
       <c r="F52">
-        <v>3.738688230514526</v>
+        <v>3.70621132850647</v>
       </c>
       <c r="G52">
         <v>8700</v>
@@ -1990,13 +2140,16 @@
         <v>-0.05031446540880502</v>
       </c>
       <c r="I52">
-        <v>-0.09580838323353291</v>
+        <v>0.05729836677287788</v>
       </c>
       <c r="J52">
         <v>-0.09580838323353291</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>-0.09580838323353291</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>36678</v>
       </c>
@@ -2013,7 +2166,7 @@
         <v>10.8125</v>
       </c>
       <c r="F53">
-        <v>4.283398628234863</v>
+        <v>4.246187686920166</v>
       </c>
       <c r="G53">
         <v>13700</v>
@@ -2022,13 +2175,16 @@
         <v>0.1456953642384107</v>
       </c>
       <c r="I53">
-        <v>-0.03351955307262566</v>
+        <v>0.06027971302969461</v>
       </c>
       <c r="J53">
         <v>-0.03351955307262566</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>-0.03351955307262566</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>36708</v>
       </c>
@@ -2045,7 +2201,7 @@
         <v>10.125</v>
       </c>
       <c r="F54">
-        <v>4.011042594909668</v>
+        <v>3.976199865341187</v>
       </c>
       <c r="G54">
         <v>2500</v>
@@ -2054,13 +2210,16 @@
         <v>-0.06358381502890176</v>
       </c>
       <c r="I54">
-        <v>-0.07954545454545459</v>
+        <v>0.06039283078634213</v>
       </c>
       <c r="J54">
         <v>-0.07954545454545459</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>-0.07954545454545459</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>36739</v>
       </c>
@@ -2077,7 +2236,7 @@
         <v>9.9375</v>
       </c>
       <c r="F55">
-        <v>4.026105403900146</v>
+        <v>3.99113130569458</v>
       </c>
       <c r="G55">
         <v>33300</v>
@@ -2086,13 +2245,16 @@
         <v>-0.01851851851851849</v>
       </c>
       <c r="I55">
-        <v>-0.006249999999999978</v>
+        <v>0.05987300481234621</v>
       </c>
       <c r="J55">
         <v>-0.006249999999999978</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>-0.006249999999999978</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>36770</v>
       </c>
@@ -2109,7 +2271,7 @@
         <v>9.5</v>
       </c>
       <c r="F56">
-        <v>3.848856925964355</v>
+        <v>3.815420389175415</v>
       </c>
       <c r="G56">
         <v>11200</v>
@@ -2118,13 +2280,16 @@
         <v>-0.04402515723270439</v>
       </c>
       <c r="I56">
-        <v>-0.07878787878787874</v>
+        <v>0.05962398549351109</v>
       </c>
       <c r="J56">
         <v>-0.07878787878787874</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>-0.07878787878787874</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>36800</v>
       </c>
@@ -2141,7 +2306,7 @@
         <v>9</v>
       </c>
       <c r="F57">
-        <v>3.646285772323608</v>
+        <v>3.614610195159912</v>
       </c>
       <c r="G57">
         <v>30800</v>
@@ -2150,13 +2315,16 @@
         <v>-0.05263157894736847</v>
       </c>
       <c r="I57">
-        <v>-0.1055900621118012</v>
+        <v>0.0595000152730398</v>
       </c>
       <c r="J57">
         <v>-0.1055900621118012</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>-0.1055900621118012</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>36831</v>
       </c>
@@ -2173,7 +2341,7 @@
         <v>9.0625</v>
       </c>
       <c r="F58">
-        <v>3.671606779098511</v>
+        <v>3.63971209526062</v>
       </c>
       <c r="G58">
         <v>4900</v>
@@ -2182,13 +2350,16 @@
         <v>0.00694444444444442</v>
       </c>
       <c r="I58">
-        <v>-0.1212121212121212</v>
+        <v>0.05896524111088582</v>
       </c>
       <c r="J58">
         <v>-0.1212121212121212</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>-0.1212121212121212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>36861</v>
       </c>
@@ -2205,7 +2376,7 @@
         <v>9.5</v>
       </c>
       <c r="F59">
-        <v>3.862125873565674</v>
+        <v>3.828577280044556</v>
       </c>
       <c r="G59">
         <v>97800</v>
@@ -2214,13 +2385,16 @@
         <v>0.04827586206896561</v>
       </c>
       <c r="I59">
-        <v>-0.1412429378531074</v>
+        <v>0.05879191205071151</v>
       </c>
       <c r="J59">
         <v>-0.1412429378531074</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>-0.1412429378531074</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>36892</v>
       </c>
@@ -2237,7 +2411,7 @@
         <v>9.920000076293945</v>
       </c>
       <c r="F60">
-        <v>4.03287410736084</v>
+        <v>3.997840404510498</v>
       </c>
       <c r="G60">
         <v>23400</v>
@@ -2246,13 +2420,16 @@
         <v>0.04421053434673117</v>
       </c>
       <c r="I60">
-        <v>-0.06635293399586395</v>
+        <v>0.05855727721129148</v>
       </c>
       <c r="J60">
         <v>-0.06635293399586395</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>-0.06635293399586395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>36923</v>
       </c>
@@ -2269,7 +2446,7 @@
         <v>9.449999809265137</v>
       </c>
       <c r="F61">
-        <v>3.841799736022949</v>
+        <v>3.808427333831787</v>
       </c>
       <c r="G61">
         <v>54300</v>
@@ -2278,13 +2455,16 @@
         <v>-0.04737905881190252</v>
       </c>
       <c r="I61">
-        <v>-0.08363638213186553</v>
+        <v>0.05839302713271611</v>
       </c>
       <c r="J61">
         <v>-0.08363638213186553</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>-0.08363638213186553</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>36951</v>
       </c>
@@ -2301,7 +2481,7 @@
         <v>8.300000190734863</v>
       </c>
       <c r="F62">
-        <v>3.374280452728271</v>
+        <v>3.344966411590576</v>
       </c>
       <c r="G62">
         <v>3200</v>
@@ -2310,13 +2490,16 @@
         <v>-0.1216930837821574</v>
       </c>
       <c r="I62">
-        <v>-0.1594936515711531</v>
+        <v>0.0600007494171538</v>
       </c>
       <c r="J62">
         <v>-0.1594936515711531</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>-0.1594936515711531</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>36982</v>
       </c>
@@ -2333,7 +2516,7 @@
         <v>9.399999618530273</v>
       </c>
       <c r="F63">
-        <v>3.821471929550171</v>
+        <v>3.788275480270386</v>
       </c>
       <c r="G63">
         <v>18500</v>
@@ -2342,13 +2525,16 @@
         <v>0.1325300484960614</v>
       </c>
       <c r="I63">
-        <v>-0.05408808870135617</v>
+        <v>0.06193143381708607</v>
       </c>
       <c r="J63">
         <v>-0.05408808870135617</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>-0.05408808870135617</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>37012</v>
       </c>
@@ -2365,7 +2551,7 @@
         <v>9.460000038146973</v>
       </c>
       <c r="F64">
-        <v>3.845866203308105</v>
+        <v>3.812457323074341</v>
       </c>
       <c r="G64">
         <v>2200</v>
@@ -2374,13 +2560,16 @@
         <v>0.00638302362251375</v>
       </c>
       <c r="I64">
-        <v>0.002384110002328299</v>
+        <v>0.06142625914002756</v>
       </c>
       <c r="J64">
         <v>0.002384110002328299</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>0.002384110002328299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>37043</v>
       </c>
@@ -2397,7 +2586,7 @@
         <v>9.689999580383301</v>
       </c>
       <c r="F65">
-        <v>3.939369440078735</v>
+        <v>3.905148267745972</v>
       </c>
       <c r="G65">
         <v>9700</v>
@@ -2406,13 +2595,16 @@
         <v>0.02431284791848487</v>
       </c>
       <c r="I65">
-        <v>-0.103815067710215</v>
+        <v>0.06100215798928837</v>
       </c>
       <c r="J65">
         <v>-0.103815067710215</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>-0.103815067710215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>37073</v>
       </c>
@@ -2429,7 +2621,7 @@
         <v>9.350000381469727</v>
       </c>
       <c r="F66">
-        <v>3.801147937774658</v>
+        <v>3.768126487731934</v>
       </c>
       <c r="G66">
         <v>39400</v>
@@ -2438,13 +2630,16 @@
         <v>-0.03508763814622629</v>
       </c>
       <c r="I66">
-        <v>-0.07654317220052087</v>
+        <v>0.06068362527502331</v>
       </c>
       <c r="J66">
         <v>-0.07654317220052087</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>-0.07654317220052087</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>37104</v>
       </c>
@@ -2461,7 +2656,7 @@
         <v>9.350000381469727</v>
       </c>
       <c r="F67">
-        <v>3.876772403717041</v>
+        <v>3.843093633651733</v>
       </c>
       <c r="G67">
         <v>2700</v>
@@ -2470,13 +2665,16 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>-0.05911945846845523</v>
+        <v>0.06020768831525183</v>
       </c>
       <c r="J67">
         <v>-0.05911945846845523</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>-0.05911945846845523</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>37135</v>
       </c>
@@ -2493,7 +2691,7 @@
         <v>7.710000038146973</v>
       </c>
       <c r="F68">
-        <v>3.196781396865845</v>
+        <v>3.169011354446411</v>
       </c>
       <c r="G68">
         <v>8500</v>
@@ -2502,13 +2700,16 @@
         <v>-0.1754010990815555</v>
       </c>
       <c r="I68">
-        <v>-0.1884210486161081</v>
+        <v>0.06354081166924729</v>
       </c>
       <c r="J68">
         <v>-0.1884210486161081</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>-0.1884210486161081</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>37165</v>
       </c>
@@ -2525,7 +2726,7 @@
         <v>8.779999732971191</v>
       </c>
       <c r="F69">
-        <v>3.640433311462402</v>
+        <v>3.608808755874634</v>
       </c>
       <c r="G69">
         <v>20600</v>
@@ -2534,13 +2735,16 @@
         <v>0.1387807638819913</v>
       </c>
       <c r="I69">
-        <v>-0.02444447411431205</v>
+        <v>0.06536977418420765</v>
       </c>
       <c r="J69">
         <v>-0.02444447411431205</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>-0.02444447411431205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>37196</v>
       </c>
@@ -2557,7 +2761,7 @@
         <v>9.310000419616699</v>
       </c>
       <c r="F70">
-        <v>3.860186576843262</v>
+        <v>3.826653480529785</v>
       </c>
       <c r="G70">
         <v>8000</v>
@@ -2566,13 +2770,16 @@
         <v>0.06036454473400688</v>
       </c>
       <c r="I70">
-        <v>0.02731039113011846</v>
+        <v>0.06529401108538344</v>
       </c>
       <c r="J70">
         <v>0.02731039113011846</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>0.02731039113011846</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>37226</v>
       </c>
@@ -2589,7 +2796,7 @@
         <v>9.449999809265137</v>
       </c>
       <c r="F71">
-        <v>3.935325860977173</v>
+        <v>3.901139259338379</v>
       </c>
       <c r="G71">
         <v>16100</v>
@@ -2598,13 +2805,16 @@
         <v>0.01503752774848977</v>
       </c>
       <c r="I71">
-        <v>-0.00526317797209086</v>
+        <v>0.06483502852121313</v>
       </c>
       <c r="J71">
         <v>-0.00526317797209086</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>-0.00526317797209086</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>37257</v>
       </c>
@@ -2621,7 +2831,7 @@
         <v>9.590000152587891</v>
       </c>
       <c r="F72">
-        <v>3.993627071380615</v>
+        <v>3.95893406867981</v>
       </c>
       <c r="G72">
         <v>80400</v>
@@ -2630,13 +2840,16 @@
         <v>0.01481485144428185</v>
       </c>
       <c r="I72">
-        <v>-0.03326612108548899</v>
+        <v>0.06438487833057918</v>
       </c>
       <c r="J72">
         <v>-0.03326612108548899</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>-0.03326612108548899</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>37288</v>
       </c>
@@ -2653,7 +2866,7 @@
         <v>9.529999732971191</v>
       </c>
       <c r="F73">
-        <v>3.968641042709351</v>
+        <v>3.934165000915527</v>
       </c>
       <c r="G73">
         <v>100</v>
@@ -2662,13 +2875,16 @@
         <v>-0.006256560861524929</v>
       </c>
       <c r="I73">
-        <v>0.008465600563041242</v>
+        <v>0.06392934411419632</v>
       </c>
       <c r="J73">
         <v>0.008465600563041242</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>0.008465600563041242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>37316</v>
       </c>
@@ -2685,7 +2901,7 @@
         <v>9.899999618530273</v>
       </c>
       <c r="F74">
-        <v>4.122722148895264</v>
+        <v>4.086909294128418</v>
       </c>
       <c r="G74">
         <v>39200</v>
@@ -2694,13 +2910,16 @@
         <v>0.03882475298283405</v>
       </c>
       <c r="I74">
-        <v>0.1927710109671394</v>
+        <v>0.06363364661369285</v>
       </c>
       <c r="J74">
         <v>0.1927710109671394</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>0.1927710109671394</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>37347</v>
       </c>
@@ -2717,7 +2936,7 @@
         <v>9.899999618530273</v>
       </c>
       <c r="F75">
-        <v>4.122722148895264</v>
+        <v>4.086909294128418</v>
       </c>
       <c r="G75">
         <v>21800</v>
@@ -2726,13 +2945,16 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>0.05319149152031311</v>
+        <v>0.06319046219625565</v>
       </c>
       <c r="J75">
         <v>0.05319149152031311</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>0.05319149152031311</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>37377</v>
       </c>
@@ -2749,7 +2971,7 @@
         <v>10.52000045776367</v>
       </c>
       <c r="F76">
-        <v>4.380914211273193</v>
+        <v>4.342855930328369</v>
       </c>
       <c r="G76">
         <v>104300</v>
@@ -2758,13 +2980,16 @@
         <v>0.06262634981045001</v>
       </c>
       <c r="I76">
-        <v>0.1120507838628224</v>
+        <v>0.06315676685173197</v>
       </c>
       <c r="J76">
         <v>0.1120507838628224</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>0.1120507838628224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>37408</v>
       </c>
@@ -2781,7 +3006,7 @@
         <v>10</v>
       </c>
       <c r="F77">
-        <v>4.164365291595459</v>
+        <v>4.128189086914062</v>
       </c>
       <c r="G77">
         <v>448600</v>
@@ -2790,13 +3015,16 @@
         <v>-0.04942969915746687</v>
       </c>
       <c r="I77">
-        <v>0.03199178875551989</v>
+        <v>0.0630129500021028</v>
       </c>
       <c r="J77">
         <v>0.03199178875551989</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>0.03199178875551989</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>37438</v>
       </c>
@@ -2813,7 +3041,7 @@
         <v>9.140000343322754</v>
       </c>
       <c r="F78">
-        <v>3.806231260299683</v>
+        <v>3.773164510726929</v>
       </c>
       <c r="G78">
         <v>32800</v>
@@ -2822,13 +3050,16 @@
         <v>-0.08599996566772461</v>
       </c>
       <c r="I78">
-        <v>-0.02245989621167943</v>
+        <v>0.06339410167761356</v>
       </c>
       <c r="J78">
         <v>-0.02245989621167943</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>-0.02245989621167943</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>37469</v>
       </c>
@@ -2845,7 +3076,7 @@
         <v>9.449999809265137</v>
       </c>
       <c r="F79">
-        <v>3.935325860977173</v>
+        <v>3.901139259338379</v>
       </c>
       <c r="G79">
         <v>4600</v>
@@ -2854,13 +3085,16 @@
         <v>0.03391678931050079</v>
       </c>
       <c r="I79">
-        <v>0.0106951255310741</v>
+        <v>0.06309060761359163</v>
       </c>
       <c r="J79">
         <v>0.0106951255310741</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>0.0106951255310741</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>37500</v>
       </c>
@@ -2877,7 +3111,7 @@
         <v>8.640000343322754</v>
       </c>
       <c r="F80">
-        <v>3.598012447357178</v>
+        <v>3.5667564868927</v>
       </c>
       <c r="G80">
         <v>24200</v>
@@ -2886,13 +3120,16 @@
         <v>-0.08571423093027253</v>
       </c>
       <c r="I80">
-        <v>0.1206226070783909</v>
+        <v>0.06344299061065796</v>
       </c>
       <c r="J80">
         <v>0.1206226070783909</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>0.1206226070783909</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>37530</v>
       </c>
@@ -2909,7 +3146,7 @@
         <v>9.170000076293945</v>
       </c>
       <c r="F81">
-        <v>3.818723201751709</v>
+        <v>3.785549402236938</v>
       </c>
       <c r="G81">
         <v>11800</v>
@@ -2918,13 +3155,16 @@
         <v>0.06134255924894627</v>
       </c>
       <c r="I81">
-        <v>0.0444191748501086</v>
+        <v>0.06341371018188088</v>
       </c>
       <c r="J81">
         <v>0.0444191748501086</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>0.0444191748501086</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>37561</v>
       </c>
@@ -2941,7 +3181,7 @@
         <v>9.630000114440918</v>
       </c>
       <c r="F82">
-        <v>4.010284900665283</v>
+        <v>3.975447177886963</v>
       </c>
       <c r="G82">
         <v>25200</v>
@@ -2950,13 +3190,16 @@
         <v>0.05016358062375081</v>
       </c>
       <c r="I82">
-        <v>0.0343716090656625</v>
+        <v>0.06325413922946331</v>
       </c>
       <c r="J82">
         <v>0.0343716090656625</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>0.0343716090656625</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>37591</v>
       </c>
@@ -2973,7 +3216,7 @@
         <v>9.079999923706055</v>
       </c>
       <c r="F83">
-        <v>3.889630794525146</v>
+        <v>3.855840682983398</v>
       </c>
       <c r="G83">
         <v>8700</v>
@@ -2982,13 +3225,16 @@
         <v>-0.05711320708190815</v>
       </c>
       <c r="I83">
-        <v>-0.03915342783354558</v>
+        <v>0.06319098563781932</v>
       </c>
       <c r="J83">
         <v>-0.03915342783354558</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>-0.03915342783354558</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>37622</v>
       </c>
@@ -3005,7 +3251,7 @@
         <v>9.439999580383301</v>
       </c>
       <c r="F84">
-        <v>4.043845176696777</v>
+        <v>4.008715152740479</v>
       </c>
       <c r="G84">
         <v>25300</v>
@@ -3014,13 +3260,16 @@
         <v>0.03964753961477019</v>
       </c>
       <c r="I84">
-        <v>-0.01564135243148168</v>
+        <v>0.06294823616034478</v>
       </c>
       <c r="J84">
         <v>-0.01564135243148168</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>-0.01564135243148168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>37653</v>
       </c>
@@ -3037,7 +3286,7 @@
         <v>9.289999961853027</v>
       </c>
       <c r="F85">
-        <v>3.979588270187378</v>
+        <v>3.945017337799072</v>
       </c>
       <c r="G85">
         <v>2200</v>
@@ -3046,13 +3295,16 @@
         <v>-0.01588979080486175</v>
       </c>
       <c r="I85">
-        <v>-0.02518360732874214</v>
+        <v>0.06259065685557805</v>
       </c>
       <c r="J85">
         <v>-0.02518360732874214</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>-0.02518360732874214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>37681</v>
       </c>
@@ -3069,7 +3321,7 @@
         <v>9.590000152587891</v>
       </c>
       <c r="F86">
-        <v>4.108101367950439</v>
+        <v>4.072413444519043</v>
       </c>
       <c r="G86">
         <v>34700</v>
@@ -3078,13 +3330,16 @@
         <v>0.03229280860782957</v>
       </c>
       <c r="I86">
-        <v>-0.03131307857448229</v>
+        <v>0.06230736429601953</v>
       </c>
       <c r="J86">
         <v>-0.03131307857448229</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>-0.03131307857448229</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>37712</v>
       </c>
@@ -3101,7 +3356,7 @@
         <v>10.22999954223633</v>
       </c>
       <c r="F87">
-        <v>4.382260799407959</v>
+        <v>4.344190120697021</v>
       </c>
       <c r="G87">
         <v>6300</v>
@@ -3110,13 +3365,16 @@
         <v>0.0667361188180724</v>
       </c>
       <c r="I87">
-        <v>0.03333332691128388</v>
+        <v>0.06234243586470525</v>
       </c>
       <c r="J87">
         <v>0.03333332691128388</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>0.03333332691128388</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>37742</v>
       </c>
@@ -3133,7 +3391,7 @@
         <v>10.82999992370605</v>
       </c>
       <c r="F88">
-        <v>4.639284610748291</v>
+        <v>4.598981857299805</v>
       </c>
       <c r="G88">
         <v>28200</v>
@@ -3142,13 +3400,16 @@
         <v>0.0586510663067501</v>
       </c>
       <c r="I88">
-        <v>0.02946762856018759</v>
+        <v>0.0622756855665699</v>
       </c>
       <c r="J88">
         <v>0.02946762856018759</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>0.02946762856018759</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>37773</v>
       </c>
@@ -3165,7 +3426,7 @@
         <v>11.10000038146973</v>
       </c>
       <c r="F89">
-        <v>4.754944324493408</v>
+        <v>4.713637828826904</v>
       </c>
       <c r="G89">
         <v>18700</v>
@@ -3174,13 +3435,16 @@
         <v>0.02493079036618107</v>
       </c>
       <c r="I89">
-        <v>0.1100000381469726</v>
+        <v>0.06195886160960307</v>
       </c>
       <c r="J89">
         <v>0.1100000381469726</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>0.1100000381469726</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>37803</v>
       </c>
@@ -3197,7 +3461,7 @@
         <v>10.96000003814697</v>
       </c>
       <c r="F90">
-        <v>4.694972038269043</v>
+        <v>4.654186725616455</v>
       </c>
       <c r="G90">
         <v>256500</v>
@@ -3206,13 +3470,16 @@
         <v>-0.01261264310913623</v>
       </c>
       <c r="I90">
-        <v>0.1991246856083351</v>
+        <v>0.06162379394141978</v>
       </c>
       <c r="J90">
         <v>0.1991246856083351</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>0.1991246856083351</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>37834</v>
       </c>
@@ -3229,7 +3496,7 @@
         <v>11.35000038146973</v>
       </c>
       <c r="F91">
-        <v>4.862036228179932</v>
+        <v>4.819801807403564</v>
       </c>
       <c r="G91">
         <v>36500</v>
@@ -3238,13 +3505,16 @@
         <v>0.03558397280705594</v>
       </c>
       <c r="I91">
-        <v>0.2010582656670277</v>
+        <v>0.06137188451026492</v>
       </c>
       <c r="J91">
         <v>0.2010582656670277</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>0.2010582656670277</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>37865</v>
       </c>
@@ -3261,7 +3531,7 @@
         <v>11.76000022888184</v>
       </c>
       <c r="F92">
-        <v>5.037670135498047</v>
+        <v>4.993909358978271</v>
       </c>
       <c r="G92">
         <v>13300</v>
@@ -3270,13 +3540,16 @@
         <v>0.03612333335966089</v>
       </c>
       <c r="I92">
-        <v>0.3611110835163693</v>
+        <v>0.06112566205945134</v>
       </c>
       <c r="J92">
         <v>0.3611110835163693</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>0.3611110835163693</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>37895</v>
       </c>
@@ -3293,7 +3566,7 @@
         <v>12.69999980926514</v>
       </c>
       <c r="F93">
-        <v>5.440341472625732</v>
+        <v>5.393082618713379</v>
       </c>
       <c r="G93">
         <v>55300</v>
@@ -3302,13 +3575,16 @@
         <v>0.07993193555172895</v>
       </c>
       <c r="I93">
-        <v>0.3849508946130609</v>
+        <v>0.06131212995350109</v>
       </c>
       <c r="J93">
         <v>0.3849508946130609</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0.3849508946130609</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>37926</v>
       </c>
@@ -3325,7 +3601,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="F94">
-        <v>5.436058044433594</v>
+        <v>5.388834953308105</v>
       </c>
       <c r="G94">
         <v>65500</v>
@@ -3334,13 +3610,16 @@
         <v>-0.000787419608820783</v>
       </c>
       <c r="I94">
-        <v>0.3177569501119404</v>
+        <v>0.0609765829263236</v>
       </c>
       <c r="J94">
         <v>0.3177569501119404</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>0.3177569501119404</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>37956</v>
       </c>
@@ -3357,7 +3636,7 @@
         <v>13.35999965667725</v>
       </c>
       <c r="F95">
-        <v>6.039332389831543</v>
+        <v>5.986868858337402</v>
       </c>
       <c r="G95">
         <v>114200</v>
@@ -3366,13 +3645,16 @@
         <v>0.05279748608736434</v>
       </c>
       <c r="I95">
-        <v>0.4713656133186712</v>
+        <v>0.06085332274999953</v>
       </c>
       <c r="J95">
         <v>0.4713656133186712</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0.4713656133186712</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>37987</v>
       </c>
@@ -3389,7 +3671,7 @@
         <v>13.26000022888184</v>
       </c>
       <c r="F96">
-        <v>5.994129180908203</v>
+        <v>5.942056655883789</v>
       </c>
       <c r="G96">
         <v>107800</v>
@@ -3398,13 +3680,16 @@
         <v>-0.007484987302782686</v>
       </c>
       <c r="I96">
-        <v>0.4046611036335903</v>
+        <v>0.06053835921670647</v>
       </c>
       <c r="J96">
         <v>0.4046611036335903</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>0.4046611036335903</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>38018</v>
       </c>
@@ -3421,7 +3706,7 @@
         <v>13.94999980926514</v>
       </c>
       <c r="F97">
-        <v>6.30604076385498</v>
+        <v>6.251259803771973</v>
       </c>
       <c r="G97">
         <v>129800</v>
@@ -3430,13 +3715,16 @@
         <v>0.05203616655152099</v>
       </c>
       <c r="I97">
-        <v>0.5016146250319902</v>
+        <v>0.06041192820170387</v>
       </c>
       <c r="J97">
         <v>0.5016146250319902</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>0.5016146250319902</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>38047</v>
       </c>
@@ -3453,7 +3741,7 @@
         <v>14.06999969482422</v>
       </c>
       <c r="F98">
-        <v>6.360286235809326</v>
+        <v>6.305033206939697</v>
       </c>
       <c r="G98">
         <v>86900</v>
@@ -3462,13 +3750,16 @@
         <v>0.008602142451599404</v>
       </c>
       <c r="I98">
-        <v>0.4671532295051515</v>
+        <v>0.06009419905202566</v>
       </c>
       <c r="J98">
         <v>0.4671532295051515</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>0.4671532295051515</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>38078</v>
       </c>
@@ -3485,7 +3776,7 @@
         <v>13.01000022888184</v>
       </c>
       <c r="F99">
-        <v>5.881117820739746</v>
+        <v>5.830026626586914</v>
       </c>
       <c r="G99">
         <v>230200</v>
@@ -3494,13 +3785,16 @@
         <v>-0.0753375614025289</v>
       </c>
       <c r="I99">
-        <v>0.2717498349015357</v>
+        <v>0.06033606662229117</v>
       </c>
       <c r="J99">
         <v>0.2717498349015357</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>0.2717498349015357</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>38108</v>
       </c>
@@ -3517,7 +3811,7 @@
         <v>13.19999980926514</v>
       </c>
       <c r="F100">
-        <v>5.967005729675293</v>
+        <v>5.915169239044189</v>
       </c>
       <c r="G100">
         <v>13700</v>
@@ -3526,13 +3820,16 @@
         <v>0.01460411814301943</v>
       </c>
       <c r="I100">
-        <v>0.2188365560715593</v>
+        <v>0.06003328078014457</v>
       </c>
       <c r="J100">
         <v>0.2188365560715593</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>0.2188365560715593</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>38139</v>
       </c>
@@ -3549,7 +3846,7 @@
         <v>13.42000007629395</v>
       </c>
       <c r="F101">
-        <v>6.066454410552979</v>
+        <v>6.01375675201416</v>
       </c>
       <c r="G101">
         <v>39300</v>
@@ -3558,13 +3855,16 @@
         <v>0.01666668713694897</v>
       </c>
       <c r="I101">
-        <v>0.2090089743327588</v>
+        <v>0.05973892265602507</v>
       </c>
       <c r="J101">
         <v>0.2090089743327588</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>0.2090089743327588</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>38169</v>
       </c>
@@ -3581,7 +3881,7 @@
         <v>13.23999977111816</v>
       </c>
       <c r="F102">
-        <v>5.985085487365723</v>
+        <v>5.933094501495361</v>
       </c>
       <c r="G102">
         <v>30600</v>
@@ -3590,13 +3890,16 @@
         <v>-0.01341283935562321</v>
       </c>
       <c r="I102">
-        <v>0.2080291719922909</v>
+        <v>0.05946350834307609</v>
       </c>
       <c r="J102">
         <v>0.2080291719922909</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>0.2080291719922909</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>38200</v>
       </c>
@@ -3613,7 +3916,7 @@
         <v>13.53999996185303</v>
       </c>
       <c r="F103">
-        <v>6.120702743530273</v>
+        <v>6.067530632019043</v>
       </c>
       <c r="G103">
         <v>28700</v>
@@ -3622,13 +3925,16 @@
         <v>0.02265862506956284</v>
       </c>
       <c r="I103">
-        <v>0.1929514983945502</v>
+        <v>0.05919349661476352</v>
       </c>
       <c r="J103">
         <v>0.1929514983945502</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>0.1929514983945502</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>38231</v>
       </c>
@@ -3645,7 +3951,7 @@
         <v>14.52000045776367</v>
       </c>
       <c r="F104">
-        <v>6.563705921173096</v>
+        <v>6.506687641143799</v>
       </c>
       <c r="G104">
         <v>290000</v>
@@ -3654,13 +3960,16 @@
         <v>0.0723781756773747</v>
       </c>
       <c r="I104">
-        <v>0.2346938924459752</v>
+        <v>0.05928164057956845</v>
       </c>
       <c r="J104">
         <v>0.2346938924459752</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>0.2346938924459752</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>38261</v>
       </c>
@@ -3677,7 +3986,7 @@
         <v>15.47000026702881</v>
       </c>
       <c r="F105">
-        <v>6.99315071105957</v>
+        <v>6.932401180267334</v>
       </c>
       <c r="G105">
         <v>108900</v>
@@ -3686,13 +3995,16 @@
         <v>0.06542698204649033</v>
       </c>
       <c r="I105">
-        <v>0.2181102755405437</v>
+        <v>0.05928814358784078</v>
       </c>
       <c r="J105">
         <v>0.2181102755405437</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>0.2181102755405437</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>38292</v>
       </c>
@@ -3709,7 +4021,7 @@
         <v>16.6299991607666</v>
       </c>
       <c r="F106">
-        <v>7.517521858215332</v>
+        <v>7.452217102050781</v>
       </c>
       <c r="G106">
         <v>618400</v>
@@ -3718,13 +4030,16 @@
         <v>0.07498376688525976</v>
       </c>
       <c r="I106">
-        <v>0.3104806706592731</v>
+        <v>0.05938863602621051</v>
       </c>
       <c r="J106">
         <v>0.3104806706592731</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>0.3104806706592731</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>38322</v>
       </c>
@@ -3741,7 +4056,7 @@
         <v>16.70000076293945</v>
       </c>
       <c r="F107">
-        <v>7.815227031707764</v>
+        <v>7.747336864471436</v>
       </c>
       <c r="G107">
         <v>675000</v>
@@ -3750,13 +4065,16 @@
         <v>0.00420935692756963</v>
       </c>
       <c r="I107">
-        <v>0.2500000892285124</v>
+        <v>0.05910282597216327</v>
       </c>
       <c r="J107">
         <v>0.2500000892285124</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>0.2500000892285124</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>38353</v>
       </c>
@@ -3773,7 +4091,7 @@
         <v>16.82999992370605</v>
       </c>
       <c r="F108">
-        <v>7.876062393188477</v>
+        <v>7.807645797729492</v>
       </c>
       <c r="G108">
         <v>561200</v>
@@ -3782,13 +4100,16 @@
         <v>0.0077843805285982</v>
       </c>
       <c r="I108">
-        <v>0.2692307415687927</v>
+        <v>0.05882085957970496</v>
       </c>
       <c r="J108">
         <v>0.2692307415687927</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>0.2692307415687927</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>38384</v>
       </c>
@@ -3805,7 +4126,7 @@
         <v>17.73999977111816</v>
       </c>
       <c r="F109">
-        <v>8.301920890808105</v>
+        <v>8.229805946350098</v>
       </c>
       <c r="G109">
         <v>340300</v>
@@ -3814,13 +4135,16 @@
         <v>0.05407010407233104</v>
       </c>
       <c r="I109">
-        <v>0.2716845887937456</v>
+        <v>0.05872359094190333</v>
       </c>
       <c r="J109">
         <v>0.2716845887937456</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>0.2716845887937456</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>38412</v>
       </c>
@@ -3837,7 +4161,7 @@
         <v>16.95999908447266</v>
       </c>
       <c r="F110">
-        <v>7.936899185180664</v>
+        <v>7.867952346801758</v>
       </c>
       <c r="G110">
         <v>130700</v>
@@ -3846,13 +4170,16 @@
         <v>-0.04396847219329725</v>
       </c>
       <c r="I110">
-        <v>0.2054015246859993</v>
+        <v>0.05865297585014489</v>
       </c>
       <c r="J110">
         <v>0.2054015246859993</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>0.2054015246859993</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>38443</v>
       </c>
@@ -3869,7 +4196,7 @@
         <v>16.84000015258789</v>
       </c>
       <c r="F111">
-        <v>7.880743503570557</v>
+        <v>7.812282562255859</v>
       </c>
       <c r="G111">
         <v>154900</v>
@@ -3878,13 +4205,16 @@
         <v>-0.007075409101562236</v>
       </c>
       <c r="I111">
-        <v>0.2943889205477155</v>
+        <v>0.05839508743329635</v>
       </c>
       <c r="J111">
         <v>0.2943889205477155</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>0.2943889205477155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>38473</v>
       </c>
@@ -3901,7 +4231,7 @@
         <v>16.75</v>
       </c>
       <c r="F112">
-        <v>7.838624477386475</v>
+        <v>7.770531177520752</v>
       </c>
       <c r="G112">
         <v>231800</v>
@@ -3910,13 +4240,16 @@
         <v>-0.005344427064869151</v>
       </c>
       <c r="I112">
-        <v>0.2689394122750746</v>
+        <v>0.05813717793541438</v>
       </c>
       <c r="J112">
         <v>0.2689394122750746</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>0.2689394122750746</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>38504</v>
       </c>
@@ -3933,7 +4266,7 @@
         <v>17.68000030517578</v>
       </c>
       <c r="F113">
-        <v>8.273846626281738</v>
+        <v>8.201972007751465</v>
       </c>
       <c r="G113">
         <v>133600</v>
@@ -3942,13 +4275,16 @@
         <v>0.05552240627915106</v>
       </c>
       <c r="I113">
-        <v>0.3174366769495782</v>
+        <v>0.05806151385239363</v>
       </c>
       <c r="J113">
         <v>0.3174366769495782</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>0.3174366769495782</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>38534</v>
       </c>
@@ -3965,7 +4301,7 @@
         <v>18.01000022888184</v>
       </c>
       <c r="F114">
-        <v>8.428277015686035</v>
+        <v>8.355059623718262</v>
       </c>
       <c r="G114">
         <v>115500</v>
@@ -3974,13 +4310,16 @@
         <v>0.01866515373359179</v>
       </c>
       <c r="I114">
-        <v>0.3602719441256326</v>
+        <v>0.0578105815761852</v>
       </c>
       <c r="J114">
         <v>0.3602719441256326</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>0.3602719441256326</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>38565</v>
       </c>
@@ -3997,7 +4336,7 @@
         <v>18.48999977111816</v>
       </c>
       <c r="F115">
-        <v>8.652907371520996</v>
+        <v>8.577738761901855</v>
       </c>
       <c r="G115">
         <v>328100</v>
@@ -4006,13 +4345,16 @@
         <v>0.02665183432183271</v>
       </c>
       <c r="I115">
-        <v>0.3655834433686143</v>
+        <v>0.05758242103627175</v>
       </c>
       <c r="J115">
         <v>0.3655834433686143</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>0.3655834433686143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>38596</v>
       </c>
@@ -4029,7 +4371,7 @@
         <v>19.61000061035156</v>
       </c>
       <c r="F116">
-        <v>9.177042961120605</v>
+        <v>9.097319602966309</v>
       </c>
       <c r="G116">
         <v>239300</v>
@@ -4038,13 +4380,16 @@
         <v>0.06057332899391743</v>
       </c>
       <c r="I116">
-        <v>0.3505509636445174</v>
+        <v>0.05754698610713539</v>
       </c>
       <c r="J116">
         <v>0.3505509636445174</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>0.3505509636445174</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>38626</v>
       </c>
@@ -4061,7 +4406,7 @@
         <v>18.51000022888184</v>
       </c>
       <c r="F117">
-        <v>8.662265777587891</v>
+        <v>8.587017059326172</v>
       </c>
       <c r="G117">
         <v>514200</v>
@@ -4070,13 +4415,16 @@
         <v>-0.05609384738565826</v>
       </c>
       <c r="I117">
-        <v>0.196509367122131</v>
+        <v>0.05759894461560905</v>
       </c>
       <c r="J117">
         <v>0.196509367122131</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>0.196509367122131</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>38657</v>
       </c>
@@ -4093,7 +4441,7 @@
         <v>18.85000038146973</v>
       </c>
       <c r="F118">
-        <v>8.821379661560059</v>
+        <v>8.744748115539551</v>
       </c>
       <c r="G118">
         <v>228000</v>
@@ -4102,13 +4450,16 @@
         <v>0.0183684575031704</v>
       </c>
       <c r="I118">
-        <v>0.133493766249883</v>
+        <v>0.0573579795196437</v>
       </c>
       <c r="J118">
         <v>0.133493766249883</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>0.133493766249883</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>38687</v>
       </c>
@@ -4125,7 +4476,7 @@
         <v>18.80999946594238</v>
       </c>
       <c r="F119">
-        <v>9.116752624511719</v>
+        <v>9.037555694580078</v>
       </c>
       <c r="G119">
         <v>112800</v>
@@ -4134,13 +4485,16 @@
         <v>-0.002122064441264726</v>
       </c>
       <c r="I119">
-        <v>0.1263472219525539</v>
+        <v>0.05711633742924236</v>
       </c>
       <c r="J119">
         <v>0.1263472219525539</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>0.1263472219525539</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>38718</v>
       </c>
@@ -4157,7 +4511,7 @@
         <v>20.39999961853027</v>
       </c>
       <c r="F120">
-        <v>9.887388229370117</v>
+        <v>9.801497459411621</v>
       </c>
       <c r="G120">
         <v>220000</v>
@@ -4166,13 +4520,16 @@
         <v>0.08452951609417991</v>
       </c>
       <c r="I120">
-        <v>0.2121211949499573</v>
+        <v>0.05731955668170968</v>
       </c>
       <c r="J120">
         <v>0.2121211949499573</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>0.2121211949499573</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>38749</v>
       </c>
@@ -4189,7 +4546,7 @@
         <v>19.86000061035156</v>
       </c>
       <c r="F121">
-        <v>9.625663757324219</v>
+        <v>9.542044639587402</v>
       </c>
       <c r="G121">
         <v>185000</v>
@@ -4198,13 +4555,16 @@
         <v>-0.02647054011158922</v>
       </c>
       <c r="I121">
-        <v>0.1195039947342555</v>
+        <v>0.05716108400991207</v>
       </c>
       <c r="J121">
         <v>0.1195039947342555</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <v>0.1195039947342555</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>38777</v>
       </c>
@@ -4221,7 +4581,7 @@
         <v>20.02000045776367</v>
       </c>
       <c r="F122">
-        <v>9.703213691711426</v>
+        <v>9.618921279907227</v>
       </c>
       <c r="G122">
         <v>703100</v>
@@ -4230,13 +4590,16 @@
         <v>0.008056386832572038</v>
       </c>
       <c r="I122">
-        <v>0.1804246190138377</v>
+        <v>0.05692045572415812</v>
       </c>
       <c r="J122">
         <v>0.1804246190138377</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <v>0.1804246190138377</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>38808</v>
       </c>
@@ -4253,7 +4616,7 @@
         <v>21.94000053405762</v>
       </c>
       <c r="F123">
-        <v>10.63378810882568</v>
+        <v>10.54141330718994</v>
       </c>
       <c r="G123">
         <v>385100</v>
@@ -4262,13 +4625,16 @@
         <v>0.0959040975221046</v>
       </c>
       <c r="I123">
-        <v>0.3028503762029944</v>
+        <v>0.05740431625562158</v>
       </c>
       <c r="J123">
         <v>0.3028503762029944</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>0.3028503762029944</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>38838</v>
       </c>
@@ -4285,7 +4651,7 @@
         <v>20.79999923706055</v>
       </c>
       <c r="F124">
-        <v>10.08125972747803</v>
+        <v>9.993683815002441</v>
       </c>
       <c r="G124">
         <v>470000</v>
@@ -4294,13 +4660,16 @@
         <v>-0.05195994846159813</v>
       </c>
       <c r="I124">
-        <v>0.2417909992274954</v>
+        <v>0.05764939376851259</v>
       </c>
       <c r="J124">
         <v>0.2417909992274954</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>0.2417909992274954</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>38869</v>
       </c>
@@ -4317,7 +4686,7 @@
         <v>20.75</v>
       </c>
       <c r="F125">
-        <v>10.05702590942383</v>
+        <v>9.969658851623535</v>
       </c>
       <c r="G125">
         <v>353600</v>
@@ -4326,13 +4695,16 @@
         <v>-0.002403809562235959</v>
       </c>
       <c r="I125">
-        <v>0.1736425136783217</v>
+        <v>0.05761077078374704</v>
       </c>
       <c r="J125">
         <v>0.1736425136783217</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>0.1736425136783217</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>38899</v>
       </c>
@@ -4349,7 +4721,7 @@
         <v>20.95999908447266</v>
       </c>
       <c r="F126">
-        <v>10.1588077545166</v>
+        <v>10.07055568695068</v>
       </c>
       <c r="G126">
         <v>140400</v>
@@ -4358,13 +4730,16 @@
         <v>0.01012043780591121</v>
       </c>
       <c r="I126">
-        <v>0.1637978244364504</v>
+        <v>0.05743189852815949</v>
       </c>
       <c r="J126">
         <v>0.1637978244364504</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <v>0.1637978244364504</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>38930</v>
       </c>
@@ -4381,7 +4756,7 @@
         <v>21.54000091552734</v>
       </c>
       <c r="F127">
-        <v>10.43992042541504</v>
+        <v>10.34922790527344</v>
       </c>
       <c r="G127">
         <v>942400</v>
@@ -4390,13 +4765,16 @@
         <v>0.02767184429336922</v>
       </c>
       <c r="I127">
-        <v>0.1649540931403015</v>
+        <v>0.05745190137995945</v>
       </c>
       <c r="J127">
         <v>0.1649540931403015</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <v>0.1649540931403015</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>38961</v>
       </c>
@@ -4413,7 +4791,7 @@
         <v>21.20000076293945</v>
       </c>
       <c r="F128">
-        <v>10.27513122558594</v>
+        <v>10.18587112426758</v>
       </c>
       <c r="G128">
         <v>349200</v>
@@ -4422,13 +4800,16 @@
         <v>-0.01578459322825743</v>
       </c>
       <c r="I128">
-        <v>0.0810810863385989</v>
+        <v>0.05748825123092507</v>
       </c>
       <c r="J128">
         <v>0.0810810863385989</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>0.0810810863385989</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>38991</v>
       </c>
@@ -4445,7 +4826,7 @@
         <v>23.02000045776367</v>
       </c>
       <c r="F129">
-        <v>11.15723705291748</v>
+        <v>11.06031894683838</v>
       </c>
       <c r="G129">
         <v>170900</v>
@@ -4454,13 +4835,16 @@
         <v>0.08584903911917929</v>
       </c>
       <c r="I129">
-        <v>0.2436520893092544</v>
+        <v>0.05784105311938201</v>
       </c>
       <c r="J129">
         <v>0.2436520893092544</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <v>0.2436520893092544</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>39022</v>
       </c>
@@ -4477,7 +4861,7 @@
         <v>24.02000045776367</v>
       </c>
       <c r="F130">
-        <v>11.64191627502441</v>
+        <v>11.54078388214111</v>
       </c>
       <c r="G130">
         <v>370500</v>
@@ -4486,13 +4870,16 @@
         <v>0.04344048566961445</v>
       </c>
       <c r="I130">
-        <v>0.2742705555261555</v>
+        <v>0.05789853899005492</v>
       </c>
       <c r="J130">
         <v>0.2742705555261555</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>0.2742705555261555</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>39052</v>
       </c>
@@ -4509,7 +4896,7 @@
         <v>23.5</v>
       </c>
       <c r="F131">
-        <v>11.93320083618164</v>
+        <v>11.82953643798828</v>
       </c>
       <c r="G131">
         <v>330500</v>
@@ -4518,13 +4905,16 @@
         <v>-0.02164864478991291</v>
       </c>
       <c r="I131">
-        <v>0.2493354953331812</v>
+        <v>0.05796251819156013</v>
       </c>
       <c r="J131">
         <v>0.2493354953331812</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>0.2493354953331812</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>39083</v>
       </c>
@@ -4541,7 +4931,7 @@
         <v>23.92000007629395</v>
       </c>
       <c r="F132">
-        <v>12.14647579193115</v>
+        <v>12.04096031188965</v>
       </c>
       <c r="G132">
         <v>651800</v>
@@ -4550,13 +4940,16 @@
         <v>0.01787234367208268</v>
       </c>
       <c r="I132">
-        <v>0.172549045273819</v>
+        <v>0.05775932900046125</v>
       </c>
       <c r="J132">
         <v>0.172549045273819</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>0.172549045273819</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>39114</v>
       </c>
@@ -4573,7 +4966,7 @@
         <v>24.60000038146973</v>
       </c>
       <c r="F133">
-        <v>12.49177742004395</v>
+        <v>12.38326168060303</v>
       </c>
       <c r="G133">
         <v>766900</v>
@@ -4582,13 +4975,16 @@
         <v>0.02842810631299697</v>
       </c>
       <c r="I133">
-        <v>0.2386706760042872</v>
+        <v>0.0577711100534713</v>
       </c>
       <c r="J133">
         <v>0.2386706760042872</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <v>0.2386706760042872</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>39142</v>
       </c>
@@ -4605,7 +5001,7 @@
         <v>25.95000076293945</v>
       </c>
       <c r="F134">
-        <v>13.17730045318604</v>
+        <v>13.06282806396484</v>
       </c>
       <c r="G134">
         <v>692600</v>
@@ -4614,13 +5010,16 @@
         <v>0.05487806343639856</v>
       </c>
       <c r="I134">
-        <v>0.2962038046745474</v>
+        <v>0.05790933105900277</v>
       </c>
       <c r="J134">
         <v>0.2962038046745474</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <v>0.2962038046745474</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>39173</v>
       </c>
@@ -4637,7 +5036,7 @@
         <v>27.09000015258789</v>
       </c>
       <c r="F135">
-        <v>13.75618553161621</v>
+        <v>13.63668823242188</v>
       </c>
       <c r="G135">
         <v>901400</v>
@@ -4646,13 +5045,16 @@
         <v>0.04393061102628293</v>
       </c>
       <c r="I135">
-        <v>0.2347310616759508</v>
+        <v>0.05796774440221845</v>
       </c>
       <c r="J135">
         <v>0.2347310616759508</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>0.2347310616759508</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>39203</v>
       </c>
@@ -4669,7 +5071,7 @@
         <v>27.89999961853027</v>
       </c>
       <c r="F136">
-        <v>14.16750240325928</v>
+        <v>14.04442882537842</v>
       </c>
       <c r="G136">
         <v>519400</v>
@@ -4678,13 +5080,16 @@
         <v>0.0299003123432986</v>
       </c>
       <c r="I136">
-        <v>0.341346184706548</v>
+        <v>0.05798547314803935</v>
       </c>
       <c r="J136">
         <v>0.341346184706548</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <v>0.341346184706548</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>39234</v>
       </c>
@@ -4701,7 +5106,7 @@
         <v>28.46999931335449</v>
       </c>
       <c r="F137">
-        <v>14.45694255828857</v>
+        <v>14.33135509490967</v>
       </c>
       <c r="G137">
         <v>1430700</v>
@@ -4710,13 +5115,16 @@
         <v>0.02043009686801733</v>
       </c>
       <c r="I137">
-        <v>0.3720481596797345</v>
+        <v>0.05795247060247037</v>
       </c>
       <c r="J137">
         <v>0.3720481596797345</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <v>0.3720481596797345</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>39264</v>
       </c>
@@ -4733,7 +5141,7 @@
         <v>28.04000091552734</v>
       </c>
       <c r="F138">
-        <v>14.23859310150146</v>
+        <v>14.11490058898926</v>
       </c>
       <c r="G138">
         <v>2464400</v>
@@ -4742,13 +5150,16 @@
         <v>-0.01510356193178575</v>
       </c>
       <c r="I138">
-        <v>0.3377863616558845</v>
+        <v>0.05797980452127673</v>
       </c>
       <c r="J138">
         <v>0.3377863616558845</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <v>0.3377863616558845</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>39295</v>
       </c>
@@ -4765,7 +5176,7 @@
         <v>27.94000053405762</v>
       </c>
       <c r="F139">
-        <v>14.18781471252441</v>
+        <v>14.06456089019775</v>
       </c>
       <c r="G139">
         <v>815200</v>
@@ -4774,13 +5185,16 @@
         <v>-0.003566347296884431</v>
       </c>
       <c r="I139">
-        <v>0.2971216038304234</v>
+        <v>0.05715992041367213</v>
       </c>
       <c r="J139">
         <v>0.2971216038304234</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <v>0.2971216038304234</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>39326</v>
       </c>
@@ -4797,7 +5211,7 @@
         <v>31.79000091552734</v>
       </c>
       <c r="F140">
-        <v>16.1428337097168</v>
+        <v>16.00259399414062</v>
       </c>
       <c r="G140">
         <v>1049900</v>
@@ -4806,13 +5220,16 @@
         <v>0.1377952866098462</v>
       </c>
       <c r="I140">
-        <v>0.4995282911074552</v>
+        <v>0.05824116124078215</v>
       </c>
       <c r="J140">
         <v>0.4995282911074552</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <v>0.4995282911074552</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>39356</v>
       </c>
@@ -4829,7 +5246,7 @@
         <v>34.70999908447266</v>
       </c>
       <c r="F141">
-        <v>17.62558937072754</v>
+        <v>17.47247886657715</v>
       </c>
       <c r="G141">
         <v>1997700</v>
@@ -4838,13 +5255,16 @@
         <v>0.0918527236505704</v>
       </c>
       <c r="I141">
-        <v>0.5078192178213639</v>
+        <v>0.05734045285909881</v>
       </c>
       <c r="J141">
         <v>0.5078192178213639</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141">
+        <v>0.5078192178213639</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="2">
         <v>39387</v>
       </c>
@@ -4861,7 +5281,7 @@
         <v>31.63999938964844</v>
       </c>
       <c r="F142">
-        <v>16.06665802001953</v>
+        <v>15.92708396911621</v>
       </c>
       <c r="G142">
         <v>1816600</v>
@@ -4870,13 +5290,16 @@
         <v>-0.08844712693171941</v>
       </c>
       <c r="I142">
-        <v>0.3172355864556968</v>
+        <v>0.05788671260005027</v>
       </c>
       <c r="J142">
         <v>0.3172355864556968</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <v>0.3172355864556968</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="2">
         <v>39417</v>
       </c>
@@ -4893,7 +5316,7 @@
         <v>28.81999969482422</v>
       </c>
       <c r="F143">
-        <v>15.30395889282227</v>
+        <v>15.17101669311523</v>
       </c>
       <c r="G143">
         <v>629000</v>
@@ -4902,13 +5325,16 @@
         <v>-0.08912767854688486</v>
       </c>
       <c r="I143">
-        <v>0.2263829657372007</v>
+        <v>0.05861836442930124</v>
       </c>
       <c r="J143">
         <v>0.2263829657372007</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143">
+        <v>0.2263829657372007</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="2">
         <v>39448</v>
       </c>
@@ -4925,7 +5351,7 @@
         <v>26.8799991607666</v>
       </c>
       <c r="F144">
-        <v>14.27378463745117</v>
+        <v>14.14978885650635</v>
       </c>
       <c r="G144">
         <v>2390100</v>
@@ -4934,13 +5360,16 @@
         <v>-0.06731438426788128</v>
       </c>
       <c r="I144">
-        <v>0.1237457807287459</v>
+        <v>0.05870208388957951</v>
       </c>
       <c r="J144">
         <v>0.1237457807287459</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <v>0.1237457807287459</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>39479</v>
       </c>
@@ -4957,7 +5386,7 @@
         <v>26.54000091552734</v>
       </c>
       <c r="F145">
-        <v>14.09323978424072</v>
+        <v>13.97080993652344</v>
       </c>
       <c r="G145">
         <v>1252100</v>
@@ -4966,13 +5395,16 @@
         <v>-0.01264874463744448</v>
       </c>
       <c r="I145">
-        <v>0.07886180910464335</v>
+        <v>0.05871991422255653</v>
       </c>
       <c r="J145">
         <v>0.07886180910464335</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145">
+        <v>0.07886180910464335</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>39508</v>
       </c>
@@ -4989,7 +5421,7 @@
         <v>25.76000022888184</v>
       </c>
       <c r="F146">
-        <v>13.67904281616211</v>
+        <v>13.56021404266357</v>
       </c>
       <c r="G146">
         <v>1307100</v>
@@ -4998,13 +5430,16 @@
         <v>-0.02938962546113422</v>
       </c>
       <c r="I146">
-        <v>-0.007321793004683386</v>
+        <v>0.05879546394223623</v>
       </c>
       <c r="J146">
         <v>-0.007321793004683386</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <v>-0.007321793004683386</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="2">
         <v>39539</v>
       </c>
@@ -5021,7 +5456,7 @@
         <v>27.78000068664551</v>
       </c>
       <c r="F147">
-        <v>14.75170040130615</v>
+        <v>14.62355327606201</v>
       </c>
       <c r="G147">
         <v>1771400</v>
@@ -5030,13 +5465,16 @@
         <v>0.07841616614191138</v>
       </c>
       <c r="I147">
-        <v>0.02547067294836114</v>
+        <v>0.05911379753011048</v>
       </c>
       <c r="J147">
         <v>0.02547067294836114</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147">
+        <v>0.02547067294836114</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="2">
         <v>39569</v>
       </c>
@@ -5053,7 +5491,7 @@
         <v>29.27000045776367</v>
       </c>
       <c r="F148">
-        <v>15.54291915893555</v>
+        <v>15.40789985656738</v>
       </c>
       <c r="G148">
         <v>1289000</v>
@@ -5062,13 +5500,16 @@
         <v>0.05363569957845393</v>
       </c>
       <c r="I148">
-        <v>0.04910397340376615</v>
+        <v>0.05866883586712208</v>
       </c>
       <c r="J148">
         <v>0.04910397340376615</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <v>0.04910397340376615</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="2">
         <v>39600</v>
       </c>
@@ -5085,7 +5526,7 @@
         <v>26.46999931335449</v>
       </c>
       <c r="F149">
-        <v>14.05606746673584</v>
+        <v>13.93395900726318</v>
       </c>
       <c r="G149">
         <v>1596600</v>
@@ -5094,13 +5535,16 @@
         <v>-0.09566112403891325</v>
       </c>
       <c r="I149">
-        <v>-0.0702493870121681</v>
+        <v>0.05946678525157651</v>
       </c>
       <c r="J149">
         <v>-0.0702493870121681</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <v>-0.0702493870121681</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="2">
         <v>39630</v>
       </c>
@@ -5117,7 +5561,7 @@
         <v>24.8799991607666</v>
       </c>
       <c r="F150">
-        <v>13.211745262146</v>
+        <v>13.09697723388672</v>
       </c>
       <c r="G150">
         <v>1410500</v>
@@ -5126,13 +5570,16 @@
         <v>-0.06006800883389951</v>
       </c>
       <c r="I150">
-        <v>-0.1126962072604951</v>
+        <v>0.05975130090558577</v>
       </c>
       <c r="J150">
         <v>-0.1126962072604951</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150">
+        <v>-0.1126962072604951</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="2">
         <v>39661</v>
       </c>
@@ -5149,7 +5596,7 @@
         <v>23.81999969482422</v>
       </c>
       <c r="F151">
-        <v>12.64886665344238</v>
+        <v>12.53898429870605</v>
       </c>
       <c r="G151">
         <v>926800</v>
@@ -5158,13 +5605,16 @@
         <v>-0.04260448157948094</v>
       </c>
       <c r="I151">
-        <v>-0.147458867590618</v>
+        <v>0.05746624744116999</v>
       </c>
       <c r="J151">
         <v>-0.147458867590618</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <v>-0.147458867590618</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="2">
         <v>39692</v>
       </c>
@@ -5181,7 +5631,7 @@
         <v>20.54000091552734</v>
       </c>
       <c r="F152">
-        <v>10.90712451934814</v>
+        <v>10.81237506866455</v>
       </c>
       <c r="G152">
         <v>1766000</v>
@@ -5190,13 +5640,16 @@
         <v>-0.1376993627757929</v>
       </c>
       <c r="I152">
-        <v>-0.3538848592641942</v>
+        <v>0.05858805174957881</v>
       </c>
       <c r="J152">
         <v>-0.3538848592641942</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152">
+        <v>-0.3538848592641942</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="2">
         <v>39722</v>
       </c>
@@ -5213,7 +5666,7 @@
         <v>14.98999977111816</v>
       </c>
       <c r="F153">
-        <v>7.959970951080322</v>
+        <v>7.890821933746338</v>
       </c>
       <c r="G153">
         <v>3812300</v>
@@ -5222,13 +5675,16 @@
         <v>-0.2702045227375633</v>
       </c>
       <c r="I153">
-        <v>-0.5681359790693896</v>
+        <v>0.06359318303262949</v>
       </c>
       <c r="J153">
         <v>-0.5681359790693896</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153">
+        <v>-0.5681359790693896</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="2">
         <v>39753</v>
       </c>
@@ -5245,7 +5701,7 @@
         <v>13.65999984741211</v>
       </c>
       <c r="F154">
-        <v>7.25371789932251</v>
+        <v>7.190703868865967</v>
       </c>
       <c r="G154">
         <v>827600</v>
@@ -5254,13 +5710,16 @@
         <v>-0.08872581347656983</v>
       </c>
       <c r="I154">
-        <v>-0.5682680116649683</v>
+        <v>0.06390974197734581</v>
       </c>
       <c r="J154">
         <v>-0.5682680116649683</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154">
+        <v>-0.5682680116649683</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="2">
         <v>39783</v>
       </c>
@@ -5277,7 +5736,7 @@
         <v>14.01000022888184</v>
       </c>
       <c r="F155">
-        <v>7.958070278167725</v>
+        <v>7.888940334320068</v>
       </c>
       <c r="G155">
         <v>1666400</v>
@@ -5286,13 +5745,16 @@
         <v>0.02562228297067182</v>
       </c>
       <c r="I155">
-        <v>-0.5138792374311547</v>
+        <v>0.06392805375085163</v>
       </c>
       <c r="J155">
         <v>-0.5138792374311547</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <v>-0.5138792374311547</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="2">
         <v>39814</v>
       </c>
@@ -5309,7 +5771,7 @@
         <v>11.60999965667725</v>
       </c>
       <c r="F156">
-        <v>6.594802379608154</v>
+        <v>6.537513732910156</v>
       </c>
       <c r="G156">
         <v>2481100</v>
@@ -5318,13 +5780,16 @@
         <v>-0.1713062478940544</v>
       </c>
       <c r="I156">
-        <v>-0.5680803564301102</v>
+        <v>0.06577788410179143</v>
       </c>
       <c r="J156">
         <v>-0.5680803564301102</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <v>-0.5680803564301102</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="2">
         <v>39845</v>
       </c>
@@ -5341,7 +5806,7 @@
         <v>11.22000026702881</v>
       </c>
       <c r="F157">
-        <v>6.373273372650146</v>
+        <v>6.31790828704834</v>
       </c>
       <c r="G157">
         <v>2426700</v>
@@ -5350,13 +5815,16 @@
         <v>-0.03359167968830534</v>
       </c>
       <c r="I157">
-        <v>-0.5772419035424939</v>
+        <v>0.06585917414613016</v>
       </c>
       <c r="J157">
         <v>-0.5772419035424939</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157">
+        <v>-0.5772419035424939</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="2">
         <v>39873</v>
       </c>
@@ -5373,7 +5841,7 @@
         <v>13.39000034332275</v>
       </c>
       <c r="F158">
-        <v>7.605894088745117</v>
+        <v>7.539820671081543</v>
       </c>
       <c r="G158">
         <v>4863500</v>
@@ -5382,13 +5850,16 @@
         <v>0.1934046367780156</v>
       </c>
       <c r="I158">
-        <v>-0.4802018546447826</v>
+        <v>0.06809623757390715</v>
       </c>
       <c r="J158">
         <v>-0.4802018546447826</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158">
+        <v>-0.4802018546447826</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="2">
         <v>39904</v>
       </c>
@@ -5405,7 +5876,7 @@
         <v>14.6899995803833</v>
       </c>
       <c r="F159">
-        <v>8.344329833984375</v>
+        <v>8.27184009552002</v>
       </c>
       <c r="G159">
         <v>6726700</v>
@@ -5414,13 +5885,16 @@
         <v>0.09708731917313385</v>
       </c>
       <c r="I159">
-        <v>-0.4712023319911175</v>
+        <v>0.06765795122339274</v>
       </c>
       <c r="J159">
         <v>-0.4712023319911175</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159">
+        <v>-0.4712023319911175</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="2">
         <v>39934</v>
       </c>
@@ -5437,7 +5911,7 @@
         <v>16.46999931335449</v>
       </c>
       <c r="F160">
-        <v>9.355419158935547</v>
+        <v>9.274147033691406</v>
       </c>
       <c r="G160">
         <v>4663500</v>
@@ -5446,13 +5920,16 @@
         <v>0.121170849817325</v>
       </c>
       <c r="I160">
-        <v>-0.4373078559694407</v>
+        <v>0.06795693585682017</v>
       </c>
       <c r="J160">
         <v>-0.4373078559694407</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160">
+        <v>-0.4373078559694407</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="2">
         <v>39965</v>
       </c>
@@ -5469,7 +5946,7 @@
         <v>16.79999923706055</v>
       </c>
       <c r="F161">
-        <v>9.571384429931641</v>
+        <v>9.488241195678711</v>
       </c>
       <c r="G161">
         <v>1952300</v>
@@ -5478,13 +5955,16 @@
         <v>0.02003642607552991</v>
       </c>
       <c r="I161">
-        <v>-0.3653192416750571</v>
+        <v>0.06770020727448536</v>
       </c>
       <c r="J161">
         <v>-0.3653192416750571</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161">
+        <v>-0.3653192416750571</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="2">
         <v>39995</v>
       </c>
@@ -5501,7 +5981,7 @@
         <v>18.93000030517578</v>
       </c>
       <c r="F162">
-        <v>10.78490257263184</v>
+        <v>10.69121265411377</v>
       </c>
       <c r="G162">
         <v>2748400</v>
@@ -5510,13 +5990,16 @@
         <v>0.1267857836217328</v>
       </c>
       <c r="I162">
-        <v>-0.2391478720374478</v>
+        <v>0.0685619691026962</v>
       </c>
       <c r="J162">
         <v>-0.2391478720374478</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162">
+        <v>-0.2391478720374478</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="2">
         <v>40026</v>
       </c>
@@ -5533,7 +6016,7 @@
         <v>20.27000045776367</v>
       </c>
       <c r="F163">
-        <v>11.54833316802979</v>
+        <v>11.44801330566406</v>
       </c>
       <c r="G163">
         <v>2750200</v>
@@ -5542,13 +6025,16 @@
         <v>0.07078711732622178</v>
       </c>
       <c r="I163">
-        <v>-0.1490343947330913</v>
+        <v>0.06821082554787113</v>
       </c>
       <c r="J163">
         <v>-0.1490343947330913</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163">
+        <v>-0.1490343947330913</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="2">
         <v>40057</v>
       </c>
@@ -5565,7 +6051,7 @@
         <v>22.60000038146973</v>
       </c>
       <c r="F164">
-        <v>12.87578868865967</v>
+        <v>12.76393699645996</v>
       </c>
       <c r="G164">
         <v>4832100</v>
@@ -5574,13 +6060,16 @@
         <v>0.1149481929495288</v>
       </c>
       <c r="I164">
-        <v>0.1002920824791742</v>
+        <v>0.06887233906505624</v>
       </c>
       <c r="J164">
         <v>0.1002920824791742</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164">
+        <v>0.1002920824791742</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="2">
         <v>40087</v>
       </c>
@@ -5597,7 +6086,7 @@
         <v>21.93000030517578</v>
       </c>
       <c r="F165">
-        <v>12.49407958984375</v>
+        <v>12.38554191589355</v>
       </c>
       <c r="G165">
         <v>8321400</v>
@@ -5606,13 +6095,16 @@
         <v>-0.02964602057455246</v>
       </c>
       <c r="I165">
-        <v>0.4629753595746675</v>
+        <v>0.06889600732850389</v>
       </c>
       <c r="J165">
         <v>0.4629753595746675</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165">
+        <v>0.4629753595746675</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="2">
         <v>40118</v>
       </c>
@@ -5629,7 +6121,7 @@
         <v>23.32999992370605</v>
       </c>
       <c r="F166">
-        <v>13.29169178009033</v>
+        <v>13.17622852325439</v>
       </c>
       <c r="G166">
         <v>4830800</v>
@@ -5638,13 +6130,16 @@
         <v>0.06383947100082143</v>
       </c>
       <c r="I166">
-        <v>0.7079063092468429</v>
+        <v>0.06906342276704364</v>
       </c>
       <c r="J166">
         <v>0.7079063092468429</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <v>0.7079063092468429</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="2">
         <v>40148</v>
       </c>
@@ -5661,7 +6156,7 @@
         <v>22.84000015258789</v>
       </c>
       <c r="F167">
-        <v>13.382080078125</v>
+        <v>13.26583290100098</v>
       </c>
       <c r="G167">
         <v>2073600</v>
@@ -5670,13 +6165,16 @@
         <v>-0.02100299068669376</v>
       </c>
       <c r="I167">
-        <v>0.6302640813311959</v>
+        <v>0.06886938529369253</v>
       </c>
       <c r="J167">
         <v>0.6302640813311959</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167">
+        <v>0.6302640813311959</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="2">
         <v>40179</v>
       </c>
@@ -5693,7 +6191,7 @@
         <v>21.10000038146973</v>
       </c>
       <c r="F168">
-        <v>12.36260604858398</v>
+        <v>12.25521087646484</v>
       </c>
       <c r="G168">
         <v>11208800</v>
@@ -5702,13 +6200,16 @@
         <v>-0.07618212607240338</v>
       </c>
       <c r="I168">
-        <v>0.8173988807428179</v>
+        <v>0.06916464354929315</v>
       </c>
       <c r="J168">
         <v>0.8173988807428179</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168">
+        <v>0.8173988807428179</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="2">
         <v>40210</v>
       </c>
@@ -5725,7 +6226,7 @@
         <v>22.13999938964844</v>
       </c>
       <c r="F169">
-        <v>12.97194576263428</v>
+        <v>12.85926151275635</v>
       </c>
       <c r="G169">
         <v>6337000</v>
@@ -5734,13 +6235,16 @@
         <v>0.0492890516292146</v>
       </c>
       <c r="I169">
-        <v>0.9732619307246573</v>
+        <v>0.06917835684726228</v>
       </c>
       <c r="J169">
         <v>0.9732619307246573</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169">
+        <v>0.9732619307246573</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="2">
         <v>40238</v>
       </c>
@@ -5757,7 +6261,7 @@
         <v>24.01000022888184</v>
       </c>
       <c r="F170">
-        <v>14.06759071350098</v>
+        <v>13.94538497924805</v>
       </c>
       <c r="G170">
         <v>5340900</v>
@@ -5766,13 +6270,16 @@
         <v>0.08446255152598225</v>
       </c>
       <c r="I170">
-        <v>0.7931291720134273</v>
+        <v>0.06935781667031263</v>
       </c>
       <c r="J170">
         <v>0.7931291720134273</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <v>0.7931291720134273</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="2">
         <v>40269</v>
       </c>
@@ -5789,7 +6296,7 @@
         <v>23.44000053405762</v>
       </c>
       <c r="F171">
-        <v>13.7336254119873</v>
+        <v>13.6143217086792</v>
       </c>
       <c r="G171">
         <v>5310100</v>
@@ -5798,13 +6305,16 @@
         <v>-0.02374009535154276</v>
       </c>
       <c r="I171">
-        <v>0.5956433766927314</v>
+        <v>0.06942507295417118</v>
       </c>
       <c r="J171">
         <v>0.5956433766927314</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171">
+        <v>0.5956433766927314</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="2">
         <v>40299</v>
       </c>
@@ -5821,7 +6331,7 @@
         <v>20.11000061035156</v>
       </c>
       <c r="F172">
-        <v>11.78256130218506</v>
+        <v>11.68020248413086</v>
       </c>
       <c r="G172">
         <v>5657600</v>
@@ -5830,13 +6340,16 @@
         <v>-0.1420648399247119</v>
       </c>
       <c r="I172">
-        <v>0.2210079811020769</v>
+        <v>0.07058641237044318</v>
       </c>
       <c r="J172">
         <v>0.2210079811020769</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172">
+        <v>0.2210079811020769</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="2">
         <v>40330</v>
       </c>
@@ -5853,7 +6366,7 @@
         <v>18.97999954223633</v>
       </c>
       <c r="F173">
-        <v>11.22872257232666</v>
+        <v>11.13117790222168</v>
       </c>
       <c r="G173">
         <v>9161800</v>
@@ -5862,13 +6375,16 @@
         <v>-0.0561910011844341</v>
       </c>
       <c r="I173">
-        <v>0.1297619288200165</v>
+        <v>0.06969829770952625</v>
       </c>
       <c r="J173">
         <v>0.1297619288200165</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <v>0.1297619288200165</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="2">
         <v>40360</v>
       </c>
@@ -5885,7 +6401,7 @@
         <v>21.54999923706055</v>
       </c>
       <c r="F174">
-        <v>12.74915313720703</v>
+        <v>12.63840198516846</v>
       </c>
       <c r="G174">
         <v>3763400</v>
@@ -5894,13 +6410,16 @@
         <v>0.1354056773871453</v>
       </c>
       <c r="I174">
-        <v>0.1384045900500284</v>
+        <v>0.07036423746728192</v>
       </c>
       <c r="J174">
         <v>0.1384045900500284</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174">
+        <v>0.1384045900500284</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="2">
         <v>40391</v>
       </c>
@@ -5917,7 +6436,7 @@
         <v>21.05999946594238</v>
       </c>
       <c r="F175">
-        <v>12.45926475524902</v>
+        <v>12.35103130340576</v>
       </c>
       <c r="G175">
         <v>2943400</v>
@@ -5926,13 +6445,16 @@
         <v>-0.02273780920954693</v>
       </c>
       <c r="I175">
-        <v>0.03897380317404631</v>
+        <v>0.07037908113922536</v>
       </c>
       <c r="J175">
         <v>0.03897380317404631</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175">
+        <v>0.03897380317404631</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="2">
         <v>40422</v>
       </c>
@@ -5949,7 +6471,7 @@
         <v>23.73999977111816</v>
       </c>
       <c r="F176">
-        <v>14.04477691650391</v>
+        <v>13.92277050018311</v>
       </c>
       <c r="G176">
         <v>5408300</v>
@@ -5958,13 +6480,16 @@
         <v>0.1272554783066258</v>
       </c>
       <c r="I176">
-        <v>0.0504424500179721</v>
+        <v>0.07103225171717836</v>
       </c>
       <c r="J176">
         <v>0.0504424500179721</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176">
+        <v>0.0504424500179721</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="2">
         <v>40452</v>
       </c>
@@ -5981,7 +6506,7 @@
         <v>24.46999931335449</v>
       </c>
       <c r="F177">
-        <v>14.47664546966553</v>
+        <v>14.35089492797852</v>
       </c>
       <c r="G177">
         <v>2473100</v>
@@ -5990,13 +6515,16 @@
         <v>0.03074977039908977</v>
       </c>
       <c r="I177">
-        <v>0.1158230265769415</v>
+        <v>0.07081954628686292</v>
       </c>
       <c r="J177">
         <v>0.1158230265769415</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177">
+        <v>0.1158230265769415</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="2">
         <v>40483</v>
       </c>
@@ -6013,7 +6541,7 @@
         <v>23.52000045776367</v>
       </c>
       <c r="F178">
-        <v>13.91462135314941</v>
+        <v>13.79374694824219</v>
       </c>
       <c r="G178">
         <v>7780000</v>
@@ -6022,13 +6550,16 @@
         <v>-0.03882300295253216</v>
       </c>
       <c r="I178">
-        <v>0.008144043492454234</v>
+        <v>0.07096432202981079</v>
       </c>
       <c r="J178">
         <v>0.008144043492454234</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178">
+        <v>0.008144043492454234</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="2">
         <v>40513</v>
       </c>
@@ -6045,7 +6576,7 @@
         <v>25.44000053405762</v>
       </c>
       <c r="F179">
-        <v>15.43313503265381</v>
+        <v>15.29906749725342</v>
       </c>
       <c r="G179">
         <v>1096200</v>
@@ -6054,13 +6585,16 @@
         <v>0.08163265471621939</v>
       </c>
       <c r="I179">
-        <v>0.1138353924737225</v>
+        <v>0.07117832361391863</v>
       </c>
       <c r="J179">
         <v>0.1138353924737225</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179">
+        <v>0.1138353924737225</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="2">
         <v>40544</v>
       </c>
@@ -6077,7 +6611,7 @@
         <v>24.8700008392334</v>
       </c>
       <c r="F180">
-        <v>15.0873441696167</v>
+        <v>14.9562816619873</v>
       </c>
       <c r="G180">
         <v>3533400</v>
@@ -6086,13 +6620,16 @@
         <v>-0.02240564791109712</v>
       </c>
       <c r="I180">
-        <v>0.1786730042466982</v>
+        <v>0.07117560196306527</v>
       </c>
       <c r="J180">
         <v>0.1786730042466982</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180">
+        <v>0.1786730042466982</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="2">
         <v>40575</v>
       </c>
@@ -6109,7 +6646,7 @@
         <v>26.11000061035156</v>
       </c>
       <c r="F181">
-        <v>15.83959197998047</v>
+        <v>15.70199012756348</v>
       </c>
       <c r="G181">
         <v>2147100</v>
@@ -6118,13 +6655,16 @@
         <v>0.0498592573089911</v>
       </c>
       <c r="I181">
-        <v>0.1793135198801903</v>
+        <v>0.07106709909711101</v>
       </c>
       <c r="J181">
         <v>0.1793135198801903</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181">
+        <v>0.1793135198801903</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="2">
         <v>40603</v>
       </c>
@@ -6141,7 +6681,7 @@
         <v>26.6200008392334</v>
       </c>
       <c r="F182">
-        <v>16.14897727966309</v>
+        <v>16.00869178771973</v>
       </c>
       <c r="G182">
         <v>4715400</v>
@@ -6150,13 +6690,16 @@
         <v>0.01953275438376068</v>
       </c>
       <c r="I182">
-        <v>0.1087047307568108</v>
+        <v>0.07001124426230217</v>
       </c>
       <c r="J182">
         <v>0.1087047307568108</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182">
+        <v>0.1087047307568108</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="2">
         <v>40634</v>
       </c>
@@ -6173,7 +6716,7 @@
         <v>28.27000045776367</v>
       </c>
       <c r="F183">
-        <v>17.14995002746582</v>
+        <v>17.00096893310547</v>
       </c>
       <c r="G183">
         <v>6585600</v>
@@ -6182,13 +6725,16 @@
         <v>0.06198345479007084</v>
       </c>
       <c r="I183">
-        <v>0.2060580125281231</v>
+        <v>0.06928532279878179</v>
       </c>
       <c r="J183">
         <v>0.2060580125281231</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183">
+        <v>0.2060580125281231</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="2">
         <v>40664</v>
       </c>
@@ -6205,7 +6751,7 @@
         <v>26.71999931335449</v>
       </c>
       <c r="F184">
-        <v>16.20964431762695</v>
+        <v>16.0688304901123</v>
       </c>
       <c r="G184">
         <v>6323100</v>
@@ -6214,13 +6760,16 @@
         <v>-0.05482847963603443</v>
       </c>
       <c r="I184">
-        <v>0.3286921184676868</v>
+        <v>0.06954945806735659</v>
       </c>
       <c r="J184">
         <v>0.3286921184676868</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184">
+        <v>0.3286921184676868</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="2">
         <v>40695</v>
       </c>
@@ -6237,7 +6786,7 @@
         <v>26.04999923706055</v>
       </c>
       <c r="F185">
-        <v>16.07549858093262</v>
+        <v>15.9358491897583</v>
       </c>
       <c r="G185">
         <v>3148000</v>
@@ -6246,13 +6795,16 @@
         <v>-0.02507485379908236</v>
       </c>
       <c r="I185">
-        <v>0.3724973585532128</v>
+        <v>0.06961711385367964</v>
       </c>
       <c r="J185">
         <v>0.3724973585532128</v>
       </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="K185">
+        <v>0.3724973585532128</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="2">
         <v>40725</v>
       </c>
@@ -6269,7 +6821,7 @@
         <v>25.20999908447266</v>
       </c>
       <c r="F186">
-        <v>15.55713176727295</v>
+        <v>15.42198753356934</v>
       </c>
       <c r="G186">
         <v>4162500</v>
@@ -6278,13 +6830,16 @@
         <v>-0.03224568818385409</v>
       </c>
       <c r="I186">
-        <v>0.1698375859391139</v>
+        <v>0.06960186890293579</v>
       </c>
       <c r="J186">
         <v>0.1698375859391139</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="K186">
+        <v>0.1698375859391139</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="2">
         <v>40756</v>
       </c>
@@ -6301,7 +6856,7 @@
         <v>24.34000015258789</v>
       </c>
       <c r="F187">
-        <v>15.0202522277832</v>
+        <v>14.88977527618408</v>
       </c>
       <c r="G187">
         <v>3885400</v>
@@ -6310,13 +6865,16 @@
         <v>-0.03451007391827376</v>
       </c>
       <c r="I187">
-        <v>0.1557455256326017</v>
+        <v>0.06971798337004051</v>
       </c>
       <c r="J187">
         <v>0.1557455256326017</v>
       </c>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="K187">
+        <v>0.1557455256326017</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="2">
         <v>40787</v>
       </c>
@@ -6333,7 +6891,7 @@
         <v>20.05999946594238</v>
       </c>
       <c r="F188">
-        <v>12.37905693054199</v>
+        <v>12.27151966094971</v>
       </c>
       <c r="G188">
         <v>4121100</v>
@@ -6342,13 +6900,16 @@
         <v>-0.1758422621123298</v>
       </c>
       <c r="I188">
-        <v>-0.1550126512491727</v>
+        <v>0.06972787919190752</v>
       </c>
       <c r="J188">
         <v>-0.1550126512491727</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="K188">
+        <v>-0.1550126512491727</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="2">
         <v>40817</v>
       </c>
@@ -6365,7 +6926,7 @@
         <v>23.73999977111816</v>
       </c>
       <c r="F189">
-        <v>14.64999198913574</v>
+        <v>14.52272987365723</v>
       </c>
       <c r="G189">
         <v>4277300</v>
@@ -6374,13 +6935,16 @@
         <v>0.1834496711439919</v>
       </c>
       <c r="I189">
-        <v>-0.02983243002536295</v>
+        <v>0.0705331007324196</v>
       </c>
       <c r="J189">
         <v>-0.02983243002536295</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="K189">
+        <v>-0.02983243002536295</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="2">
         <v>40848</v>
       </c>
@@ -6397,7 +6961,7 @@
         <v>23.26000022888184</v>
       </c>
       <c r="F190">
-        <v>14.35378551483154</v>
+        <v>14.22909355163574</v>
       </c>
       <c r="G190">
         <v>7341000</v>
@@ -6406,13 +6970,16 @@
         <v>-0.02021902050817581</v>
       </c>
       <c r="I190">
-        <v>-0.01105443128492856</v>
+        <v>0.07044137874770832</v>
       </c>
       <c r="J190">
         <v>-0.01105443128492856</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="K190">
+        <v>-0.01105443128492856</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="2">
         <v>40878</v>
       </c>
@@ -6429,7 +6996,7 @@
         <v>21.44000053405762</v>
       </c>
       <c r="F191">
-        <v>13.64723491668701</v>
+        <v>13.52867698669434</v>
       </c>
       <c r="G191">
         <v>1498900</v>
@@ -6438,13 +7005,16 @@
         <v>-0.07824590184501945</v>
       </c>
       <c r="I191">
-        <v>-0.1572327011017562</v>
+        <v>0.07090065104119762</v>
       </c>
       <c r="J191">
         <v>-0.1572327011017562</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="K191">
+        <v>-0.1572327011017562</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="2">
         <v>40909</v>
       </c>
@@ -6461,7 +7031,7 @@
         <v>23.42000007629395</v>
       </c>
       <c r="F192">
-        <v>14.90756416320801</v>
+        <v>14.77806186676025</v>
       </c>
       <c r="G192">
         <v>2357800</v>
@@ -6470,13 +7040,16 @@
         <v>0.09235072261733768</v>
       </c>
       <c r="I192">
-        <v>-0.05830320522756161</v>
+        <v>0.07130246141697422</v>
       </c>
       <c r="J192">
         <v>-0.05830320522756161</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192">
+        <v>-0.05830320522756161</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="2">
         <v>40940</v>
       </c>
@@ -6493,7 +7066,7 @@
         <v>23.75</v>
       </c>
       <c r="F193">
-        <v>15.11761856079102</v>
+        <v>14.98629379272461</v>
       </c>
       <c r="G193">
         <v>7614500</v>
@@ -6502,13 +7075,16 @@
         <v>0.01409051761874602</v>
       </c>
       <c r="I193">
-        <v>-0.09038684623453885</v>
+        <v>0.07128752941659797</v>
       </c>
       <c r="J193">
         <v>-0.09038684623453885</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193">
+        <v>-0.09038684623453885</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" s="2">
         <v>40969</v>
       </c>
@@ -6525,7 +7101,7 @@
         <v>23.51000022888184</v>
       </c>
       <c r="F194">
-        <v>14.96485137939453</v>
+        <v>14.83485507965088</v>
       </c>
       <c r="G194">
         <v>2442700</v>
@@ -6534,13 +7110,16 @@
         <v>-0.01010525352076486</v>
       </c>
       <c r="I194">
-        <v>-0.116829470785288</v>
+        <v>0.07126251741365049</v>
       </c>
       <c r="J194">
         <v>-0.116829470785288</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194">
+        <v>-0.116829470785288</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="2">
         <v>41000</v>
       </c>
@@ -6557,7 +7136,7 @@
         <v>23.84000015258789</v>
       </c>
       <c r="F195">
-        <v>15.17490863800049</v>
+        <v>15.04308223724365</v>
       </c>
       <c r="G195">
         <v>1777600</v>
@@ -6566,13 +7145,16 @@
         <v>0.01403657679682424</v>
       </c>
       <c r="I195">
-        <v>-0.1567032272176418</v>
+        <v>0.07125778271210222</v>
       </c>
       <c r="J195">
         <v>-0.1567032272176418</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195">
+        <v>-0.1567032272176418</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" s="2">
         <v>41030</v>
       </c>
@@ -6589,7 +7171,7 @@
         <v>20.76000022888184</v>
       </c>
       <c r="F196">
-        <v>13.21439075469971</v>
+        <v>13.09959888458252</v>
       </c>
       <c r="G196">
         <v>2518100</v>
@@ -6598,13 +7180,16 @@
         <v>-0.1291946268453238</v>
       </c>
       <c r="I196">
-        <v>-0.223053863683817</v>
+        <v>0.07221104673744906</v>
       </c>
       <c r="J196">
         <v>-0.223053863683817</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196">
+        <v>-0.223053863683817</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="2">
         <v>41061</v>
       </c>
@@ -6621,7 +7206,7 @@
         <v>21.85000038146973</v>
       </c>
       <c r="F197">
-        <v>14.20001697540283</v>
+        <v>14.07666397094727</v>
       </c>
       <c r="G197">
         <v>1491700</v>
@@ -6630,13 +7215,16 @@
         <v>0.05250482372690213</v>
       </c>
       <c r="I197">
-        <v>-0.1612283677005106</v>
+        <v>0.07212528060835578</v>
       </c>
       <c r="J197">
         <v>-0.1612283677005106</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197">
+        <v>-0.1612283677005106</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" s="2">
         <v>41091</v>
       </c>
@@ -6653,7 +7241,7 @@
         <v>23.18000030517578</v>
       </c>
       <c r="F198">
-        <v>15.06436729431152</v>
+        <v>14.93350124359131</v>
       </c>
       <c r="G198">
         <v>3700200</v>
@@ -6662,13 +7250,16 @@
         <v>0.0608695606629821</v>
       </c>
       <c r="I198">
-        <v>-0.08052355624825036</v>
+        <v>0.07174154847566774</v>
       </c>
       <c r="J198">
         <v>-0.08052355624825036</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198">
+        <v>-0.08052355624825036</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" s="2">
         <v>41122</v>
       </c>
@@ -6685,7 +7276,7 @@
         <v>23.46999931335449</v>
       </c>
       <c r="F199">
-        <v>15.25283432006836</v>
+        <v>15.12033271789551</v>
       </c>
       <c r="G199">
         <v>2780800</v>
@@ -6694,13 +7285,16 @@
         <v>0.01251074220710668</v>
       </c>
       <c r="I199">
-        <v>-0.03574366613719593</v>
+        <v>0.07170921882044376</v>
       </c>
       <c r="J199">
         <v>-0.03574366613719593</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199">
+        <v>-0.03574366613719593</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" s="2">
         <v>41153</v>
       </c>
@@ -6717,7 +7311,7 @@
         <v>23.79000091552734</v>
       </c>
       <c r="F200">
-        <v>15.4607982635498</v>
+        <v>15.32649230957031</v>
       </c>
       <c r="G200">
         <v>3303800</v>
@@ -6726,13 +7320,16 @@
         <v>0.01363449559160279</v>
       </c>
       <c r="I200">
-        <v>0.1859422506923647</v>
+        <v>0.07116359164956813</v>
       </c>
       <c r="J200">
         <v>0.1859422506923647</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="K200">
+        <v>0.1859422506923647</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" s="2">
         <v>41183</v>
       </c>
@@ -6749,7 +7346,7 @@
         <v>24.57999992370605</v>
       </c>
       <c r="F201">
-        <v>15.97421073913574</v>
+        <v>15.83544254302979</v>
       </c>
       <c r="G201">
         <v>1908500</v>
@@ -6758,13 +7355,16 @@
         <v>0.03320718695992531</v>
       </c>
       <c r="I201">
-        <v>0.03538332606093064</v>
+        <v>0.07104278559158898</v>
       </c>
       <c r="J201">
         <v>0.03538332606093064</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201">
+        <v>0.03538332606093064</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" s="2">
         <v>41214</v>
       </c>
@@ -6781,7 +7381,7 @@
         <v>24.96999931335449</v>
       </c>
       <c r="F202">
-        <v>16.22766494750977</v>
+        <v>16.08669281005859</v>
       </c>
       <c r="G202">
         <v>1771700</v>
@@ -6790,13 +7390,16 @@
         <v>0.01586653339540112</v>
       </c>
       <c r="I202">
-        <v>0.07351672689793687</v>
+        <v>0.07095213455697855</v>
       </c>
       <c r="J202">
         <v>0.07351672689793687</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="K202">
+        <v>0.07351672689793687</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" s="2">
         <v>41244</v>
       </c>
@@ -6813,7 +7416,7 @@
         <v>25.13999938964844</v>
       </c>
       <c r="F203">
-        <v>16.92741012573242</v>
+        <v>16.78036117553711</v>
       </c>
       <c r="G203">
         <v>3194000</v>
@@ -6822,13 +7425,16 @@
         <v>0.006808173046405575</v>
       </c>
       <c r="I203">
-        <v>0.1725745691896481</v>
+        <v>0.0706793683460228</v>
       </c>
       <c r="J203">
         <v>0.1725745691896481</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203">
+        <v>0.1725745691896481</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" s="2">
         <v>41275</v>
       </c>
@@ -6845,7 +7451,7 @@
         <v>26.1200008392334</v>
       </c>
       <c r="F204">
-        <v>17.58727264404297</v>
+        <v>17.43448829650879</v>
       </c>
       <c r="G204">
         <v>1142800</v>
@@ -6854,13 +7460,16 @@
         <v>0.03898176107309226</v>
       </c>
       <c r="I204">
-        <v>0.1152861124741171</v>
+        <v>0.07067713263779137</v>
       </c>
       <c r="J204">
         <v>0.1152861124741171</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204">
+        <v>0.1152861124741171</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" s="2">
         <v>41306</v>
       </c>
@@ -6877,7 +7486,7 @@
         <v>26.8799991607666</v>
       </c>
       <c r="F205">
-        <v>18.0989990234375</v>
+        <v>17.94177055358887</v>
       </c>
       <c r="G205">
         <v>1657500</v>
@@ -6886,13 +7495,16 @@
         <v>0.02909641260009654</v>
       </c>
       <c r="I205">
-        <v>0.1317894383480673</v>
+        <v>0.07065224293762534</v>
       </c>
       <c r="J205">
         <v>0.1317894383480673</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205">
+        <v>0.1317894383480673</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" s="2">
         <v>41334</v>
       </c>
@@ -6909,7 +7521,7 @@
         <v>27.04000091552734</v>
       </c>
       <c r="F206">
-        <v>18.20672988891602</v>
+        <v>18.0485668182373</v>
       </c>
       <c r="G206">
         <v>2185000</v>
@@ -6918,13 +7530,16 @@
         <v>0.005952446419502655</v>
       </c>
       <c r="I206">
-        <v>0.15014890056483</v>
+        <v>0.0706278361537217</v>
       </c>
       <c r="J206">
         <v>0.15014890056483</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206">
+        <v>0.15014890056483</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" s="2">
         <v>41365</v>
       </c>
@@ -6941,7 +7556,7 @@
         <v>28.10000038146973</v>
       </c>
       <c r="F207">
-        <v>18.92045211791992</v>
+        <v>18.75609588623047</v>
       </c>
       <c r="G207">
         <v>2576400</v>
@@ -6950,13 +7565,16 @@
         <v>0.03920116235401805</v>
       </c>
       <c r="I207">
-        <v>0.17869128362482</v>
+        <v>0.07049056519036423</v>
       </c>
       <c r="J207">
         <v>0.17869128362482</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207">
+        <v>0.17869128362482</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" s="2">
         <v>41395</v>
       </c>
@@ -6973,7 +7591,7 @@
         <v>24.40999984741211</v>
       </c>
       <c r="F208">
-        <v>16.43587875366211</v>
+        <v>16.2931079864502</v>
       </c>
       <c r="G208">
         <v>2946400</v>
@@ -6982,13 +7600,16 @@
         <v>-0.1313167432015749</v>
       </c>
       <c r="I208">
-        <v>0.1758188621526267</v>
+        <v>0.07153667443403171</v>
       </c>
       <c r="J208">
         <v>0.1758188621526267</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="K208">
+        <v>0.1758188621526267</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" s="2">
         <v>41426</v>
       </c>
@@ -7005,7 +7626,7 @@
         <v>22.57999992370605</v>
       </c>
       <c r="F209">
-        <v>15.56610202789307</v>
+        <v>15.43088340759277</v>
       </c>
       <c r="G209">
         <v>2652800</v>
@@ -7014,13 +7635,16 @@
         <v>-0.07496927223045713</v>
       </c>
       <c r="I209">
-        <v>0.03340958945041561</v>
+        <v>0.07193473063319056</v>
       </c>
       <c r="J209">
         <v>0.03340958945041561</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209">
+        <v>0.03340958945041561</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" s="2">
         <v>41456</v>
       </c>
@@ -7037,7 +7661,7 @@
         <v>23.26000022888184</v>
       </c>
       <c r="F210">
-        <v>16.03487968444824</v>
+        <v>15.89558410644531</v>
       </c>
       <c r="G210">
         <v>2148500</v>
@@ -7046,13 +7670,16 @@
         <v>0.03011515976410029</v>
       </c>
       <c r="I210">
-        <v>0.003451247741709018</v>
+        <v>0.07193470299635604</v>
       </c>
       <c r="J210">
         <v>0.003451247741709018</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="K210">
+        <v>0.003451247741709018</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" s="2">
         <v>41487</v>
       </c>
@@ -7069,7 +7696,7 @@
         <v>23.47999954223633</v>
       </c>
       <c r="F211">
-        <v>16.18654251098633</v>
+        <v>16.04592895507812</v>
       </c>
       <c r="G211">
         <v>1098600</v>
@@ -7078,13 +7705,16 @@
         <v>0.009458267892934913</v>
       </c>
       <c r="I211">
-        <v>0.0004260856060676055</v>
+        <v>0.07189289343469185</v>
       </c>
       <c r="J211">
         <v>0.0004260856060676055</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="K211">
+        <v>0.0004260856060676055</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" s="2">
         <v>41518</v>
       </c>
@@ -7101,7 +7731,7 @@
         <v>25.27000045776367</v>
       </c>
       <c r="F212">
-        <v>17.42052268981934</v>
+        <v>17.26918983459473</v>
       </c>
       <c r="G212">
         <v>1793100</v>
@@ -7110,13 +7740,16 @@
         <v>0.07623513417483041</v>
       </c>
       <c r="I212">
-        <v>0.06221099139472308</v>
+        <v>0.07211429777589069</v>
       </c>
       <c r="J212">
         <v>0.06221099139472308</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="K212">
+        <v>0.06221099139472308</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
       <c r="A213" s="2">
         <v>41548</v>
       </c>
@@ -7133,7 +7766,7 @@
         <v>26.67000007629395</v>
       </c>
       <c r="F213">
-        <v>18.38565063476562</v>
+        <v>18.2259349822998</v>
       </c>
       <c r="G213">
         <v>1794100</v>
@@ -7142,13 +7775,16 @@
         <v>0.05540164595051089</v>
       </c>
       <c r="I213">
-        <v>0.08502848490948134</v>
+        <v>0.07194625916699172</v>
       </c>
       <c r="J213">
         <v>0.08502848490948134</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="K213">
+        <v>0.08502848490948134</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" s="2">
         <v>41579</v>
       </c>
@@ -7165,7 +7801,7 @@
         <v>25.36000061035156</v>
       </c>
       <c r="F214">
-        <v>17.48256683349609</v>
+        <v>17.33069610595703</v>
       </c>
       <c r="G214">
         <v>1466300</v>
@@ -7174,13 +7810,16 @@
         <v>-0.04911883997731203</v>
       </c>
       <c r="I214">
-        <v>0.01561879486270112</v>
+        <v>0.07213567907950581</v>
       </c>
       <c r="J214">
         <v>0.01561879486270112</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="K214">
+        <v>0.01561879486270112</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
       <c r="A215" s="2">
         <v>41609</v>
       </c>
@@ -7197,7 +7836,7 @@
         <v>24.3700008392334</v>
       </c>
       <c r="F215">
-        <v>17.23502540588379</v>
+        <v>17.08530235290527</v>
       </c>
       <c r="G215">
         <v>994100</v>
@@ -7206,13 +7845,16 @@
         <v>-0.03903784492473794</v>
       </c>
       <c r="I215">
-        <v>-0.03062842359224927</v>
+        <v>0.07214832041156408</v>
       </c>
       <c r="J215">
         <v>-0.03062842359224927</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="K215">
+        <v>-0.03062842359224927</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
       <c r="A216" s="2">
         <v>41640</v>
       </c>
@@ -7229,7 +7871,7 @@
         <v>23.04000091552734</v>
       </c>
       <c r="F216">
-        <v>16.29441261291504</v>
+        <v>16.15286445617676</v>
       </c>
       <c r="G216">
         <v>1227000</v>
@@ -7238,13 +7880,16 @@
         <v>-0.05457529248685455</v>
       </c>
       <c r="I216">
-        <v>-0.1179172980377458</v>
+        <v>0.07235924607471474</v>
       </c>
       <c r="J216">
         <v>-0.1179172980377458</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="K216">
+        <v>-0.1179172980377458</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" s="2">
         <v>41671</v>
       </c>
@@ -7261,7 +7906,7 @@
         <v>24.95000076293945</v>
       </c>
       <c r="F217">
-        <v>17.64521408081055</v>
+        <v>17.49192810058594</v>
       </c>
       <c r="G217">
         <v>1839100</v>
@@ -7270,13 +7915,16 @@
         <v>0.08289929563869514</v>
       </c>
       <c r="I217">
-        <v>-0.0718005378751696</v>
+        <v>0.07257417092876817</v>
       </c>
       <c r="J217">
         <v>-0.0718005378751696</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="K217">
+        <v>-0.0718005378751696</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" s="2">
         <v>41699</v>
       </c>
@@ -7293,7 +7941,7 @@
         <v>25.8700008392334</v>
       </c>
       <c r="F218">
-        <v>18.29586029052734</v>
+        <v>18.13692283630371</v>
       </c>
       <c r="G218">
         <v>1177300</v>
@@ -7302,13 +7950,16 @@
         <v>0.03687374942531085</v>
       </c>
       <c r="I218">
-        <v>-0.04326923212573153</v>
+        <v>0.07262350802082752</v>
       </c>
       <c r="J218">
         <v>-0.04326923212573153</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="K218">
+        <v>-0.04326923212573153</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" s="2">
         <v>41730</v>
       </c>
@@ -7325,7 +7976,7 @@
         <v>26.45000076293945</v>
       </c>
       <c r="F219">
-        <v>18.70604515075684</v>
+        <v>18.54354667663574</v>
       </c>
       <c r="G219">
         <v>1093800</v>
@@ -7334,13 +7985,16 @@
         <v>0.02241978758757712</v>
       </c>
       <c r="I219">
-        <v>-0.05871884683739537</v>
+        <v>0.07223054796647366</v>
       </c>
       <c r="J219">
         <v>-0.05871884683739537</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="K219">
+        <v>-0.05871884683739537</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" s="2">
         <v>41760</v>
       </c>
@@ -7357,7 +8011,7 @@
         <v>26.55999946594238</v>
       </c>
       <c r="F220">
-        <v>18.78384208679199</v>
+        <v>18.62066459655762</v>
       </c>
       <c r="G220">
         <v>1782300</v>
@@ -7366,13 +8020,16 @@
         <v>0.004158741014369083</v>
       </c>
       <c r="I220">
-        <v>0.08807864121138897</v>
+        <v>0.07222953806715045</v>
       </c>
       <c r="J220">
         <v>0.08807864121138897</v>
       </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="K220">
+        <v>0.08807864121138897</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" s="2">
         <v>41791</v>
       </c>
@@ -7389,7 +8046,7 @@
         <v>26.1299991607666</v>
       </c>
       <c r="F221">
-        <v>18.75941848754883</v>
+        <v>18.59645652770996</v>
       </c>
       <c r="G221">
         <v>1716200</v>
@@ -7398,13 +8055,16 @@
         <v>-0.0161897708517339</v>
       </c>
       <c r="I221">
-        <v>0.1572187444222934</v>
+        <v>0.07226061491018913</v>
       </c>
       <c r="J221">
         <v>0.1572187444222934</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221">
+        <v>0.1572187444222934</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" s="2">
         <v>41821</v>
       </c>
@@ -7421,7 +8081,7 @@
         <v>26.59000015258789</v>
       </c>
       <c r="F222">
-        <v>19.08966636657715</v>
+        <v>18.923828125</v>
       </c>
       <c r="G222">
         <v>1835500</v>
@@ -7430,13 +8090,16 @@
         <v>0.01760432478359841</v>
       </c>
       <c r="I222">
-        <v>0.1431642257497148</v>
+        <v>0.07223800749278753</v>
       </c>
       <c r="J222">
         <v>0.1431642257497148</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222">
+        <v>0.1431642257497148</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" s="2">
         <v>41852</v>
       </c>
@@ -7453,7 +8116,7 @@
         <v>27.15999984741211</v>
       </c>
       <c r="F223">
-        <v>19.49888229370117</v>
+        <v>19.32949256896973</v>
       </c>
       <c r="G223">
         <v>1071700</v>
@@ -7462,13 +8125,16 @@
         <v>0.02143661871204405</v>
       </c>
       <c r="I223">
-        <v>0.1567291472283088</v>
+        <v>0.07223607968543623</v>
       </c>
       <c r="J223">
         <v>0.1567291472283088</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="K223">
+        <v>0.1567291472283088</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
       <c r="A224" s="2">
         <v>41883</v>
       </c>
@@ -7485,7 +8151,7 @@
         <v>23.94000053405762</v>
       </c>
       <c r="F224">
-        <v>17.18716621398926</v>
+        <v>17.03785514831543</v>
       </c>
       <c r="G224">
         <v>1808000</v>
@@ -7494,13 +8160,16 @@
         <v>-0.1185566764154936</v>
       </c>
       <c r="I224">
-        <v>-0.05263157497480142</v>
+        <v>0.07291644541052983</v>
       </c>
       <c r="J224">
         <v>-0.05263157497480142</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224">
+        <v>-0.05263157497480142</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
       <c r="A225" s="2">
         <v>41913</v>
       </c>
@@ -7517,7 +8186,7 @@
         <v>25.43000030517578</v>
       </c>
       <c r="F225">
-        <v>18.25686836242676</v>
+        <v>18.09827041625977</v>
       </c>
       <c r="G225">
         <v>1797800</v>
@@ -7526,13 +8195,16 @@
         <v>0.06223891971090212</v>
       </c>
       <c r="I225">
-        <v>-0.04649417951147128</v>
+        <v>0.07289551604144552</v>
       </c>
       <c r="J225">
         <v>-0.04649417951147128</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="K225">
+        <v>-0.04649417951147128</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" s="2">
         <v>41944</v>
       </c>
@@ -7549,7 +8221,7 @@
         <v>23.6299991607666</v>
       </c>
       <c r="F226">
-        <v>16.964599609375</v>
+        <v>16.81723403930664</v>
       </c>
       <c r="G226">
         <v>1988900</v>
@@ -7558,13 +8230,16 @@
         <v>-0.0707825844596166</v>
       </c>
       <c r="I226">
-        <v>-0.0682177211336028</v>
+        <v>0.07296531484079291</v>
       </c>
       <c r="J226">
         <v>-0.0682177211336028</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="K226">
+        <v>-0.0682177211336028</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
       <c r="A227" s="2">
         <v>41974</v>
       </c>
@@ -7581,7 +8256,7 @@
         <v>22.17000007629395</v>
       </c>
       <c r="F227">
-        <v>16.43499755859375</v>
+        <v>16.29222679138184</v>
       </c>
       <c r="G227">
         <v>1863400</v>
@@ -7590,13 +8265,16 @@
         <v>-0.06178582887538664</v>
       </c>
       <c r="I227">
-        <v>-0.09027495638808758</v>
+        <v>0.0732245083250464</v>
       </c>
       <c r="J227">
         <v>-0.09027495638808758</v>
       </c>
-    </row>
-    <row r="228" spans="1:10">
+      <c r="K227">
+        <v>-0.09027495638808758</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
       <c r="A228" s="2">
         <v>42005</v>
       </c>
@@ -7613,7 +8291,7 @@
         <v>21.92000007629395</v>
       </c>
       <c r="F228">
-        <v>16.24966621398926</v>
+        <v>16.10850715637207</v>
       </c>
       <c r="G228">
         <v>1610900</v>
@@ -7622,13 +8300,16 @@
         <v>-0.01127649973566403</v>
       </c>
       <c r="I228">
-        <v>-0.04861114560453839</v>
+        <v>0.0732393063571562</v>
       </c>
       <c r="J228">
         <v>-0.04861114560453839</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="K228">
+        <v>-0.04861114560453839</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
       <c r="A229" s="2">
         <v>42036</v>
       </c>
@@ -7645,7 +8326,7 @@
         <v>23.68000030517578</v>
       </c>
       <c r="F229">
-        <v>17.55438613891602</v>
+        <v>17.40189170837402</v>
       </c>
       <c r="G229">
         <v>1490100</v>
@@ -7654,13 +8335,16 @@
         <v>0.08029198096514789</v>
       </c>
       <c r="I229">
-        <v>-0.05090182039794244</v>
+        <v>0.07342600114039681</v>
       </c>
       <c r="J229">
         <v>-0.05090182039794244</v>
       </c>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="K229">
+        <v>-0.05090182039794244</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
       <c r="A230" s="2">
         <v>42064</v>
       </c>
@@ -7677,7 +8361,7 @@
         <v>22.86000061035156</v>
       </c>
       <c r="F230">
-        <v>16.94650650024414</v>
+        <v>16.79929161071777</v>
       </c>
       <c r="G230">
         <v>2011500</v>
@@ -7686,13 +8370,16 @@
         <v>-0.03462836504461486</v>
       </c>
       <c r="I230">
-        <v>-0.11635099077063</v>
+        <v>0.07337842198274455</v>
       </c>
       <c r="J230">
         <v>-0.11635099077063</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="K230">
+        <v>-0.11635099077063</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" s="2">
         <v>42095</v>
       </c>
@@ -7709,7 +8396,7 @@
         <v>23.31999969482422</v>
       </c>
       <c r="F231">
-        <v>17.28751373291016</v>
+        <v>17.1373348236084</v>
       </c>
       <c r="G231">
         <v>3375100</v>
@@ -7718,13 +8405,16 @@
         <v>0.0201224441028387</v>
       </c>
       <c r="I231">
-        <v>-0.118336520901007</v>
+        <v>0.07338207761603555</v>
       </c>
       <c r="J231">
         <v>-0.118336520901007</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231">
+        <v>-0.118336520901007</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
       <c r="A232" s="2">
         <v>42125</v>
       </c>
@@ -7741,7 +8431,7 @@
         <v>22.54000091552734</v>
       </c>
       <c r="F232">
-        <v>16.70928955078125</v>
+        <v>16.56413269042969</v>
       </c>
       <c r="G232">
         <v>1551200</v>
@@ -7750,13 +8440,16 @@
         <v>-0.03344763248303095</v>
       </c>
       <c r="I232">
-        <v>-0.1513553701523919</v>
+        <v>0.0734616605084651</v>
       </c>
       <c r="J232">
         <v>-0.1513553701523919</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="K232">
+        <v>-0.1513553701523919</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
       <c r="A233" s="2">
         <v>42156</v>
       </c>
@@ -7773,7 +8466,7 @@
         <v>21.03000068664551</v>
       </c>
       <c r="F233">
-        <v>15.96598720550537</v>
+        <v>15.82728862762451</v>
       </c>
       <c r="G233">
         <v>2770200</v>
@@ -7782,13 +8475,16 @@
         <v>-0.06699202163038187</v>
       </c>
       <c r="I233">
-        <v>-0.1951779042449641</v>
+        <v>0.07360801297069995</v>
       </c>
       <c r="J233">
         <v>-0.1951779042449641</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="K233">
+        <v>-0.1951779042449641</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
       <c r="A234" s="2">
         <v>42186</v>
       </c>
@@ -7805,7 +8501,7 @@
         <v>20.92000007629395</v>
       </c>
       <c r="F234">
-        <v>15.88247299194336</v>
+        <v>15.74450302124023</v>
       </c>
       <c r="G234">
         <v>1249200</v>
@@ -7814,13 +8510,16 @@
         <v>-0.005230651771752637</v>
       </c>
       <c r="I234">
-        <v>-0.213238061066431</v>
+        <v>0.07360089569621769</v>
       </c>
       <c r="J234">
         <v>-0.213238061066431</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="K234">
+        <v>-0.213238061066431</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" s="2">
         <v>42217</v>
       </c>
@@ -7837,7 +8536,7 @@
         <v>18.64999961853027</v>
       </c>
       <c r="F235">
-        <v>14.15908718109131</v>
+        <v>14.0360860824585</v>
       </c>
       <c r="G235">
         <v>3774400</v>
@@ -7846,13 +8545,16 @@
         <v>-0.1085086256924054</v>
       </c>
       <c r="I235">
-        <v>-0.3133284343406466</v>
+        <v>0.07428251640169699</v>
       </c>
       <c r="J235">
         <v>-0.3133284343406466</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235">
+        <v>-0.3133284343406466</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" s="2">
         <v>42248</v>
       </c>
@@ -7869,7 +8571,7 @@
         <v>17.92000007629395</v>
       </c>
       <c r="F236">
-        <v>13.60487079620361</v>
+        <v>13.48668384552002</v>
       </c>
       <c r="G236">
         <v>2565100</v>
@@ -7878,13 +8580,16 @@
         <v>-0.03914206740846338</v>
       </c>
       <c r="I236">
-        <v>-0.2514620018157258</v>
+        <v>0.07418940990777344</v>
       </c>
       <c r="J236">
         <v>-0.2514620018157258</v>
       </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="K236">
+        <v>-0.2514620018157258</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" s="2">
         <v>42278</v>
       </c>
@@ -7901,7 +8606,7 @@
         <v>18.92000007629395</v>
       </c>
       <c r="F237">
-        <v>14.36407279968262</v>
+        <v>14.23928928375244</v>
       </c>
       <c r="G237">
         <v>5071800</v>
@@ -7910,13 +8615,16 @@
         <v>0.05580357119098922</v>
       </c>
       <c r="I237">
-        <v>-0.255996860037664</v>
+        <v>0.07415565064252432</v>
       </c>
       <c r="J237">
         <v>-0.255996860037664</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="K237">
+        <v>-0.255996860037664</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
       <c r="A238" s="2">
         <v>42309</v>
       </c>
@@ -7933,7 +8641,7 @@
         <v>19.09000015258789</v>
       </c>
       <c r="F238">
-        <v>14.49313735961914</v>
+        <v>14.36723232269287</v>
       </c>
       <c r="G238">
         <v>1558200</v>
@@ -7942,13 +8650,16 @@
         <v>0.008985204841883032</v>
       </c>
       <c r="I238">
-        <v>-0.1921286148717504</v>
+        <v>0.07414423839162144</v>
       </c>
       <c r="J238">
         <v>-0.1921286148717504</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="K238">
+        <v>-0.1921286148717504</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
       <c r="A239" s="2">
         <v>42339</v>
       </c>
@@ -7965,7 +8676,7 @@
         <v>18.95999908447266</v>
       </c>
       <c r="F239">
-        <v>14.8010082244873</v>
+        <v>14.67242908477783</v>
       </c>
       <c r="G239">
         <v>2550800</v>
@@ -7974,13 +8685,16 @@
         <v>-0.006809903985129706</v>
       </c>
       <c r="I239">
-        <v>-0.1447903013430161</v>
+        <v>0.07414814464725437</v>
       </c>
       <c r="J239">
         <v>-0.1447903013430161</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="K239">
+        <v>-0.1447903013430161</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
       <c r="A240" s="2">
         <v>42370</v>
       </c>
@@ -7997,7 +8711,7 @@
         <v>17.63999938964844</v>
       </c>
       <c r="F240">
-        <v>13.77055740356445</v>
+        <v>13.65093326568604</v>
       </c>
       <c r="G240">
         <v>3159200</v>
@@ -8006,13 +8720,16 @@
         <v>-0.06962024043056181</v>
       </c>
       <c r="I240">
-        <v>-0.1952555050980244</v>
+        <v>0.07405671722731198</v>
       </c>
       <c r="J240">
         <v>-0.1952555050980244</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="K240">
+        <v>-0.1952555050980244</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
       <c r="A241" s="2">
         <v>42401</v>
       </c>
@@ -8029,7 +8746,7 @@
         <v>17.28000068664551</v>
       </c>
       <c r="F241">
-        <v>13.48952770233154</v>
+        <v>13.37234306335449</v>
       </c>
       <c r="G241">
         <v>3429200</v>
@@ -8038,13 +8755,16 @@
         <v>-0.02040809044552383</v>
       </c>
       <c r="I241">
-        <v>-0.2702702506778014</v>
+        <v>0.07403948508536878</v>
       </c>
       <c r="J241">
         <v>-0.2702702506778014</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241">
+        <v>-0.2702702506778014</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
       <c r="A242" s="2">
         <v>42430</v>
       </c>
@@ -8061,7 +8781,7 @@
         <v>19.31999969482422</v>
       </c>
       <c r="F242">
-        <v>15.08203601837158</v>
+        <v>14.95102119445801</v>
       </c>
       <c r="G242">
         <v>3800600</v>
@@ -8070,13 +8790,16 @@
         <v>0.1180554934673863</v>
       </c>
       <c r="I242">
-        <v>-0.1548556789593586</v>
+        <v>0.07479674202231172</v>
       </c>
       <c r="J242">
         <v>-0.1548556789593586</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242">
+        <v>-0.1548556789593586</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
       <c r="A243" s="2">
         <v>42461</v>
       </c>
@@ -8093,7 +8816,7 @@
         <v>19.93000030517578</v>
       </c>
       <c r="F243">
-        <v>15.55823421478271</v>
+        <v>15.42308044433594</v>
       </c>
       <c r="G243">
         <v>5432800</v>
@@ -8102,13 +8825,16 @@
         <v>0.03157353105522986</v>
       </c>
       <c r="I243">
-        <v>-0.1453687578907145</v>
+        <v>0.07435123175522906</v>
       </c>
       <c r="J243">
         <v>-0.1453687578907145</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="K243">
+        <v>-0.1453687578907145</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
       <c r="A244" s="2">
         <v>42491</v>
       </c>
@@ -8125,7 +8851,7 @@
         <v>19.45000076293945</v>
       </c>
       <c r="F244">
-        <v>15.18352699279785</v>
+        <v>15.05162143707275</v>
       </c>
       <c r="G244">
         <v>2851900</v>
@@ -8134,13 +8860,16 @@
         <v>-0.02408427169525296</v>
       </c>
       <c r="I244">
-        <v>-0.1370896196574355</v>
+        <v>0.07422462331796835</v>
       </c>
       <c r="J244">
         <v>-0.1370896196574355</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="K244">
+        <v>-0.1370896196574355</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
       <c r="A245" s="2">
         <v>42522</v>
       </c>
@@ -8157,7 +8886,7 @@
         <v>19.45000076293945</v>
       </c>
       <c r="F245">
-        <v>15.39894104003906</v>
+        <v>15.26516723632812</v>
       </c>
       <c r="G245">
         <v>3530100</v>
@@ -8166,13 +8895,16 @@
         <v>0</v>
       </c>
       <c r="I245">
-        <v>-0.07513075949205217</v>
+        <v>0.07422368235495058</v>
       </c>
       <c r="J245">
         <v>-0.07513075949205217</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245">
+        <v>-0.07513075949205217</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
       <c r="A246" s="2">
         <v>42552</v>
       </c>
@@ -8189,7 +8921,7 @@
         <v>20.88999938964844</v>
       </c>
       <c r="F246">
-        <v>16.53901290893555</v>
+        <v>16.39533615112305</v>
       </c>
       <c r="G246">
         <v>3121300</v>
@@ -8198,13 +8930,16 @@
         <v>0.07403591620689265</v>
       </c>
       <c r="I246">
-        <v>-0.001434067234039049</v>
+        <v>0.07450930122137053</v>
       </c>
       <c r="J246">
         <v>-0.001434067234039049</v>
       </c>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="K246">
+        <v>-0.001434067234039049</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
       <c r="A247" s="2">
         <v>42583</v>
       </c>
@@ -8221,7 +8956,7 @@
         <v>20.21999931335449</v>
       </c>
       <c r="F247">
-        <v>16.00856399536133</v>
+        <v>15.86949729919434</v>
       </c>
       <c r="G247">
         <v>4053200</v>
@@ -8230,13 +8965,16 @@
         <v>-0.03207276667638148</v>
       </c>
       <c r="I247">
-        <v>0.08418229098859054</v>
+        <v>0.07454129916242964</v>
       </c>
       <c r="J247">
         <v>0.08418229098859054</v>
       </c>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="K247">
+        <v>0.08418229098859054</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
       <c r="A248" s="2">
         <v>42614</v>
       </c>
@@ -8253,7 +8991,7 @@
         <v>20.89999961853027</v>
       </c>
       <c r="F248">
-        <v>16.54692840576172</v>
+        <v>16.4031867980957</v>
       </c>
       <c r="G248">
         <v>1388600</v>
@@ -8262,13 +9000,16 @@
         <v>0.03363008547318147</v>
       </c>
       <c r="I248">
-        <v>0.1662946166043</v>
+        <v>0.07457703497638465</v>
       </c>
       <c r="J248">
         <v>0.1662946166043</v>
       </c>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="K248">
+        <v>0.1662946166043</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
       <c r="A249" s="2">
         <v>42644</v>
       </c>
@@ -8285,7 +9026,7 @@
         <v>20.28000068664551</v>
       </c>
       <c r="F249">
-        <v>16.05606651306152</v>
+        <v>15.91658687591553</v>
       </c>
       <c r="G249">
         <v>1628800</v>
@@ -8294,13 +9035,16 @@
         <v>-0.02966502120579295</v>
       </c>
       <c r="I249">
-        <v>0.07188163873506492</v>
+        <v>0.07423965919811716</v>
       </c>
       <c r="J249">
         <v>0.07188163873506492</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249">
+        <v>0.07188163873506492</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
       <c r="A250" s="2">
         <v>42675</v>
       </c>
@@ -8317,7 +9061,7 @@
         <v>20.44000053405762</v>
       </c>
       <c r="F250">
-        <v>16.1827392578125</v>
+        <v>16.04216384887695</v>
       </c>
       <c r="G250">
         <v>2471700</v>
@@ -8326,13 +9070,16 @@
         <v>0.007889538559900933</v>
       </c>
       <c r="I250">
-        <v>0.07071767263902906</v>
+        <v>0.07414276182325874</v>
       </c>
       <c r="J250">
         <v>0.07071767263902906</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="K250">
+        <v>0.07071767263902906</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
       <c r="A251" s="2">
         <v>42705</v>
       </c>
@@ -8349,7 +9096,7 @@
         <v>20.22999954223633</v>
       </c>
       <c r="F251">
-        <v>16.44485282897949</v>
+        <v>16.30200004577637</v>
       </c>
       <c r="G251">
         <v>2028800</v>
@@ -8358,13 +9105,16 @@
         <v>-0.0102740208578459</v>
       </c>
       <c r="I251">
-        <v>0.06698314974095876</v>
+        <v>0.07412024630288885</v>
       </c>
       <c r="J251">
         <v>0.06698314974095876</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="K251">
+        <v>0.06698314974095876</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
       <c r="A252" s="2">
         <v>42736</v>
       </c>
@@ -8381,7 +9131,7 @@
         <v>21.23999977111816</v>
       </c>
       <c r="F252">
-        <v>17.26587677001953</v>
+        <v>17.11588859558105</v>
       </c>
       <c r="G252">
         <v>1981700</v>
@@ -8390,13 +9140,16 @@
         <v>0.04992586513772035</v>
       </c>
       <c r="I252">
-        <v>0.2040816613396421</v>
+        <v>0.07423723410853569</v>
       </c>
       <c r="J252">
         <v>0.2040816613396421</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="K252">
+        <v>0.2040816613396421</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
       <c r="A253" s="2">
         <v>42767</v>
       </c>
@@ -8413,7 +9166,7 @@
         <v>21.95000076293945</v>
       </c>
       <c r="F253">
-        <v>17.8430347442627</v>
+        <v>17.68803024291992</v>
       </c>
       <c r="G253">
         <v>1581100</v>
@@ -8422,13 +9175,16 @@
         <v>0.03342754234803413</v>
       </c>
       <c r="I253">
-        <v>0.2702546233058347</v>
+        <v>0.0742536958040706</v>
       </c>
       <c r="J253">
         <v>0.2702546233058347</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="K253">
+        <v>0.2702546233058347</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
       <c r="A254" s="2">
         <v>42795</v>
       </c>
@@ -8445,7 +9201,7 @@
         <v>22.61000061035156</v>
       </c>
       <c r="F254">
-        <v>18.37954330444336</v>
+        <v>18.21987724304199</v>
       </c>
       <c r="G254">
         <v>2456100</v>
@@ -8454,13 +9210,16 @@
         <v>0.03006832913311142</v>
       </c>
       <c r="I254">
-        <v>0.170289905149881</v>
+        <v>0.07413927725628178</v>
       </c>
       <c r="J254">
         <v>0.170289905149881</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="K254">
+        <v>0.170289905149881</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
       <c r="A255" s="2">
         <v>42826</v>
       </c>
@@ -8477,7 +9236,7 @@
         <v>22.45999908447266</v>
       </c>
       <c r="F255">
-        <v>18.25760650634766</v>
+        <v>18.09900665283203</v>
       </c>
       <c r="G255">
         <v>3173900</v>
@@ -8486,13 +9245,16 @@
         <v>-0.006634299948237499</v>
       </c>
       <c r="I255">
-        <v>0.1269442418743887</v>
+        <v>0.07404058301920681</v>
       </c>
       <c r="J255">
         <v>0.1269442418743887</v>
       </c>
-    </row>
-    <row r="256" spans="1:10">
+      <c r="K255">
+        <v>0.1269442418743887</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
       <c r="A256" s="2">
         <v>42856</v>
       </c>
@@ -8509,7 +9271,7 @@
         <v>21.48999977111816</v>
       </c>
       <c r="F256">
-        <v>17.4690990447998</v>
+        <v>17.31734657287598</v>
       </c>
       <c r="G256">
         <v>1522600</v>
@@ -8518,13 +9280,16 @@
         <v>-0.04318786076999825</v>
       </c>
       <c r="I256">
-        <v>0.1048842636585279</v>
+        <v>0.07410333486381872</v>
       </c>
       <c r="J256">
         <v>0.1048842636585279</v>
       </c>
-    </row>
-    <row r="257" spans="1:10">
+      <c r="K256">
+        <v>0.1048842636585279</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11">
       <c r="A257" s="2">
         <v>42887</v>
       </c>
@@ -8541,7 +9306,7 @@
         <v>21.68000030517578</v>
       </c>
       <c r="F257">
-        <v>18.00403022766113</v>
+        <v>17.84763145446777</v>
       </c>
       <c r="G257">
         <v>2991200</v>
@@ -8550,13 +9315,16 @@
         <v>0.008841346490518376</v>
       </c>
       <c r="I257">
-        <v>0.1146529282654543</v>
+        <v>0.0740848496192839</v>
       </c>
       <c r="J257">
         <v>0.1146529282654543</v>
       </c>
-    </row>
-    <row r="258" spans="1:10">
+      <c r="K257">
+        <v>0.1146529282654543</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
       <c r="A258" s="2">
         <v>42917</v>
       </c>
@@ -8573,7 +9341,7 @@
         <v>22.70000076293945</v>
       </c>
       <c r="F258">
-        <v>18.8510856628418</v>
+        <v>18.68732643127441</v>
       </c>
       <c r="G258">
         <v>1629500</v>
@@ -8582,13 +9350,16 @@
         <v>0.04704799093200029</v>
       </c>
       <c r="I258">
-        <v>0.08664439570007465</v>
+        <v>0.074191859545488</v>
       </c>
       <c r="J258">
         <v>0.08664439570007465</v>
       </c>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="K258">
+        <v>0.08664439570007465</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
       <c r="A259" s="2">
         <v>42948</v>
       </c>
@@ -8605,7 +9376,7 @@
         <v>22.64999961853027</v>
       </c>
       <c r="F259">
-        <v>18.8095645904541</v>
+        <v>18.64616012573242</v>
       </c>
       <c r="G259">
         <v>1758800</v>
@@ -8614,13 +9385,16 @@
         <v>-0.002202693512275644</v>
       </c>
       <c r="I259">
-        <v>0.1201780607168896</v>
+        <v>0.07419125234570091</v>
       </c>
       <c r="J259">
         <v>0.1201780607168896</v>
       </c>
-    </row>
-    <row r="260" spans="1:10">
+      <c r="K259">
+        <v>0.1201780607168896</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
       <c r="A260" s="2">
         <v>42979</v>
       </c>
@@ -8637,7 +9411,7 @@
         <v>22.44000053405762</v>
       </c>
       <c r="F260">
-        <v>18.63516998291016</v>
+        <v>18.47328758239746</v>
       </c>
       <c r="G260">
         <v>4612800</v>
@@ -8646,13 +9420,16 @@
         <v>-0.009271482914324336</v>
       </c>
       <c r="I260">
-        <v>0.07368425567634729</v>
+        <v>0.07312039195795758</v>
       </c>
       <c r="J260">
         <v>0.07368425567634729</v>
       </c>
-    </row>
-    <row r="261" spans="1:10">
+      <c r="K260">
+        <v>0.07368425567634729</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
       <c r="A261" s="2">
         <v>43009</v>
       </c>
@@ -8669,7 +9446,7 @@
         <v>22.70000076293945</v>
       </c>
       <c r="F261">
-        <v>18.8510856628418</v>
+        <v>18.68732643127441</v>
       </c>
       <c r="G261">
         <v>1879100</v>
@@ -8678,13 +9455,16 @@
         <v>0.01158646268689822</v>
       </c>
       <c r="I261">
-        <v>0.1193293882819013</v>
+        <v>0.07263701923949832</v>
       </c>
       <c r="J261">
         <v>0.1193293882819013</v>
       </c>
-    </row>
-    <row r="262" spans="1:10">
+      <c r="K261">
+        <v>0.1193293882819013</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
       <c r="A262" s="2">
         <v>43040</v>
       </c>
@@ -8701,7 +9481,7 @@
         <v>22.77000045776367</v>
       </c>
       <c r="F262">
-        <v>18.90921592712402</v>
+        <v>18.74494934082031</v>
       </c>
       <c r="G262">
         <v>2209000</v>
@@ -8710,13 +9490,16 @@
         <v>0.003083686893019966</v>
       </c>
       <c r="I262">
-        <v>0.1139921655003753</v>
+        <v>0.07218854843913063</v>
       </c>
       <c r="J262">
         <v>0.1139921655003753</v>
       </c>
-    </row>
-    <row r="263" spans="1:10">
+      <c r="K262">
+        <v>0.1139921655003753</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
       <c r="A263" s="2">
         <v>43070</v>
       </c>
@@ -8733,7 +9516,7 @@
         <v>23.17000007629395</v>
       </c>
       <c r="F263">
-        <v>19.71436882019043</v>
+        <v>19.5431079864502</v>
       </c>
       <c r="G263">
         <v>1875300</v>
@@ -8742,13 +9525,16 @@
         <v>0.01756695698237842</v>
       </c>
       <c r="I263">
-        <v>0.1453287494109659</v>
+        <v>0.07173820908069997</v>
       </c>
       <c r="J263">
         <v>0.1453287494109659</v>
       </c>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="K263">
+        <v>0.1453287494109659</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
       <c r="A264" s="2">
         <v>43101</v>
       </c>
@@ -8765,7 +9551,7 @@
         <v>23.77000045776367</v>
       </c>
       <c r="F264">
-        <v>20.22488403320312</v>
+        <v>20.0491886138916</v>
       </c>
       <c r="G264">
         <v>2027800</v>
@@ -8774,13 +9560,16 @@
         <v>0.0258955709751425</v>
       </c>
       <c r="I264">
-        <v>0.1191149112009768</v>
+        <v>0.07149860966830598</v>
       </c>
       <c r="J264">
         <v>0.1191149112009768</v>
       </c>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="K264">
+        <v>0.1191149112009768</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
       <c r="A265" s="2">
         <v>43132</v>
       </c>
@@ -8797,7 +9586,7 @@
         <v>22.81999969482422</v>
       </c>
       <c r="F265">
-        <v>19.41656875610352</v>
+        <v>19.24789428710938</v>
       </c>
       <c r="G265">
         <v>2847100</v>
@@ -8806,13 +9595,16 @@
         <v>-0.03996637545832138</v>
       </c>
       <c r="I265">
-        <v>0.03963548526857807</v>
+        <v>0.07158774811513538</v>
       </c>
       <c r="J265">
         <v>0.03963548526857807</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="K265">
+        <v>0.03963548526857807</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
       <c r="A266" s="2">
         <v>43160</v>
       </c>
@@ -8829,7 +9621,7 @@
         <v>22.02000045776367</v>
       </c>
       <c r="F266">
-        <v>18.73588371276855</v>
+        <v>18.5731258392334</v>
       </c>
       <c r="G266">
         <v>4194800</v>
@@ -8838,13 +9630,16 @@
         <v>-0.03505693460819781</v>
       </c>
       <c r="I266">
-        <v>-0.02609465442994152</v>
+        <v>0.07161006982159385</v>
       </c>
       <c r="J266">
         <v>-0.02609465442994152</v>
       </c>
-    </row>
-    <row r="267" spans="1:10">
+      <c r="K266">
+        <v>-0.02609465442994152</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
       <c r="A267" s="2">
         <v>43191</v>
       </c>
@@ -8861,7 +9656,7 @@
         <v>22.19000053405762</v>
       </c>
       <c r="F267">
-        <v>18.88053131103516</v>
+        <v>18.71651268005371</v>
       </c>
       <c r="G267">
         <v>3277700</v>
@@ -8870,13 +9665,16 @@
         <v>0.007720257618523796</v>
       </c>
       <c r="I267">
-        <v>-0.01202130727608519</v>
+        <v>0.07126035661877868</v>
       </c>
       <c r="J267">
         <v>-0.01202130727608519</v>
       </c>
-    </row>
-    <row r="268" spans="1:10">
+      <c r="K267">
+        <v>-0.01202130727608519</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
       <c r="A268" s="2">
         <v>43221</v>
       </c>
@@ -8893,7 +9691,7 @@
         <v>22.56999969482422</v>
       </c>
       <c r="F268">
-        <v>19.20385360717773</v>
+        <v>19.03703117370605</v>
       </c>
       <c r="G268">
         <v>1540200</v>
@@ -8902,13 +9700,16 @@
         <v>0.01712479277246404</v>
       </c>
       <c r="I268">
-        <v>0.05025592997713924</v>
+        <v>0.07111032367907119</v>
       </c>
       <c r="J268">
         <v>0.05025592997713924</v>
       </c>
-    </row>
-    <row r="269" spans="1:10">
+      <c r="K268">
+        <v>0.05025592997713924</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
       <c r="A269" s="2">
         <v>43252</v>
       </c>
@@ -8925,7 +9726,7 @@
         <v>22.61000061035156</v>
       </c>
       <c r="F269">
-        <v>19.61144065856934</v>
+        <v>19.44107437133789</v>
       </c>
       <c r="G269">
         <v>1647000</v>
@@ -8934,13 +9735,16 @@
         <v>0.001772304655215162</v>
       </c>
       <c r="I269">
-        <v>0.04289669243933347</v>
+        <v>0.07055816847452054</v>
       </c>
       <c r="J269">
         <v>0.04289669243933347</v>
       </c>
-    </row>
-    <row r="270" spans="1:10">
+      <c r="K269">
+        <v>0.04289669243933347</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
       <c r="A270" s="2">
         <v>43282</v>
       </c>
@@ -8957,7 +9761,7 @@
         <v>22.92000007629395</v>
       </c>
       <c r="F270">
-        <v>19.88032913208008</v>
+        <v>19.70762825012207</v>
       </c>
       <c r="G270">
         <v>2418000</v>
@@ -8966,13 +9770,16 @@
         <v>0.01371072346634317</v>
       </c>
       <c r="I270">
-        <v>0.009691599381514981</v>
+        <v>0.07034065276990764</v>
       </c>
       <c r="J270">
         <v>0.009691599381514981</v>
       </c>
-    </row>
-    <row r="271" spans="1:10">
+      <c r="K270">
+        <v>0.009691599381514981</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
       <c r="A271" s="2">
         <v>43313</v>
       </c>
@@ -8989,7 +9796,7 @@
         <v>22.48999977111816</v>
       </c>
       <c r="F271">
-        <v>19.50735473632812</v>
+        <v>19.33789253234863</v>
       </c>
       <c r="G271">
         <v>2234600</v>
@@ -8998,13 +9805,16 @@
         <v>-0.01876092075673808</v>
       </c>
       <c r="I271">
-        <v>-0.007064011042243523</v>
+        <v>0.07024765256795201</v>
       </c>
       <c r="J271">
         <v>-0.007064011042243523</v>
       </c>
-    </row>
-    <row r="272" spans="1:10">
+      <c r="K271">
+        <v>-0.007064011042243523</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
       <c r="A272" s="2">
         <v>43344</v>
       </c>
@@ -9021,7 +9831,7 @@
         <v>22.1200008392334</v>
       </c>
       <c r="F272">
-        <v>19.18642616271973</v>
+        <v>19.01975250244141</v>
       </c>
       <c r="G272">
         <v>1631400</v>
@@ -9030,13 +9840,16 @@
         <v>-0.01645170901068316</v>
       </c>
       <c r="I272">
-        <v>-0.01426023561534895</v>
+        <v>0.0690831078278052</v>
       </c>
       <c r="J272">
         <v>-0.01426023561534895</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="K272">
+        <v>-0.01426023561534895</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
       <c r="A273" s="2">
         <v>43374</v>
       </c>
@@ -9053,7 +9866,7 @@
         <v>20.60000038146973</v>
       </c>
       <c r="F273">
-        <v>17.86800956726074</v>
+        <v>17.71279144287109</v>
       </c>
       <c r="G273">
         <v>1906000</v>
@@ -9062,13 +9875,16 @@
         <v>-0.06871611212001882</v>
       </c>
       <c r="I273">
-        <v>-0.09251102691142798</v>
+        <v>0.06469495077822812</v>
       </c>
       <c r="J273">
         <v>-0.09251102691142798</v>
       </c>
-    </row>
-    <row r="274" spans="1:10">
+      <c r="K273">
+        <v>-0.09251102691142798</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
       <c r="A274" s="2">
         <v>43405</v>
       </c>
@@ -9085,7 +9901,7 @@
         <v>20.79999923706055</v>
       </c>
       <c r="F274">
-        <v>18.04148101806641</v>
+        <v>17.88475608825684</v>
       </c>
       <c r="G274">
         <v>3166600</v>
@@ -9094,13 +9910,16 @@
         <v>0.009708682130449064</v>
       </c>
       <c r="I274">
-        <v>-0.08651739925773394</v>
+        <v>0.06412149550091756</v>
       </c>
       <c r="J274">
         <v>-0.08651739925773394</v>
       </c>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="K274">
+        <v>-0.08651739925773394</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
       <c r="A275" s="2">
         <v>43435</v>
       </c>
@@ -9117,7 +9936,7 @@
         <v>19.25</v>
       </c>
       <c r="F275">
-        <v>17.34173393249512</v>
+        <v>17.19108772277832</v>
       </c>
       <c r="G275">
         <v>2618300</v>
@@ -9126,13 +9945,16 @@
         <v>-0.07451919682279717</v>
       </c>
       <c r="I275">
-        <v>-0.1691842927659132</v>
+        <v>0.06450859462059172</v>
       </c>
       <c r="J275">
         <v>-0.1691842927659132</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="K275">
+        <v>-0.1691842927659132</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
       <c r="A276" s="2">
         <v>43466</v>
       </c>
@@ -9149,7 +9971,7 @@
         <v>20.59000015258789</v>
       </c>
       <c r="F276">
-        <v>18.54890060424805</v>
+        <v>18.38776588439941</v>
       </c>
       <c r="G276">
         <v>2161600</v>
@@ -9158,13 +9980,16 @@
         <v>0.06961039753703324</v>
       </c>
       <c r="I276">
-        <v>-0.1337820885122087</v>
+        <v>0.06270807482194952</v>
       </c>
       <c r="J276">
         <v>-0.1337820885122087</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="K276">
+        <v>-0.1337820885122087</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
       <c r="A277" s="2">
         <v>43497</v>
       </c>
@@ -9181,7 +10006,7 @@
         <v>21.28000068664551</v>
       </c>
       <c r="F277">
-        <v>19.17049980163574</v>
+        <v>19.00396919250488</v>
       </c>
       <c r="G277">
         <v>1422300</v>
@@ -9190,13 +10015,16 @@
         <v>0.0335114389968032</v>
       </c>
       <c r="I277">
-        <v>-0.06748462001636213</v>
+        <v>0.06264467939961375</v>
       </c>
       <c r="J277">
         <v>-0.06748462001636213</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="K277">
+        <v>-0.06748462001636213</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
       <c r="A278" s="2">
         <v>43525</v>
       </c>
@@ -9213,7 +10041,7 @@
         <v>21.52000045776367</v>
       </c>
       <c r="F278">
-        <v>19.38670921325684</v>
+        <v>19.21829605102539</v>
       </c>
       <c r="G278">
         <v>1935900</v>
@@ -9222,13 +10050,16 @@
         <v>0.01127818436908123</v>
       </c>
       <c r="I278">
-        <v>-0.02270662986402039</v>
+        <v>0.06025838398097733</v>
       </c>
       <c r="J278">
         <v>-0.02270662986402039</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278">
+        <v>-0.02270662986402039</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
       <c r="A279" s="2">
         <v>43556</v>
       </c>
@@ -9245,7 +10076,7 @@
         <v>21.77000045776367</v>
       </c>
       <c r="F279">
-        <v>19.6119270324707</v>
+        <v>19.44155883789062</v>
       </c>
       <c r="G279">
         <v>4546500</v>
@@ -9254,13 +10085,16 @@
         <v>0.01161710012463346</v>
       </c>
       <c r="I279">
-        <v>-0.01892744777762945</v>
+        <v>0.05967220040745775</v>
       </c>
       <c r="J279">
         <v>-0.01892744777762945</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279">
+        <v>-0.01892744777762945</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
       <c r="A280" s="2">
         <v>43586</v>
       </c>
@@ -9277,7 +10111,7 @@
         <v>21.79999923706055</v>
       </c>
       <c r="F280">
-        <v>19.63895416259766</v>
+        <v>19.46834754943848</v>
       </c>
       <c r="G280">
         <v>2632100</v>
@@ -9286,13 +10120,16 @@
         <v>0.00137798707699055</v>
       </c>
       <c r="I280">
-        <v>-0.03411610403965792</v>
+        <v>0.05870758358583547</v>
       </c>
       <c r="J280">
         <v>-0.03411610403965792</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280">
+        <v>-0.03411610403965792</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
       <c r="A281" s="2">
         <v>43617</v>
       </c>
@@ -9309,7 +10146,7 @@
         <v>22.54000091552734</v>
       </c>
       <c r="F281">
-        <v>20.7188549041748</v>
+        <v>20.53887176513672</v>
       </c>
       <c r="G281">
         <v>1979000</v>
@@ -9318,13 +10155,16 @@
         <v>0.0339450323103121</v>
       </c>
       <c r="I281">
-        <v>-0.003095961651242485</v>
+        <v>0.05875310737157353</v>
       </c>
       <c r="J281">
         <v>-0.003095961651242485</v>
       </c>
-    </row>
-    <row r="282" spans="1:10">
+      <c r="K281">
+        <v>-0.003095961651242485</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
       <c r="A282" s="2">
         <v>43647</v>
       </c>
@@ -9341,7 +10181,7 @@
         <v>22.40999984741211</v>
       </c>
       <c r="F282">
-        <v>20.5993595123291</v>
+        <v>20.42041206359863</v>
       </c>
       <c r="G282">
         <v>3626800</v>
@@ -9350,13 +10190,16 @@
         <v>-0.005767571554341822</v>
       </c>
       <c r="I282">
-        <v>-0.02225131881257392</v>
+        <v>0.05766449064048896</v>
       </c>
       <c r="J282">
         <v>-0.02225131881257392</v>
       </c>
-    </row>
-    <row r="283" spans="1:10">
+      <c r="K282">
+        <v>-0.02225131881257392</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
       <c r="A283" s="2">
         <v>43678</v>
       </c>
@@ -9373,7 +10216,7 @@
         <v>21.68000030517578</v>
       </c>
       <c r="F283">
-        <v>19.9283390045166</v>
+        <v>19.75522422790527</v>
       </c>
       <c r="G283">
         <v>2866600</v>
@@ -9382,13 +10225,16 @@
         <v>-0.03257472321315646</v>
       </c>
       <c r="I283">
-        <v>-0.03601598373436132</v>
+        <v>0.05741590161519972</v>
       </c>
       <c r="J283">
         <v>-0.03601598373436132</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="K283">
+        <v>-0.03601598373436132</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
       <c r="A284" s="2">
         <v>43709</v>
       </c>
@@ -9405,7 +10251,7 @@
         <v>22.25</v>
       </c>
       <c r="F284">
-        <v>20.45228576660156</v>
+        <v>20.27461814880371</v>
       </c>
       <c r="G284">
         <v>1999800</v>
@@ -9414,13 +10260,16 @@
         <v>0.02629149846866663</v>
       </c>
       <c r="I284">
-        <v>0.005876996195046669</v>
+        <v>0.05651636113078303</v>
       </c>
       <c r="J284">
         <v>0.005876996195046669</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="K284">
+        <v>0.005876996195046669</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
       <c r="A285" s="2">
         <v>43739</v>
       </c>
@@ -9437,7 +10286,7 @@
         <v>22.53000068664551</v>
       </c>
       <c r="F285">
-        <v>20.70966339111328</v>
+        <v>20.52975845336914</v>
       </c>
       <c r="G285">
         <v>1730400</v>
@@ -9446,13 +10295,16 @@
         <v>0.01258430052339365</v>
       </c>
       <c r="I285">
-        <v>0.09368933346777353</v>
+        <v>0.05645243070190557</v>
       </c>
       <c r="J285">
         <v>0.09368933346777353</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
+      <c r="K285">
+        <v>0.09368933346777353</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
       <c r="A286" s="2">
         <v>43770</v>
       </c>
@@ -9469,7 +10321,7 @@
         <v>22.82999992370605</v>
       </c>
       <c r="F286">
-        <v>20.98542404174805</v>
+        <v>20.80312156677246</v>
       </c>
       <c r="G286">
         <v>1363100</v>
@@ -9478,13 +10330,16 @@
         <v>0.0133155449586102</v>
       </c>
       <c r="I286">
-        <v>0.09759619043776402</v>
+        <v>0.05617371637771466</v>
       </c>
       <c r="J286">
         <v>0.09759619043776402</v>
       </c>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="K286">
+        <v>0.09759619043776402</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
       <c r="A287" s="2">
         <v>43800</v>
       </c>
@@ -9501,7 +10356,7 @@
         <v>22.63999938964844</v>
       </c>
       <c r="F287">
-        <v>21.23415756225586</v>
+        <v>21.04969596862793</v>
       </c>
       <c r="G287">
         <v>2696300</v>
@@ -9510,13 +10365,16 @@
         <v>-0.008322406250221959</v>
       </c>
       <c r="I287">
-        <v>0.1761038643973214</v>
+        <v>0.05614313815386567</v>
       </c>
       <c r="J287">
         <v>0.1761038643973214</v>
       </c>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="K287">
+        <v>0.1761038643973214</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" s="2">
         <v>43831</v>
       </c>
@@ -9533,7 +10391,7 @@
         <v>22.26000022888184</v>
       </c>
       <c r="F288">
-        <v>20.87775421142578</v>
+        <v>20.69639015197754</v>
       </c>
       <c r="G288">
         <v>4300800</v>
@@ -9542,13 +10400,16 @@
         <v>-0.01678441568069766</v>
       </c>
       <c r="I288">
-        <v>0.081107336761435</v>
+        <v>0.05571264505120575</v>
       </c>
       <c r="J288">
         <v>0.081107336761435</v>
       </c>
-    </row>
-    <row r="289" spans="1:10">
+      <c r="K288">
+        <v>0.081107336761435</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
       <c r="A289" s="2">
         <v>43862</v>
       </c>
@@ -9565,7 +10426,7 @@
         <v>20.1200008392334</v>
       </c>
       <c r="F289">
-        <v>18.87063980102539</v>
+        <v>18.70670890808105</v>
       </c>
       <c r="G289">
         <v>10559800</v>
@@ -9574,13 +10435,16 @@
         <v>-0.09613653942697797</v>
       </c>
       <c r="I289">
-        <v>-0.05451126926608041</v>
+        <v>0.05625439895187887</v>
       </c>
       <c r="J289">
         <v>-0.05451126926608041</v>
       </c>
-    </row>
-    <row r="290" spans="1:10">
+      <c r="K289">
+        <v>-0.05451126926608041</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
       <c r="A290" s="2">
         <v>43891</v>
       </c>
@@ -9597,7 +10461,7 @@
         <v>15.53999996185303</v>
       </c>
       <c r="F290">
-        <v>14.57503700256348</v>
+        <v>14.44842338562012</v>
       </c>
       <c r="G290">
         <v>4801400</v>
@@ -9606,13 +10470,16 @@
         <v>-0.2276342289434455</v>
       </c>
       <c r="I290">
-        <v>-0.2778810580254085</v>
+        <v>0.059475732372739</v>
       </c>
       <c r="J290">
         <v>-0.2778810580254085</v>
       </c>
-    </row>
-    <row r="291" spans="1:10">
+      <c r="K290">
+        <v>-0.2778810580254085</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
       <c r="A291" s="2">
         <v>43922</v>
       </c>
@@ -9629,7 +10496,7 @@
         <v>17.04000091552734</v>
       </c>
       <c r="F291">
-        <v>15.98189449310303</v>
+        <v>15.84305953979492</v>
       </c>
       <c r="G291">
         <v>3330700</v>
@@ -9638,13 +10505,16 @@
         <v>0.09652515813104623</v>
       </c>
       <c r="I291">
-        <v>-0.2172714489103056</v>
+        <v>0.06011299488091235</v>
       </c>
       <c r="J291">
         <v>-0.2172714489103056</v>
       </c>
-    </row>
-    <row r="292" spans="1:10">
+      <c r="K291">
+        <v>-0.2172714489103056</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
       <c r="A292" s="2">
         <v>43952</v>
       </c>
@@ -9661,7 +10531,7 @@
         <v>18.05999946594238</v>
       </c>
       <c r="F292">
-        <v>16.93855667114258</v>
+        <v>16.79140853881836</v>
       </c>
       <c r="G292">
         <v>5594700</v>
@@ -9670,13 +10540,16 @@
         <v>0.05985906664392182</v>
       </c>
       <c r="I292">
-        <v>-0.1715596285324666</v>
+        <v>0.05894044785883615</v>
       </c>
       <c r="J292">
         <v>-0.1715596285324666</v>
       </c>
-    </row>
-    <row r="293" spans="1:10">
+      <c r="K292">
+        <v>-0.1715596285324666</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
       <c r="A293" s="2">
         <v>43983</v>
       </c>
@@ -9693,7 +10566,7 @@
         <v>19.27000045776367</v>
       </c>
       <c r="F293">
-        <v>18.34477043151855</v>
+        <v>18.1854076385498</v>
       </c>
       <c r="G293">
         <v>2204500</v>
@@ -9702,13 +10575,16 @@
         <v>0.06699894947965612</v>
       </c>
       <c r="I293">
-        <v>-0.1450754358892256</v>
+        <v>0.05901097943448287</v>
       </c>
       <c r="J293">
         <v>-0.1450754358892256</v>
       </c>
-    </row>
-    <row r="294" spans="1:10">
+      <c r="K293">
+        <v>-0.1450754358892256</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
       <c r="A294" s="2">
         <v>44013</v>
       </c>
@@ -9725,7 +10601,7 @@
         <v>19.90999984741211</v>
       </c>
       <c r="F294">
-        <v>18.95404052734375</v>
+        <v>18.78938674926758</v>
       </c>
       <c r="G294">
         <v>3038100</v>
@@ -9734,13 +10610,16 @@
         <v>0.03321221455345569</v>
       </c>
       <c r="I294">
-        <v>-0.1115573412325881</v>
+        <v>0.05779292664806129</v>
       </c>
       <c r="J294">
         <v>-0.1115573412325881</v>
       </c>
-    </row>
-    <row r="295" spans="1:10">
+      <c r="K294">
+        <v>-0.1115573412325881</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
       <c r="A295" s="2">
         <v>44044</v>
       </c>
@@ -9757,7 +10636,7 @@
         <v>20.79000091552734</v>
       </c>
       <c r="F295">
-        <v>19.79179000854492</v>
+        <v>19.61985778808594</v>
       </c>
       <c r="G295">
         <v>4087000</v>
@@ -9766,13 +10645,16 @@
         <v>0.04419894901353394</v>
       </c>
       <c r="I295">
-        <v>-0.04105163178599969</v>
+        <v>0.05788438443358224</v>
       </c>
       <c r="J295">
         <v>-0.04105163178599969</v>
       </c>
-    </row>
-    <row r="296" spans="1:10">
+      <c r="K295">
+        <v>-0.04105163178599969</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
       <c r="A296" s="2">
         <v>44075</v>
       </c>
@@ -9789,7 +10671,7 @@
         <v>19.71999931335449</v>
       </c>
       <c r="F296">
-        <v>18.77316474914551</v>
+        <v>18.61008071899414</v>
       </c>
       <c r="G296">
         <v>3361500</v>
@@ -9798,13 +10680,16 @@
         <v>-0.05146712626518957</v>
       </c>
       <c r="I296">
-        <v>-0.1137078960290115</v>
+        <v>0.05691539961508756</v>
       </c>
       <c r="J296">
         <v>-0.1137078960290115</v>
       </c>
-    </row>
-    <row r="297" spans="1:10">
+      <c r="K296">
+        <v>-0.1137078960290115</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
       <c r="A297" s="2">
         <v>44105</v>
       </c>
@@ -9821,7 +10706,7 @@
         <v>19.77000045776367</v>
       </c>
       <c r="F297">
-        <v>18.82076263427734</v>
+        <v>18.65726661682129</v>
       </c>
       <c r="G297">
         <v>3980900</v>
@@ -9830,13 +10715,16 @@
         <v>0.002535555078610807</v>
       </c>
       <c r="I297">
-        <v>-0.1225033353202606</v>
+        <v>0.05684602170012713</v>
       </c>
       <c r="J297">
         <v>-0.1225033353202606</v>
       </c>
-    </row>
-    <row r="298" spans="1:10">
+      <c r="K297">
+        <v>-0.1225033353202606</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
       <c r="A298" s="2">
         <v>44136</v>
       </c>
@@ -9853,7 +10741,7 @@
         <v>22.71999931335449</v>
       </c>
       <c r="F298">
-        <v>21.62911987304688</v>
+        <v>21.44122695922852</v>
       </c>
       <c r="G298">
         <v>4833600</v>
@@ -9862,13 +10750,16 @@
         <v>0.1492159224726957</v>
       </c>
       <c r="I298">
-        <v>-0.004818248388925306</v>
+        <v>0.05834217274737605</v>
       </c>
       <c r="J298">
         <v>-0.004818248388925306</v>
       </c>
-    </row>
-    <row r="299" spans="1:10">
+      <c r="K298">
+        <v>-0.004818248388925306</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
       <c r="A299" s="2">
         <v>44166</v>
       </c>
@@ -9885,7 +10776,7 @@
         <v>23.95000076293945</v>
       </c>
       <c r="F299">
-        <v>22.99369621276855</v>
+        <v>22.79394912719727</v>
       </c>
       <c r="G299">
         <v>3304200</v>
@@ -9894,13 +10785,16 @@
         <v>0.054137389381961</v>
       </c>
       <c r="I299">
-        <v>0.05786225303035919</v>
+        <v>0.05807800952762676</v>
       </c>
       <c r="J299">
         <v>0.05786225303035919</v>
       </c>
-    </row>
-    <row r="300" spans="1:10">
+      <c r="K299">
+        <v>0.05786225303035919</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
       <c r="A300" s="2">
         <v>44197</v>
       </c>
@@ -9917,7 +10811,7 @@
         <v>23.75</v>
       </c>
       <c r="F300">
-        <v>22.80168151855469</v>
+        <v>22.60360336303711</v>
       </c>
       <c r="G300">
         <v>5242300</v>
@@ -9926,13 +10820,16 @@
         <v>-0.008350762278427015</v>
       </c>
       <c r="I300">
-        <v>0.06693619747518786</v>
+        <v>0.05804412888933307</v>
       </c>
       <c r="J300">
         <v>0.06693619747518786</v>
       </c>
-    </row>
-    <row r="301" spans="1:10">
+      <c r="K300">
+        <v>0.06693619747518786</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
       <c r="A301" s="2">
         <v>44228</v>
       </c>
@@ -9949,7 +10846,7 @@
         <v>24.51000022888184</v>
       </c>
       <c r="F301">
-        <v>23.53133583068848</v>
+        <v>23.32691764831543</v>
       </c>
       <c r="G301">
         <v>7178800</v>
@@ -9958,13 +10855,16 @@
         <v>0.03200000963713001</v>
       </c>
       <c r="I301">
-        <v>0.2181908154341659</v>
+        <v>0.05794147271031892</v>
       </c>
       <c r="J301">
         <v>0.2181908154341659</v>
       </c>
-    </row>
-    <row r="302" spans="1:10">
+      <c r="K301">
+        <v>0.2181908154341659</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
       <c r="A302" s="2">
         <v>44256</v>
       </c>
@@ -9981,7 +10881,7 @@
         <v>24.79000091552734</v>
       </c>
       <c r="F302">
-        <v>23.80015563964844</v>
+        <v>23.59340476989746</v>
       </c>
       <c r="G302">
         <v>2750500</v>
@@ -9990,13 +10890,16 @@
         <v>0.0114239365169635</v>
       </c>
       <c r="I302">
-        <v>0.5952381580682657</v>
+        <v>0.05792462334347961</v>
       </c>
       <c r="J302">
         <v>0.5952381580682657</v>
       </c>
-    </row>
-    <row r="303" spans="1:10">
+      <c r="K302">
+        <v>0.5952381580682657</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
       <c r="A303" s="2">
         <v>44287</v>
       </c>
@@ -10013,7 +10916,7 @@
         <v>25.8799991607666</v>
       </c>
       <c r="F303">
-        <v>24.84663200378418</v>
+        <v>24.63078880310059</v>
       </c>
       <c r="G303">
         <v>2008100</v>
@@ -10022,13 +10925,16 @@
         <v>0.04396927006793816</v>
       </c>
       <c r="I303">
-        <v>0.5187792118710508</v>
+        <v>0.05778874528883603</v>
       </c>
       <c r="J303">
         <v>0.5187792118710508</v>
       </c>
-    </row>
-    <row r="304" spans="1:10">
+      <c r="K303">
+        <v>0.5187792118710508</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
       <c r="A304" s="2">
         <v>44317</v>
       </c>
@@ -10045,7 +10951,7 @@
         <v>26.73999977111816</v>
       </c>
       <c r="F304">
-        <v>25.67229270935059</v>
+        <v>25.44927597045898</v>
       </c>
       <c r="G304">
         <v>2120400</v>
@@ -10054,13 +10960,16 @@
         <v>0.03323031832455769</v>
       </c>
       <c r="I304">
-        <v>0.4806201861492057</v>
+        <v>0.05763314253532889</v>
       </c>
       <c r="J304">
         <v>0.4806201861492057</v>
       </c>
-    </row>
-    <row r="305" spans="1:10">
+      <c r="K304">
+        <v>0.4806201861492057</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
       <c r="A305" s="2">
         <v>44348</v>
       </c>
@@ -10077,7 +10986,7 @@
         <v>25.97999954223633</v>
       </c>
       <c r="F305">
-        <v>25.29344367980957</v>
+        <v>25.0737190246582</v>
       </c>
       <c r="G305">
         <v>3270300</v>
@@ -10086,13 +10995,16 @@
         <v>-0.02842184874297238</v>
       </c>
       <c r="I305">
-        <v>0.3482095965269825</v>
+        <v>0.05764701888136804</v>
       </c>
       <c r="J305">
         <v>0.3482095965269825</v>
       </c>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="K305">
+        <v>0.3482095965269825</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
       <c r="A306" s="2">
         <v>44378</v>
       </c>
@@ -10109,7 +11021,7 @@
         <v>25.77000045776367</v>
       </c>
       <c r="F306">
-        <v>25.0889949798584</v>
+        <v>24.87104606628418</v>
       </c>
       <c r="G306">
         <v>1488000</v>
@@ -10118,13 +11030,16 @@
         <v>-0.008083105780323674</v>
       </c>
       <c r="I306">
-        <v>0.2943244929815125</v>
+        <v>0.05756968794173993</v>
       </c>
       <c r="J306">
         <v>0.2943244929815125</v>
       </c>
-    </row>
-    <row r="307" spans="1:10">
+      <c r="K306">
+        <v>0.2943244929815125</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
       <c r="A307" s="2">
         <v>44409</v>
       </c>
@@ -10141,7 +11056,7 @@
         <v>25.92000007629395</v>
       </c>
       <c r="F307">
-        <v>25.23502922058105</v>
+        <v>25.01581192016602</v>
       </c>
       <c r="G307">
         <v>1634100</v>
@@ -10150,13 +11065,16 @@
         <v>0.005820706863242764</v>
       </c>
       <c r="I307">
-        <v>0.2467531955198319</v>
+        <v>0.05747312276170816</v>
       </c>
       <c r="J307">
         <v>0.2467531955198319</v>
       </c>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="K307">
+        <v>0.2467531955198319</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
       <c r="A308" s="2">
         <v>44440</v>
       </c>
@@ -10173,7 +11091,7 @@
         <v>24.81999969482422</v>
       </c>
       <c r="F308">
-        <v>24.16409873962402</v>
+        <v>23.95418548583984</v>
       </c>
       <c r="G308">
         <v>5083900</v>
@@ -10182,13 +11100,16 @@
         <v>-0.04243828619722001</v>
       </c>
       <c r="I308">
-        <v>0.2586207180045883</v>
+        <v>0.05524718080415514</v>
       </c>
       <c r="J308">
         <v>0.2586207180045883</v>
       </c>
-    </row>
-    <row r="309" spans="1:10">
+      <c r="K308">
+        <v>0.2586207180045883</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
       <c r="A309" s="2">
         <v>44470</v>
       </c>
@@ -10205,7 +11126,7 @@
         <v>26.45999908447266</v>
       </c>
       <c r="F309">
-        <v>25.7607593536377</v>
+        <v>25.5369758605957</v>
       </c>
       <c r="G309">
         <v>3122900</v>
@@ -10214,13 +11135,16 @@
         <v>0.06607572158795927</v>
       </c>
       <c r="I309">
-        <v>0.3383914249775257</v>
+        <v>0.0530257324354326</v>
       </c>
       <c r="J309">
         <v>0.3383914249775257</v>
       </c>
-    </row>
-    <row r="310" spans="1:10">
+      <c r="K309">
+        <v>0.3383914249775257</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
       <c r="A310" s="2">
         <v>44501</v>
       </c>
@@ -10237,7 +11161,7 @@
         <v>24.45999908447266</v>
       </c>
       <c r="F310">
-        <v>23.81361198425293</v>
+        <v>23.60674285888672</v>
       </c>
       <c r="G310">
         <v>4639200</v>
@@ -10246,42 +11170,83 @@
         <v>-0.07558579248680497</v>
       </c>
       <c r="I310">
-        <v>0.07658449928277133</v>
+        <v>0.0534628067685101</v>
       </c>
       <c r="J310">
         <v>0.07658449928277133</v>
       </c>
-    </row>
-    <row r="311" spans="1:10">
+      <c r="K310">
+        <v>0.07658449928277133</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
       <c r="A311" s="2">
         <v>44531</v>
       </c>
       <c r="B311">
-        <v>25.04000091552734</v>
+        <v>24.76000022888184</v>
       </c>
       <c r="C311">
-        <v>25.14999961853027</v>
+        <v>24.90999984741211</v>
       </c>
       <c r="D311">
-        <v>25.04000091552734</v>
+        <v>24.76000022888184</v>
       </c>
       <c r="E311">
-        <v>25.05500030517578</v>
+        <v>24.82999992370605</v>
       </c>
       <c r="F311">
-        <v>25.05500030517578</v>
+        <v>24.82999992370605</v>
       </c>
       <c r="G311">
-        <v>759758</v>
+        <v>1795200</v>
       </c>
       <c r="H311">
-        <v>0.02432548008887037</v>
+        <v>0.01512677240729232</v>
       </c>
       <c r="I311">
-        <v>0.04613776647331957</v>
+        <v>0.05296392380588379</v>
       </c>
       <c r="J311">
-        <v>0.04613776647331957</v>
+        <v>0.03674317881978206</v>
+      </c>
+      <c r="K311">
+        <v>0.03674317881978206</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
+      <c r="A312" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B312">
+        <v>24.69000053405762</v>
+      </c>
+      <c r="C312">
+        <v>24.91500091552734</v>
+      </c>
+      <c r="D312">
+        <v>24.625</v>
+      </c>
+      <c r="E312">
+        <v>24.875</v>
+      </c>
+      <c r="F312">
+        <v>24.875</v>
+      </c>
+      <c r="G312">
+        <v>4549316</v>
+      </c>
+      <c r="H312">
+        <v>0.001812326880073156</v>
+      </c>
+      <c r="I312">
+        <v>0.05231647462166485</v>
+      </c>
+      <c r="J312">
+        <v>0.0473684210526315</v>
+      </c>
+      <c r="K312">
+        <v>0.0473684210526315</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/EWA.xlsx
+++ b/etf_dfs/EWA.xlsx
@@ -535,7 +535,7 @@
         <v>10.6875</v>
       </c>
       <c r="F3" t="n">
-        <v>3.756009340286255</v>
+        <v>3.756009817123413</v>
       </c>
       <c r="G3" t="n">
         <v>1600</v>
@@ -564,7 +564,7 @@
         <v>10.625</v>
       </c>
       <c r="F4" t="n">
-        <v>3.734046220779419</v>
+        <v>3.734043598175049</v>
       </c>
       <c r="G4" t="n">
         <v>7600</v>
@@ -595,7 +595,7 @@
         <v>10.4375</v>
       </c>
       <c r="F5" t="n">
-        <v>3.668151140213013</v>
+        <v>3.668152093887329</v>
       </c>
       <c r="G5" t="n">
         <v>2400</v>
@@ -626,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>3.514395475387573</v>
+        <v>3.514395952224731</v>
       </c>
       <c r="G6" t="n">
         <v>27700</v>
@@ -657,7 +657,7 @@
         <v>10.1875</v>
       </c>
       <c r="F7" t="n">
-        <v>3.645604610443115</v>
+        <v>3.645606279373169</v>
       </c>
       <c r="G7" t="n">
         <v>1900</v>
@@ -688,7 +688,7 @@
         <v>10.1875</v>
       </c>
       <c r="F8" t="n">
-        <v>3.645604610443115</v>
+        <v>3.645606279373169</v>
       </c>
       <c r="G8" t="n">
         <v>1800</v>
@@ -719,7 +719,7 @@
         <v>10.625</v>
       </c>
       <c r="F9" t="n">
-        <v>3.802166223526001</v>
+        <v>3.802164316177368</v>
       </c>
       <c r="G9" t="n">
         <v>200</v>
@@ -750,7 +750,7 @@
         <v>10.9375</v>
       </c>
       <c r="F10" t="n">
-        <v>3.913995027542114</v>
+        <v>3.913994789123535</v>
       </c>
       <c r="G10" t="n">
         <v>12300</v>
@@ -781,7 +781,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>3.978676080703735</v>
+        <v>3.978677034378052</v>
       </c>
       <c r="G11" t="n">
         <v>3800</v>
@@ -812,7 +812,7 @@
         <v>10.5</v>
       </c>
       <c r="F12" t="n">
-        <v>3.79782772064209</v>
+        <v>3.797827959060669</v>
       </c>
       <c r="G12" t="n">
         <v>22600</v>
@@ -843,7 +843,7 @@
         <v>10.75</v>
       </c>
       <c r="F13" t="n">
-        <v>3.888251781463623</v>
+        <v>3.888251543045044</v>
       </c>
       <c r="G13" t="n">
         <v>17100</v>
@@ -874,7 +874,7 @@
         <v>10.6875</v>
       </c>
       <c r="F14" t="n">
-        <v>3.865644693374634</v>
+        <v>3.865646600723267</v>
       </c>
       <c r="G14" t="n">
         <v>5100</v>
@@ -909,7 +909,7 @@
         <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>3.978676080703735</v>
+        <v>3.978677034378052</v>
       </c>
       <c r="G15" t="n">
         <v>900</v>
@@ -944,7 +944,7 @@
         <v>11.25</v>
       </c>
       <c r="F16" t="n">
-        <v>4.069100379943848</v>
+        <v>4.069101333618164</v>
       </c>
       <c r="G16" t="n">
         <v>2200</v>
@@ -979,7 +979,7 @@
         <v>11.625</v>
       </c>
       <c r="F17" t="n">
-        <v>4.204738140106201</v>
+        <v>4.204737186431885</v>
       </c>
       <c r="G17" t="n">
         <v>900</v>
@@ -1014,7 +1014,7 @@
         <v>11.5625</v>
       </c>
       <c r="F18" t="n">
-        <v>4.182131767272949</v>
+        <v>4.182132244110107</v>
       </c>
       <c r="G18" t="n">
         <v>4100</v>
@@ -1049,7 +1049,7 @@
         <v>10.4375</v>
       </c>
       <c r="F19" t="n">
-        <v>3.891616106033325</v>
+        <v>3.891615152359009</v>
       </c>
       <c r="G19" t="n">
         <v>5300</v>
@@ -1084,7 +1084,7 @@
         <v>10.9375</v>
       </c>
       <c r="F20" t="n">
-        <v>4.078041553497314</v>
+        <v>4.078040599822998</v>
       </c>
       <c r="G20" t="n">
         <v>12100</v>
@@ -1119,7 +1119,7 @@
         <v>9.5625</v>
       </c>
       <c r="F21" t="n">
-        <v>3.565371990203857</v>
+        <v>3.565373420715332</v>
       </c>
       <c r="G21" t="n">
         <v>233200</v>
@@ -1154,7 +1154,7 @@
         <v>9.1875</v>
       </c>
       <c r="F22" t="n">
-        <v>3.425554752349854</v>
+        <v>3.425555229187012</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>9.3125</v>
       </c>
       <c r="F23" t="n">
-        <v>3.49646782875061</v>
+        <v>3.496467113494873</v>
       </c>
       <c r="G23" t="n">
         <v>4900</v>
@@ -1224,7 +1224,7 @@
         <v>10.0625</v>
       </c>
       <c r="F24" t="n">
-        <v>3.778061389923096</v>
+        <v>3.778061866760254</v>
       </c>
       <c r="G24" t="n">
         <v>7900</v>
@@ -1259,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>3.754595756530762</v>
+        <v>3.754595041275024</v>
       </c>
       <c r="G25" t="n">
         <v>4000</v>
@@ -1294,7 +1294,7 @@
         <v>10.3125</v>
       </c>
       <c r="F26" t="n">
-        <v>3.871927261352539</v>
+        <v>3.871927499771118</v>
       </c>
       <c r="G26" t="n">
         <v>272100</v>
@@ -1329,7 +1329,7 @@
         <v>10.25</v>
       </c>
       <c r="F27" t="n">
-        <v>3.84846019744873</v>
+        <v>3.84846043586731</v>
       </c>
       <c r="G27" t="n">
         <v>30000</v>
@@ -1364,7 +1364,7 @@
         <v>9.4375</v>
       </c>
       <c r="F28" t="n">
-        <v>3.543398857116699</v>
+        <v>3.543399333953857</v>
       </c>
       <c r="G28" t="n">
         <v>6900</v>
@@ -1399,7 +1399,7 @@
         <v>9.4375</v>
       </c>
       <c r="F29" t="n">
-        <v>3.543398857116699</v>
+        <v>3.543399333953857</v>
       </c>
       <c r="G29" t="n">
         <v>37300</v>
@@ -1469,7 +1469,7 @@
         <v>7.625</v>
       </c>
       <c r="F31" t="n">
-        <v>2.919405937194824</v>
+        <v>2.919405698776245</v>
       </c>
       <c r="G31" t="n">
         <v>5400</v>
@@ -1504,7 +1504,7 @@
         <v>8.3125</v>
       </c>
       <c r="F32" t="n">
-        <v>3.182631015777588</v>
+        <v>3.18263053894043</v>
       </c>
       <c r="G32" t="n">
         <v>2100</v>
@@ -1539,7 +1539,7 @@
         <v>8.9375</v>
       </c>
       <c r="F33" t="n">
-        <v>3.421926259994507</v>
+        <v>3.421926021575928</v>
       </c>
       <c r="G33" t="n">
         <v>8900</v>
@@ -1574,7 +1574,7 @@
         <v>9.5625</v>
       </c>
       <c r="F34" t="n">
-        <v>3.661221504211426</v>
+        <v>3.661222457885742</v>
       </c>
       <c r="G34" t="n">
         <v>27000</v>
@@ -1609,7 +1609,7 @@
         <v>9.5</v>
       </c>
       <c r="F35" t="n">
-        <v>3.643428325653076</v>
+        <v>3.643427848815918</v>
       </c>
       <c r="G35" t="n">
         <v>800</v>
@@ -1644,7 +1644,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="n">
-        <v>3.835188627243042</v>
+        <v>3.835187673568726</v>
       </c>
       <c r="G36" t="n">
         <v>6500</v>
@@ -1679,7 +1679,7 @@
         <v>9.9375</v>
       </c>
       <c r="F37" t="n">
-        <v>3.811218500137329</v>
+        <v>3.811217784881592</v>
       </c>
       <c r="G37" t="n">
         <v>32400</v>
@@ -1714,7 +1714,7 @@
         <v>10.125</v>
       </c>
       <c r="F38" t="n">
-        <v>3.883127212524414</v>
+        <v>3.883126974105835</v>
       </c>
       <c r="G38" t="n">
         <v>3900</v>
@@ -1749,7 +1749,7 @@
         <v>11.4375</v>
       </c>
       <c r="F39" t="n">
-        <v>4.386496067047119</v>
+        <v>4.386495590209961</v>
       </c>
       <c r="G39" t="n">
         <v>8500</v>
@@ -1784,7 +1784,7 @@
         <v>10.4375</v>
       </c>
       <c r="F40" t="n">
-        <v>4.002976894378662</v>
+        <v>4.002978324890137</v>
       </c>
       <c r="G40" t="n">
         <v>4100</v>
@@ -1819,7 +1819,7 @@
         <v>11.1875</v>
       </c>
       <c r="F41" t="n">
-        <v>4.290615558624268</v>
+        <v>4.290616512298584</v>
       </c>
       <c r="G41" t="n">
         <v>10400</v>
@@ -1854,7 +1854,7 @@
         <v>11</v>
       </c>
       <c r="F42" t="n">
-        <v>4.218705177307129</v>
+        <v>4.218706130981445</v>
       </c>
       <c r="G42" t="n">
         <v>3100</v>
@@ -1889,7 +1889,7 @@
         <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>3.920900583267212</v>
+        <v>3.920900344848633</v>
       </c>
       <c r="G43" t="n">
         <v>15600</v>
@@ -1924,7 +1924,7 @@
         <v>10.3125</v>
       </c>
       <c r="F44" t="n">
-        <v>4.043428897857666</v>
+        <v>4.043430328369141</v>
       </c>
       <c r="G44" t="n">
         <v>29000</v>
@@ -1959,7 +1959,7 @@
         <v>10.0625</v>
       </c>
       <c r="F45" t="n">
-        <v>3.945406675338745</v>
+        <v>3.945405960083008</v>
       </c>
       <c r="G45" t="n">
         <v>24600</v>
@@ -1994,7 +1994,7 @@
         <v>10.3125</v>
       </c>
       <c r="F46" t="n">
-        <v>4.043428897857666</v>
+        <v>4.043430328369141</v>
       </c>
       <c r="G46" t="n">
         <v>3100</v>
@@ -2029,7 +2029,7 @@
         <v>11.0625</v>
       </c>
       <c r="F47" t="n">
-        <v>4.344367027282715</v>
+        <v>4.344365119934082</v>
       </c>
       <c r="G47" t="n">
         <v>1100</v>
@@ -2064,7 +2064,7 @@
         <v>10.625</v>
       </c>
       <c r="F48" t="n">
-        <v>4.172555446624756</v>
+        <v>4.172554492950439</v>
       </c>
       <c r="G48" t="n">
         <v>14000</v>
@@ -2099,7 +2099,7 @@
         <v>10.3125</v>
       </c>
       <c r="F49" t="n">
-        <v>4.049833297729492</v>
+        <v>4.04983377456665</v>
       </c>
       <c r="G49" t="n">
         <v>11500</v>
@@ -2134,7 +2134,7 @@
         <v>9.875</v>
       </c>
       <c r="F50" t="n">
-        <v>3.878022432327271</v>
+        <v>3.87802267074585</v>
       </c>
       <c r="G50" t="n">
         <v>3500</v>
@@ -2169,7 +2169,7 @@
         <v>9.9375</v>
       </c>
       <c r="F51" t="n">
-        <v>3.902565479278564</v>
+        <v>3.902566194534302</v>
       </c>
       <c r="G51" t="n">
         <v>5000</v>
@@ -2204,7 +2204,7 @@
         <v>9.4375</v>
       </c>
       <c r="F52" t="n">
-        <v>3.706210851669312</v>
+        <v>3.706210374832153</v>
       </c>
       <c r="G52" t="n">
         <v>8700</v>
@@ -2239,7 +2239,7 @@
         <v>10.8125</v>
       </c>
       <c r="F53" t="n">
-        <v>4.246189594268799</v>
+        <v>4.246189117431641</v>
       </c>
       <c r="G53" t="n">
         <v>13700</v>
@@ -2309,7 +2309,7 @@
         <v>9.9375</v>
       </c>
       <c r="F55" t="n">
-        <v>3.991131067276001</v>
+        <v>3.991130828857422</v>
       </c>
       <c r="G55" t="n">
         <v>33300</v>
@@ -2344,7 +2344,7 @@
         <v>9.5</v>
       </c>
       <c r="F56" t="n">
-        <v>3.815421104431152</v>
+        <v>3.815420866012573</v>
       </c>
       <c r="G56" t="n">
         <v>11200</v>
@@ -2379,7 +2379,7 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>3.614609241485596</v>
+        <v>3.614609718322754</v>
       </c>
       <c r="G57" t="n">
         <v>30800</v>
@@ -2414,7 +2414,7 @@
         <v>9.0625</v>
       </c>
       <c r="F58" t="n">
-        <v>3.639711141586304</v>
+        <v>3.639710187911987</v>
       </c>
       <c r="G58" t="n">
         <v>4900</v>
@@ -2449,7 +2449,7 @@
         <v>9.5</v>
       </c>
       <c r="F59" t="n">
-        <v>3.828576564788818</v>
+        <v>3.828577041625977</v>
       </c>
       <c r="G59" t="n">
         <v>97800</v>
@@ -2484,7 +2484,7 @@
         <v>9.920000076293945</v>
       </c>
       <c r="F60" t="n">
-        <v>3.997840642929077</v>
+        <v>3.997840166091919</v>
       </c>
       <c r="G60" t="n">
         <v>23400</v>
@@ -2519,7 +2519,7 @@
         <v>9.449999809265137</v>
       </c>
       <c r="F61" t="n">
-        <v>3.808426380157471</v>
+        <v>3.80842661857605</v>
       </c>
       <c r="G61" t="n">
         <v>54300</v>
@@ -2554,7 +2554,7 @@
         <v>8.300000190734863</v>
       </c>
       <c r="F62" t="n">
-        <v>3.344967126846313</v>
+        <v>3.344967603683472</v>
       </c>
       <c r="G62" t="n">
         <v>3200</v>
@@ -2589,7 +2589,7 @@
         <v>9.399999618530273</v>
       </c>
       <c r="F63" t="n">
-        <v>3.78827691078186</v>
+        <v>3.788276433944702</v>
       </c>
       <c r="G63" t="n">
         <v>18500</v>
@@ -2624,7 +2624,7 @@
         <v>9.460000038146973</v>
       </c>
       <c r="F64" t="n">
-        <v>3.812457084655762</v>
+        <v>3.812456846237183</v>
       </c>
       <c r="G64" t="n">
         <v>2200</v>
@@ -2659,7 +2659,7 @@
         <v>9.689999580383301</v>
       </c>
       <c r="F65" t="n">
-        <v>3.905149459838867</v>
+        <v>3.90514874458313</v>
       </c>
       <c r="G65" t="n">
         <v>9700</v>
@@ -2694,7 +2694,7 @@
         <v>9.350000381469727</v>
       </c>
       <c r="F66" t="n">
-        <v>3.768126726150513</v>
+        <v>3.768125534057617</v>
       </c>
       <c r="G66" t="n">
         <v>39400</v>
@@ -2729,7 +2729,7 @@
         <v>9.350000381469727</v>
       </c>
       <c r="F67" t="n">
-        <v>3.843094825744629</v>
+        <v>3.843093872070312</v>
       </c>
       <c r="G67" t="n">
         <v>2700</v>
@@ -2764,7 +2764,7 @@
         <v>7.710000038146973</v>
       </c>
       <c r="F68" t="n">
-        <v>3.169010639190674</v>
+        <v>3.169011354446411</v>
       </c>
       <c r="G68" t="n">
         <v>8500</v>
@@ -2799,7 +2799,7 @@
         <v>8.779999732971191</v>
       </c>
       <c r="F69" t="n">
-        <v>3.608808994293213</v>
+        <v>3.608809232711792</v>
       </c>
       <c r="G69" t="n">
         <v>20600</v>
@@ -2834,7 +2834,7 @@
         <v>9.310000419616699</v>
       </c>
       <c r="F70" t="n">
-        <v>3.826654672622681</v>
+        <v>3.826652526855469</v>
       </c>
       <c r="G70" t="n">
         <v>8000</v>
@@ -2869,7 +2869,7 @@
         <v>9.449999809265137</v>
       </c>
       <c r="F71" t="n">
-        <v>3.901139497756958</v>
+        <v>3.901139974594116</v>
       </c>
       <c r="G71" t="n">
         <v>16100</v>
@@ -2904,7 +2904,7 @@
         <v>9.590000152587891</v>
       </c>
       <c r="F72" t="n">
-        <v>3.958935022354126</v>
+        <v>3.958933115005493</v>
       </c>
       <c r="G72" t="n">
         <v>80400</v>
@@ -2939,7 +2939,7 @@
         <v>9.529999732971191</v>
       </c>
       <c r="F73" t="n">
-        <v>3.934164762496948</v>
+        <v>3.934165716171265</v>
       </c>
       <c r="G73" t="n">
         <v>100</v>
@@ -2974,7 +2974,7 @@
         <v>9.899999618530273</v>
       </c>
       <c r="F74" t="n">
-        <v>4.086908340454102</v>
+        <v>4.086906909942627</v>
       </c>
       <c r="G74" t="n">
         <v>39200</v>
@@ -3009,7 +3009,7 @@
         <v>9.899999618530273</v>
       </c>
       <c r="F75" t="n">
-        <v>4.086908340454102</v>
+        <v>4.086906909942627</v>
       </c>
       <c r="G75" t="n">
         <v>21800</v>
@@ -3044,7 +3044,7 @@
         <v>10.52000045776367</v>
       </c>
       <c r="F76" t="n">
-        <v>4.342855453491211</v>
+        <v>4.342855930328369</v>
       </c>
       <c r="G76" t="n">
         <v>104300</v>
@@ -3079,7 +3079,7 @@
         <v>10</v>
       </c>
       <c r="F77" t="n">
-        <v>4.128190994262695</v>
+        <v>4.128189086914062</v>
       </c>
       <c r="G77" t="n">
         <v>448600</v>
@@ -3114,7 +3114,7 @@
         <v>9.140000343322754</v>
       </c>
       <c r="F78" t="n">
-        <v>3.773164987564087</v>
+        <v>3.773165225982666</v>
       </c>
       <c r="G78" t="n">
         <v>32800</v>
@@ -3149,7 +3149,7 @@
         <v>9.449999809265137</v>
       </c>
       <c r="F79" t="n">
-        <v>3.901139497756958</v>
+        <v>3.901139974594116</v>
       </c>
       <c r="G79" t="n">
         <v>4600</v>
@@ -3184,7 +3184,7 @@
         <v>8.640000343322754</v>
       </c>
       <c r="F80" t="n">
-        <v>3.566756010055542</v>
+        <v>3.566756248474121</v>
       </c>
       <c r="G80" t="n">
         <v>24200</v>
@@ -3219,7 +3219,7 @@
         <v>9.170000076293945</v>
       </c>
       <c r="F81" t="n">
-        <v>3.785550594329834</v>
+        <v>3.785550355911255</v>
       </c>
       <c r="G81" t="n">
         <v>11800</v>
@@ -3254,7 +3254,7 @@
         <v>9.630000114440918</v>
       </c>
       <c r="F82" t="n">
-        <v>3.975446939468384</v>
+        <v>3.975447654724121</v>
       </c>
       <c r="G82" t="n">
         <v>25200</v>
@@ -3289,7 +3289,7 @@
         <v>9.079999923706055</v>
       </c>
       <c r="F83" t="n">
-        <v>3.855841875076294</v>
+        <v>3.855840682983398</v>
       </c>
       <c r="G83" t="n">
         <v>8700</v>
@@ -3324,7 +3324,7 @@
         <v>9.439999580383301</v>
       </c>
       <c r="F84" t="n">
-        <v>4.008715152740479</v>
+        <v>4.008716106414795</v>
       </c>
       <c r="G84" t="n">
         <v>25300</v>
@@ -3359,7 +3359,7 @@
         <v>9.289999961853027</v>
       </c>
       <c r="F85" t="n">
-        <v>3.94501805305481</v>
+        <v>3.945018291473389</v>
       </c>
       <c r="G85" t="n">
         <v>2200</v>
@@ -3394,7 +3394,7 @@
         <v>9.590000152587891</v>
       </c>
       <c r="F86" t="n">
-        <v>4.072414398193359</v>
+        <v>4.072412490844727</v>
       </c>
       <c r="G86" t="n">
         <v>34700</v>
@@ -3429,7 +3429,7 @@
         <v>10.22999954223633</v>
       </c>
       <c r="F87" t="n">
-        <v>4.34419059753418</v>
+        <v>4.344191074371338</v>
       </c>
       <c r="G87" t="n">
         <v>6300</v>
@@ -3464,7 +3464,7 @@
         <v>10.82999992370605</v>
       </c>
       <c r="F88" t="n">
-        <v>4.598981857299805</v>
+        <v>4.598982334136963</v>
       </c>
       <c r="G88" t="n">
         <v>28200</v>
@@ -3499,7 +3499,7 @@
         <v>11.10000038146973</v>
       </c>
       <c r="F89" t="n">
-        <v>4.713638782501221</v>
+        <v>4.713637351989746</v>
       </c>
       <c r="G89" t="n">
         <v>18700</v>
@@ -3534,7 +3534,7 @@
         <v>10.96000003814697</v>
       </c>
       <c r="F90" t="n">
-        <v>4.654186248779297</v>
+        <v>4.654186725616455</v>
       </c>
       <c r="G90" t="n">
         <v>256500</v>
@@ -3569,7 +3569,7 @@
         <v>11.35000038146973</v>
       </c>
       <c r="F91" t="n">
-        <v>4.819801807403564</v>
+        <v>4.819800853729248</v>
       </c>
       <c r="G91" t="n">
         <v>36500</v>
@@ -3604,7 +3604,7 @@
         <v>11.76000022888184</v>
       </c>
       <c r="F92" t="n">
-        <v>4.993907451629639</v>
+        <v>4.993908882141113</v>
       </c>
       <c r="G92" t="n">
         <v>13300</v>
@@ -3674,7 +3674,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="F94" t="n">
-        <v>5.388833999633789</v>
+        <v>5.38883638381958</v>
       </c>
       <c r="G94" t="n">
         <v>65500</v>
@@ -3709,7 +3709,7 @@
         <v>13.35999965667725</v>
       </c>
       <c r="F95" t="n">
-        <v>5.986868858337402</v>
+        <v>5.986869335174561</v>
       </c>
       <c r="G95" t="n">
         <v>114200</v>
@@ -3744,7 +3744,7 @@
         <v>13.26000022888184</v>
       </c>
       <c r="F96" t="n">
-        <v>5.942058563232422</v>
+        <v>5.942057132720947</v>
       </c>
       <c r="G96" t="n">
         <v>107800</v>
@@ -3779,7 +3779,7 @@
         <v>13.94999980926514</v>
       </c>
       <c r="F97" t="n">
-        <v>6.251259803771973</v>
+        <v>6.251260280609131</v>
       </c>
       <c r="G97" t="n">
         <v>129800</v>
@@ -3814,7 +3814,7 @@
         <v>14.06999969482422</v>
       </c>
       <c r="F98" t="n">
-        <v>6.305034637451172</v>
+        <v>6.305033206939697</v>
       </c>
       <c r="G98" t="n">
         <v>86900</v>
@@ -3849,7 +3849,7 @@
         <v>13.01000022888184</v>
       </c>
       <c r="F99" t="n">
-        <v>5.830028057098389</v>
+        <v>5.830029010772705</v>
       </c>
       <c r="G99" t="n">
         <v>230200</v>
@@ -3884,7 +3884,7 @@
         <v>13.19999980926514</v>
       </c>
       <c r="F100" t="n">
-        <v>5.915169715881348</v>
+        <v>5.915170669555664</v>
       </c>
       <c r="G100" t="n">
         <v>13700</v>
@@ -3919,7 +3919,7 @@
         <v>13.42000007629395</v>
       </c>
       <c r="F101" t="n">
-        <v>6.013755321502686</v>
+        <v>6.013755798339844</v>
       </c>
       <c r="G101" t="n">
         <v>39300</v>
@@ -3954,7 +3954,7 @@
         <v>13.23999977111816</v>
       </c>
       <c r="F102" t="n">
-        <v>5.933093547821045</v>
+        <v>5.933095455169678</v>
       </c>
       <c r="G102" t="n">
         <v>30600</v>
@@ -3989,7 +3989,7 @@
         <v>13.53999996185303</v>
       </c>
       <c r="F103" t="n">
-        <v>6.067531585693359</v>
+        <v>6.067532062530518</v>
       </c>
       <c r="G103" t="n">
         <v>28700</v>
@@ -4024,7 +4024,7 @@
         <v>14.52000045776367</v>
       </c>
       <c r="F104" t="n">
-        <v>6.506687164306641</v>
+        <v>6.506687641143799</v>
       </c>
       <c r="G104" t="n">
         <v>290000</v>
@@ -4059,7 +4059,7 @@
         <v>15.47000026702881</v>
       </c>
       <c r="F105" t="n">
-        <v>6.932398319244385</v>
+        <v>6.932400226593018</v>
       </c>
       <c r="G105" t="n">
         <v>108900</v>
@@ -4094,7 +4094,7 @@
         <v>16.6299991607666</v>
       </c>
       <c r="F106" t="n">
-        <v>7.452217102050781</v>
+        <v>7.452218532562256</v>
       </c>
       <c r="G106" t="n">
         <v>618400</v>
@@ -4129,7 +4129,7 @@
         <v>16.70000076293945</v>
       </c>
       <c r="F107" t="n">
-        <v>7.747335910797119</v>
+        <v>7.747335433959961</v>
       </c>
       <c r="G107" t="n">
         <v>675000</v>
@@ -4164,7 +4164,7 @@
         <v>16.82999992370605</v>
       </c>
       <c r="F108" t="n">
-        <v>7.807642459869385</v>
+        <v>7.807645320892334</v>
       </c>
       <c r="G108" t="n">
         <v>561200</v>
@@ -4199,7 +4199,7 @@
         <v>17.73999977111816</v>
       </c>
       <c r="F109" t="n">
-        <v>8.229801177978516</v>
+        <v>8.229804992675781</v>
       </c>
       <c r="G109" t="n">
         <v>340300</v>
@@ -4234,7 +4234,7 @@
         <v>16.95999908447266</v>
       </c>
       <c r="F110" t="n">
-        <v>7.867950439453125</v>
+        <v>7.867952346801758</v>
       </c>
       <c r="G110" t="n">
         <v>130700</v>
@@ -4269,7 +4269,7 @@
         <v>16.84000015258789</v>
       </c>
       <c r="F111" t="n">
-        <v>7.812283039093018</v>
+        <v>7.812282562255859</v>
       </c>
       <c r="G111" t="n">
         <v>154900</v>
@@ -4304,7 +4304,7 @@
         <v>16.75</v>
       </c>
       <c r="F112" t="n">
-        <v>7.770531177520752</v>
+        <v>7.770530223846436</v>
       </c>
       <c r="G112" t="n">
         <v>231800</v>
@@ -4409,7 +4409,7 @@
         <v>18.48999977111816</v>
       </c>
       <c r="F115" t="n">
-        <v>8.577741622924805</v>
+        <v>8.577737808227539</v>
       </c>
       <c r="G115" t="n">
         <v>328100</v>
@@ -4444,7 +4444,7 @@
         <v>19.61000061035156</v>
       </c>
       <c r="F116" t="n">
-        <v>9.097322463989258</v>
+        <v>9.097320556640625</v>
       </c>
       <c r="G116" t="n">
         <v>239300</v>
@@ -4479,7 +4479,7 @@
         <v>18.51000022888184</v>
       </c>
       <c r="F117" t="n">
-        <v>8.587015151977539</v>
+        <v>8.587017059326172</v>
       </c>
       <c r="G117" t="n">
         <v>514200</v>
@@ -4549,7 +4549,7 @@
         <v>18.80999946594238</v>
       </c>
       <c r="F119" t="n">
-        <v>9.037555694580078</v>
+        <v>9.037556648254395</v>
       </c>
       <c r="G119" t="n">
         <v>112800</v>
@@ -4584,7 +4584,7 @@
         <v>20.39999961853027</v>
       </c>
       <c r="F120" t="n">
-        <v>9.801494598388672</v>
+        <v>9.801497459411621</v>
       </c>
       <c r="G120" t="n">
         <v>220000</v>
@@ -4619,7 +4619,7 @@
         <v>19.86000061035156</v>
       </c>
       <c r="F121" t="n">
-        <v>9.542045593261719</v>
+        <v>9.542046546936035</v>
       </c>
       <c r="G121" t="n">
         <v>185000</v>
@@ -4724,7 +4724,7 @@
         <v>20.79999923706055</v>
       </c>
       <c r="F124" t="n">
-        <v>9.993682861328125</v>
+        <v>9.993681907653809</v>
       </c>
       <c r="G124" t="n">
         <v>470000</v>
@@ -4759,7 +4759,7 @@
         <v>20.75</v>
       </c>
       <c r="F125" t="n">
-        <v>9.969661712646484</v>
+        <v>9.969659805297852</v>
       </c>
       <c r="G125" t="n">
         <v>353600</v>
@@ -4794,7 +4794,7 @@
         <v>20.95999908447266</v>
       </c>
       <c r="F126" t="n">
-        <v>10.07055854797363</v>
+        <v>10.070556640625</v>
       </c>
       <c r="G126" t="n">
         <v>140400</v>
@@ -4829,7 +4829,7 @@
         <v>21.54000091552734</v>
       </c>
       <c r="F127" t="n">
-        <v>10.34922885894775</v>
+        <v>10.34922695159912</v>
       </c>
       <c r="G127" t="n">
         <v>942400</v>
@@ -4864,7 +4864,7 @@
         <v>21.20000076293945</v>
       </c>
       <c r="F128" t="n">
-        <v>10.18587017059326</v>
+        <v>10.18586826324463</v>
       </c>
       <c r="G128" t="n">
         <v>349200</v>
@@ -4899,7 +4899,7 @@
         <v>23.02000045776367</v>
       </c>
       <c r="F129" t="n">
-        <v>11.0603199005127</v>
+        <v>11.06031799316406</v>
       </c>
       <c r="G129" t="n">
         <v>170900</v>
@@ -4969,7 +4969,7 @@
         <v>23.5</v>
       </c>
       <c r="F131" t="n">
-        <v>11.8295373916626</v>
+        <v>11.82953643798828</v>
       </c>
       <c r="G131" t="n">
         <v>330500</v>
@@ -5004,7 +5004,7 @@
         <v>23.92000007629395</v>
       </c>
       <c r="F132" t="n">
-        <v>12.04095649719238</v>
+        <v>12.0409574508667</v>
       </c>
       <c r="G132" t="n">
         <v>651800</v>
@@ -5039,7 +5039,7 @@
         <v>24.60000038146973</v>
       </c>
       <c r="F133" t="n">
-        <v>12.38325881958008</v>
+        <v>12.38325977325439</v>
       </c>
       <c r="G133" t="n">
         <v>766900</v>
@@ -5074,7 +5074,7 @@
         <v>25.95000076293945</v>
       </c>
       <c r="F134" t="n">
-        <v>13.06282901763916</v>
+        <v>13.06283187866211</v>
       </c>
       <c r="G134" t="n">
         <v>692600</v>
@@ -5109,7 +5109,7 @@
         <v>27.09000015258789</v>
       </c>
       <c r="F135" t="n">
-        <v>13.63668727874756</v>
+        <v>13.63668823242188</v>
       </c>
       <c r="G135" t="n">
         <v>901400</v>
@@ -5144,7 +5144,7 @@
         <v>27.89999961853027</v>
       </c>
       <c r="F136" t="n">
-        <v>14.04442882537842</v>
+        <v>14.04443073272705</v>
       </c>
       <c r="G136" t="n">
         <v>519400</v>
@@ -5214,7 +5214,7 @@
         <v>28.04000091552734</v>
       </c>
       <c r="F138" t="n">
-        <v>14.11490440368652</v>
+        <v>14.11490726470947</v>
       </c>
       <c r="G138" t="n">
         <v>2464400</v>
@@ -5249,7 +5249,7 @@
         <v>27.94000053405762</v>
       </c>
       <c r="F139" t="n">
-        <v>14.06456565856934</v>
+        <v>14.06456470489502</v>
       </c>
       <c r="G139" t="n">
         <v>815200</v>
@@ -5284,7 +5284,7 @@
         <v>31.79000091552734</v>
       </c>
       <c r="F140" t="n">
-        <v>16.00259017944336</v>
+        <v>16.00259399414062</v>
       </c>
       <c r="G140" t="n">
         <v>1049900</v>
@@ -5319,7 +5319,7 @@
         <v>34.70999908447266</v>
       </c>
       <c r="F141" t="n">
-        <v>17.47247886657715</v>
+        <v>17.47247695922852</v>
       </c>
       <c r="G141" t="n">
         <v>1997700</v>
@@ -5354,7 +5354,7 @@
         <v>31.63999938964844</v>
       </c>
       <c r="F142" t="n">
-        <v>15.92708110809326</v>
+        <v>15.92708587646484</v>
       </c>
       <c r="G142" t="n">
         <v>1816600</v>
@@ -5424,7 +5424,7 @@
         <v>26.8799991607666</v>
       </c>
       <c r="F144" t="n">
-        <v>14.14979076385498</v>
+        <v>14.14978504180908</v>
       </c>
       <c r="G144" t="n">
         <v>2390100</v>
@@ -5459,7 +5459,7 @@
         <v>26.54000091552734</v>
       </c>
       <c r="F145" t="n">
-        <v>13.97081470489502</v>
+        <v>13.97080898284912</v>
       </c>
       <c r="G145" t="n">
         <v>1252100</v>
@@ -5529,7 +5529,7 @@
         <v>27.78000068664551</v>
       </c>
       <c r="F147" t="n">
-        <v>14.6235523223877</v>
+        <v>14.62354850769043</v>
       </c>
       <c r="G147" t="n">
         <v>1771400</v>
@@ -5564,7 +5564,7 @@
         <v>29.27000045776367</v>
       </c>
       <c r="F148" t="n">
-        <v>15.40789890289307</v>
+        <v>15.40789604187012</v>
       </c>
       <c r="G148" t="n">
         <v>1289000</v>
@@ -5599,7 +5599,7 @@
         <v>26.46999931335449</v>
       </c>
       <c r="F149" t="n">
-        <v>13.93395900726318</v>
+        <v>13.93395614624023</v>
       </c>
       <c r="G149" t="n">
         <v>1596600</v>
@@ -5634,7 +5634,7 @@
         <v>24.8799991607666</v>
       </c>
       <c r="F150" t="n">
-        <v>13.09697437286377</v>
+        <v>13.09697246551514</v>
       </c>
       <c r="G150" t="n">
         <v>1410500</v>
@@ -5669,7 +5669,7 @@
         <v>23.81999969482422</v>
       </c>
       <c r="F151" t="n">
-        <v>12.53898620605469</v>
+        <v>12.53898334503174</v>
       </c>
       <c r="G151" t="n">
         <v>926800</v>
@@ -5704,7 +5704,7 @@
         <v>20.54000091552734</v>
       </c>
       <c r="F152" t="n">
-        <v>10.81237697601318</v>
+        <v>10.81237602233887</v>
       </c>
       <c r="G152" t="n">
         <v>1766000</v>
@@ -5739,7 +5739,7 @@
         <v>14.98999977111816</v>
       </c>
       <c r="F153" t="n">
-        <v>7.890825271606445</v>
+        <v>7.890822887420654</v>
       </c>
       <c r="G153" t="n">
         <v>3812300</v>
@@ -5774,7 +5774,7 @@
         <v>13.65999984741211</v>
       </c>
       <c r="F154" t="n">
-        <v>7.190703868865967</v>
+        <v>7.190701961517334</v>
       </c>
       <c r="G154" t="n">
         <v>827600</v>
@@ -5809,7 +5809,7 @@
         <v>14.01000022888184</v>
       </c>
       <c r="F155" t="n">
-        <v>7.888936996459961</v>
+        <v>7.888938426971436</v>
       </c>
       <c r="G155" t="n">
         <v>1666400</v>
@@ -5844,7 +5844,7 @@
         <v>11.60999965667725</v>
       </c>
       <c r="F156" t="n">
-        <v>6.537513256072998</v>
+        <v>6.537513732910156</v>
       </c>
       <c r="G156" t="n">
         <v>2481100</v>
@@ -5879,7 +5879,7 @@
         <v>11.22000026702881</v>
       </c>
       <c r="F157" t="n">
-        <v>6.31790828704834</v>
+        <v>6.317905902862549</v>
       </c>
       <c r="G157" t="n">
         <v>2426700</v>
@@ -5914,7 +5914,7 @@
         <v>13.39000034332275</v>
       </c>
       <c r="F158" t="n">
-        <v>7.539820194244385</v>
+        <v>7.539817810058594</v>
       </c>
       <c r="G158" t="n">
         <v>4863500</v>
@@ -5949,7 +5949,7 @@
         <v>14.6899995803833</v>
       </c>
       <c r="F159" t="n">
-        <v>8.27184009552002</v>
+        <v>8.271842956542969</v>
       </c>
       <c r="G159" t="n">
         <v>6726700</v>
@@ -5984,7 +5984,7 @@
         <v>16.46999931335449</v>
       </c>
       <c r="F160" t="n">
-        <v>9.274148941040039</v>
+        <v>9.274150848388672</v>
       </c>
       <c r="G160" t="n">
         <v>4663500</v>
@@ -6019,7 +6019,7 @@
         <v>16.79999923706055</v>
       </c>
       <c r="F161" t="n">
-        <v>9.488239288330078</v>
+        <v>9.488238334655762</v>
       </c>
       <c r="G161" t="n">
         <v>1952300</v>
@@ -6054,7 +6054,7 @@
         <v>18.93000030517578</v>
       </c>
       <c r="F162" t="n">
-        <v>10.6912145614624</v>
+        <v>10.69121170043945</v>
       </c>
       <c r="G162" t="n">
         <v>2748400</v>
@@ -6089,7 +6089,7 @@
         <v>20.27000045776367</v>
       </c>
       <c r="F163" t="n">
-        <v>11.44801425933838</v>
+        <v>11.44801235198975</v>
       </c>
       <c r="G163" t="n">
         <v>2750200</v>
@@ -6124,7 +6124,7 @@
         <v>22.60000038146973</v>
       </c>
       <c r="F164" t="n">
-        <v>12.76393890380859</v>
+        <v>12.76394081115723</v>
       </c>
       <c r="G164" t="n">
         <v>4832100</v>
@@ -6159,7 +6159,7 @@
         <v>21.93000030517578</v>
       </c>
       <c r="F165" t="n">
-        <v>12.38554000854492</v>
+        <v>12.38554382324219</v>
       </c>
       <c r="G165" t="n">
         <v>8321400</v>
@@ -6229,7 +6229,7 @@
         <v>22.84000015258789</v>
       </c>
       <c r="F167" t="n">
-        <v>13.26583385467529</v>
+        <v>13.26583480834961</v>
       </c>
       <c r="G167" t="n">
         <v>2073600</v>
@@ -6264,7 +6264,7 @@
         <v>21.10000038146973</v>
       </c>
       <c r="F168" t="n">
-        <v>12.25521469116211</v>
+        <v>12.25521373748779</v>
       </c>
       <c r="G168" t="n">
         <v>11208800</v>
@@ -6299,7 +6299,7 @@
         <v>22.13999938964844</v>
       </c>
       <c r="F169" t="n">
-        <v>12.8592586517334</v>
+        <v>12.85926151275635</v>
       </c>
       <c r="G169" t="n">
         <v>6337000</v>
@@ -6334,7 +6334,7 @@
         <v>24.01000022888184</v>
       </c>
       <c r="F170" t="n">
-        <v>13.94538688659668</v>
+        <v>13.94538402557373</v>
       </c>
       <c r="G170" t="n">
         <v>5340900</v>
@@ -6369,7 +6369,7 @@
         <v>23.44000053405762</v>
       </c>
       <c r="F171" t="n">
-        <v>13.6143217086792</v>
+        <v>13.61432266235352</v>
       </c>
       <c r="G171" t="n">
         <v>5310100</v>
@@ -6439,7 +6439,7 @@
         <v>18.97999954223633</v>
       </c>
       <c r="F173" t="n">
-        <v>11.13117694854736</v>
+        <v>11.13117599487305</v>
       </c>
       <c r="G173" t="n">
         <v>9161800</v>
@@ -6474,7 +6474,7 @@
         <v>21.54999923706055</v>
       </c>
       <c r="F174" t="n">
-        <v>12.63840293884277</v>
+        <v>12.63839912414551</v>
       </c>
       <c r="G174" t="n">
         <v>3763400</v>
@@ -6544,7 +6544,7 @@
         <v>23.73999977111816</v>
       </c>
       <c r="F176" t="n">
-        <v>13.92276668548584</v>
+        <v>13.92276859283447</v>
       </c>
       <c r="G176" t="n">
         <v>5408300</v>
@@ -6579,7 +6579,7 @@
         <v>24.46999931335449</v>
       </c>
       <c r="F177" t="n">
-        <v>14.35089302062988</v>
+        <v>14.3508882522583</v>
       </c>
       <c r="G177" t="n">
         <v>2473100</v>
@@ -6614,7 +6614,7 @@
         <v>23.52000045776367</v>
       </c>
       <c r="F178" t="n">
-        <v>13.79374599456787</v>
+        <v>13.79374694824219</v>
       </c>
       <c r="G178" t="n">
         <v>7780000</v>
@@ -6649,7 +6649,7 @@
         <v>25.44000053405762</v>
       </c>
       <c r="F179" t="n">
-        <v>15.29906845092773</v>
+        <v>15.29906749725342</v>
       </c>
       <c r="G179" t="n">
         <v>1096200</v>
@@ -6684,7 +6684,7 @@
         <v>24.8700008392334</v>
       </c>
       <c r="F180" t="n">
-        <v>14.95628356933594</v>
+        <v>14.9562816619873</v>
       </c>
       <c r="G180" t="n">
         <v>3533400</v>
@@ -6719,7 +6719,7 @@
         <v>26.11000061035156</v>
       </c>
       <c r="F181" t="n">
-        <v>15.70198631286621</v>
+        <v>15.70199012756348</v>
       </c>
       <c r="G181" t="n">
         <v>2147100</v>
@@ -6754,7 +6754,7 @@
         <v>26.6200008392334</v>
       </c>
       <c r="F182" t="n">
-        <v>16.00869560241699</v>
+        <v>16.00869750976562</v>
       </c>
       <c r="G182" t="n">
         <v>4715400</v>
@@ -6789,7 +6789,7 @@
         <v>28.27000045776367</v>
       </c>
       <c r="F183" t="n">
-        <v>17.00096893310547</v>
+        <v>17.00096702575684</v>
       </c>
       <c r="G183" t="n">
         <v>6585600</v>
@@ -6824,7 +6824,7 @@
         <v>26.71999931335449</v>
       </c>
       <c r="F184" t="n">
-        <v>16.06882667541504</v>
+        <v>16.06882858276367</v>
       </c>
       <c r="G184" t="n">
         <v>6323100</v>
@@ -6894,7 +6894,7 @@
         <v>25.20999908447266</v>
       </c>
       <c r="F186" t="n">
-        <v>15.42198848724365</v>
+        <v>15.42198753356934</v>
       </c>
       <c r="G186" t="n">
         <v>4162500</v>
@@ -6929,7 +6929,7 @@
         <v>24.34000015258789</v>
       </c>
       <c r="F187" t="n">
-        <v>14.88977336883545</v>
+        <v>14.88977432250977</v>
       </c>
       <c r="G187" t="n">
         <v>3885400</v>
@@ -7034,7 +7034,7 @@
         <v>23.26000022888184</v>
       </c>
       <c r="F190" t="n">
-        <v>14.22909450531006</v>
+        <v>14.22909164428711</v>
       </c>
       <c r="G190" t="n">
         <v>7341000</v>
@@ -7069,7 +7069,7 @@
         <v>21.44000053405762</v>
       </c>
       <c r="F191" t="n">
-        <v>13.52867794036865</v>
+        <v>13.52867889404297</v>
       </c>
       <c r="G191" t="n">
         <v>1498900</v>
@@ -7104,7 +7104,7 @@
         <v>23.42000007629395</v>
       </c>
       <c r="F192" t="n">
-        <v>14.77805995941162</v>
+        <v>14.77806377410889</v>
       </c>
       <c r="G192" t="n">
         <v>2357800</v>
@@ -7139,7 +7139,7 @@
         <v>23.75</v>
       </c>
       <c r="F193" t="n">
-        <v>14.98629474639893</v>
+        <v>14.98629379272461</v>
       </c>
       <c r="G193" t="n">
         <v>7614500</v>
@@ -7174,7 +7174,7 @@
         <v>23.51000022888184</v>
       </c>
       <c r="F194" t="n">
-        <v>14.83485412597656</v>
+        <v>14.83485221862793</v>
       </c>
       <c r="G194" t="n">
         <v>2442700</v>
@@ -7209,7 +7209,7 @@
         <v>23.84000015258789</v>
       </c>
       <c r="F195" t="n">
-        <v>15.04308414459229</v>
+        <v>15.04308891296387</v>
       </c>
       <c r="G195" t="n">
         <v>1777600</v>
@@ -7244,7 +7244,7 @@
         <v>20.76000022888184</v>
       </c>
       <c r="F196" t="n">
-        <v>13.09959602355957</v>
+        <v>13.09959697723389</v>
       </c>
       <c r="G196" t="n">
         <v>2518100</v>
@@ -7279,7 +7279,7 @@
         <v>21.85000038146973</v>
       </c>
       <c r="F197" t="n">
-        <v>14.07666206359863</v>
+        <v>14.07666110992432</v>
       </c>
       <c r="G197" t="n">
         <v>1491700</v>
@@ -7314,7 +7314,7 @@
         <v>23.18000030517578</v>
       </c>
       <c r="F198" t="n">
-        <v>14.93350219726562</v>
+        <v>14.93350696563721</v>
       </c>
       <c r="G198" t="n">
         <v>3700200</v>
@@ -7349,7 +7349,7 @@
         <v>23.46999931335449</v>
       </c>
       <c r="F199" t="n">
-        <v>15.12033176422119</v>
+        <v>15.12033271789551</v>
       </c>
       <c r="G199" t="n">
         <v>2780800</v>
@@ -7384,7 +7384,7 @@
         <v>23.79000091552734</v>
       </c>
       <c r="F200" t="n">
-        <v>15.32648944854736</v>
+        <v>15.32649230957031</v>
       </c>
       <c r="G200" t="n">
         <v>3303800</v>
@@ -7419,7 +7419,7 @@
         <v>24.57999992370605</v>
       </c>
       <c r="F201" t="n">
-        <v>15.83543872833252</v>
+        <v>15.83543586730957</v>
       </c>
       <c r="G201" t="n">
         <v>1908500</v>
@@ -7489,7 +7489,7 @@
         <v>25.13999938964844</v>
       </c>
       <c r="F203" t="n">
-        <v>16.78036499023438</v>
+        <v>16.78036308288574</v>
       </c>
       <c r="G203" t="n">
         <v>3194000</v>
@@ -7524,7 +7524,7 @@
         <v>26.1200008392334</v>
       </c>
       <c r="F204" t="n">
-        <v>17.43449020385742</v>
+        <v>17.43448829650879</v>
       </c>
       <c r="G204" t="n">
         <v>1142800</v>
@@ -7594,7 +7594,7 @@
         <v>27.04000091552734</v>
       </c>
       <c r="F206" t="n">
-        <v>18.04856872558594</v>
+        <v>18.04857063293457</v>
       </c>
       <c r="G206" t="n">
         <v>2185000</v>
@@ -7629,7 +7629,7 @@
         <v>28.10000038146973</v>
       </c>
       <c r="F207" t="n">
-        <v>18.75609016418457</v>
+        <v>18.75609588623047</v>
       </c>
       <c r="G207" t="n">
         <v>2576400</v>
@@ -7664,7 +7664,7 @@
         <v>24.40999984741211</v>
       </c>
       <c r="F208" t="n">
-        <v>16.2931022644043</v>
+        <v>16.29310607910156</v>
       </c>
       <c r="G208" t="n">
         <v>2946400</v>
@@ -7699,7 +7699,7 @@
         <v>22.57999992370605</v>
       </c>
       <c r="F209" t="n">
-        <v>15.43088150024414</v>
+        <v>15.43087959289551</v>
       </c>
       <c r="G209" t="n">
         <v>2652800</v>
@@ -7734,7 +7734,7 @@
         <v>23.26000022888184</v>
       </c>
       <c r="F210" t="n">
-        <v>15.89558506011963</v>
+        <v>15.89558410644531</v>
       </c>
       <c r="G210" t="n">
         <v>2148500</v>
@@ -7769,7 +7769,7 @@
         <v>23.47999954223633</v>
       </c>
       <c r="F211" t="n">
-        <v>16.04592514038086</v>
+        <v>16.04593086242676</v>
       </c>
       <c r="G211" t="n">
         <v>1098600</v>
@@ -7804,7 +7804,7 @@
         <v>25.27000045776367</v>
       </c>
       <c r="F212" t="n">
-        <v>17.26919555664062</v>
+        <v>17.26918983459473</v>
       </c>
       <c r="G212" t="n">
         <v>1793100</v>
@@ -7839,7 +7839,7 @@
         <v>26.67000007629395</v>
       </c>
       <c r="F213" t="n">
-        <v>18.2259349822998</v>
+        <v>18.22593307495117</v>
       </c>
       <c r="G213" t="n">
         <v>1794100</v>
@@ -7874,7 +7874,7 @@
         <v>25.36000061035156</v>
       </c>
       <c r="F214" t="n">
-        <v>17.3306941986084</v>
+        <v>17.33069610595703</v>
       </c>
       <c r="G214" t="n">
         <v>1466300</v>
@@ -7909,7 +7909,7 @@
         <v>24.3700008392334</v>
       </c>
       <c r="F215" t="n">
-        <v>17.08530426025391</v>
+        <v>17.08530235290527</v>
       </c>
       <c r="G215" t="n">
         <v>994100</v>
@@ -7944,7 +7944,7 @@
         <v>23.04000091552734</v>
       </c>
       <c r="F216" t="n">
-        <v>16.15286445617676</v>
+        <v>16.15286636352539</v>
       </c>
       <c r="G216" t="n">
         <v>1227000</v>
@@ -7979,7 +7979,7 @@
         <v>24.95000076293945</v>
       </c>
       <c r="F217" t="n">
-        <v>17.49192810058594</v>
+        <v>17.49193000793457</v>
       </c>
       <c r="G217" t="n">
         <v>1839100</v>
@@ -8084,7 +8084,7 @@
         <v>26.55999946594238</v>
       </c>
       <c r="F220" t="n">
-        <v>18.62066841125488</v>
+        <v>18.62066078186035</v>
       </c>
       <c r="G220" t="n">
         <v>1782300</v>
@@ -8119,7 +8119,7 @@
         <v>26.1299991607666</v>
       </c>
       <c r="F221" t="n">
-        <v>18.5964527130127</v>
+        <v>18.59645652770996</v>
       </c>
       <c r="G221" t="n">
         <v>1716200</v>
@@ -8154,7 +8154,7 @@
         <v>26.59000015258789</v>
       </c>
       <c r="F222" t="n">
-        <v>18.92383193969727</v>
+        <v>18.9238338470459</v>
       </c>
       <c r="G222" t="n">
         <v>1835500</v>
@@ -8259,7 +8259,7 @@
         <v>25.43000030517578</v>
       </c>
       <c r="F225" t="n">
-        <v>18.0982723236084</v>
+        <v>18.09827041625977</v>
       </c>
       <c r="G225" t="n">
         <v>1797800</v>
@@ -8294,7 +8294,7 @@
         <v>23.6299991607666</v>
       </c>
       <c r="F226" t="n">
-        <v>16.81722831726074</v>
+        <v>16.81723213195801</v>
       </c>
       <c r="G226" t="n">
         <v>1988900</v>
@@ -8364,7 +8364,7 @@
         <v>21.92000007629395</v>
       </c>
       <c r="F228" t="n">
-        <v>16.10850715637207</v>
+        <v>16.1085090637207</v>
       </c>
       <c r="G228" t="n">
         <v>1610900</v>
@@ -8469,7 +8469,7 @@
         <v>23.31999969482422</v>
       </c>
       <c r="F231" t="n">
-        <v>17.13733673095703</v>
+        <v>17.13733863830566</v>
       </c>
       <c r="G231" t="n">
         <v>3375100</v>
@@ -8504,7 +8504,7 @@
         <v>22.54000091552734</v>
       </c>
       <c r="F232" t="n">
-        <v>16.56413269042969</v>
+        <v>16.56413078308105</v>
       </c>
       <c r="G232" t="n">
         <v>1551200</v>
@@ -8539,7 +8539,7 @@
         <v>21.03000068664551</v>
       </c>
       <c r="F233" t="n">
-        <v>15.82729053497314</v>
+        <v>15.82728576660156</v>
       </c>
       <c r="G233" t="n">
         <v>2770200</v>
@@ -8574,7 +8574,7 @@
         <v>20.92000007629395</v>
       </c>
       <c r="F234" t="n">
-        <v>15.74450302124023</v>
+        <v>15.74450016021729</v>
       </c>
       <c r="G234" t="n">
         <v>1249200</v>
@@ -8609,7 +8609,7 @@
         <v>18.64999961853027</v>
       </c>
       <c r="F235" t="n">
-        <v>14.03608798980713</v>
+        <v>14.0360860824585</v>
       </c>
       <c r="G235" t="n">
         <v>3774400</v>
@@ -8679,7 +8679,7 @@
         <v>18.92000007629395</v>
       </c>
       <c r="F237" t="n">
-        <v>14.23928928375244</v>
+        <v>14.23929119110107</v>
       </c>
       <c r="G237" t="n">
         <v>5071800</v>
@@ -8714,7 +8714,7 @@
         <v>19.09000015258789</v>
       </c>
       <c r="F238" t="n">
-        <v>14.36723518371582</v>
+        <v>14.36723327636719</v>
       </c>
       <c r="G238" t="n">
         <v>1558200</v>
@@ -8749,7 +8749,7 @@
         <v>18.95999908447266</v>
       </c>
       <c r="F239" t="n">
-        <v>14.6724328994751</v>
+        <v>14.67243099212646</v>
       </c>
       <c r="G239" t="n">
         <v>2550800</v>
@@ -8784,7 +8784,7 @@
         <v>17.63999938964844</v>
       </c>
       <c r="F240" t="n">
-        <v>13.65093231201172</v>
+        <v>13.65093421936035</v>
       </c>
       <c r="G240" t="n">
         <v>3159200</v>
@@ -8819,7 +8819,7 @@
         <v>17.28000068664551</v>
       </c>
       <c r="F241" t="n">
-        <v>13.37234306335449</v>
+        <v>13.37234210968018</v>
       </c>
       <c r="G241" t="n">
         <v>3429200</v>
@@ -8854,7 +8854,7 @@
         <v>19.31999969482422</v>
       </c>
       <c r="F242" t="n">
-        <v>14.95102119445801</v>
+        <v>14.95102024078369</v>
       </c>
       <c r="G242" t="n">
         <v>3800600</v>
@@ -8889,7 +8889,7 @@
         <v>19.93000030517578</v>
       </c>
       <c r="F243" t="n">
-        <v>15.42307949066162</v>
+        <v>15.42307758331299</v>
       </c>
       <c r="G243" t="n">
         <v>5432800</v>
@@ -8924,7 +8924,7 @@
         <v>19.45000076293945</v>
       </c>
       <c r="F244" t="n">
-        <v>15.0516242980957</v>
+        <v>15.05162525177002</v>
       </c>
       <c r="G244" t="n">
         <v>2851900</v>
@@ -8959,7 +8959,7 @@
         <v>19.45000076293945</v>
       </c>
       <c r="F245" t="n">
-        <v>15.26516723632812</v>
+        <v>15.26516819000244</v>
       </c>
       <c r="G245" t="n">
         <v>3530100</v>
@@ -8994,7 +8994,7 @@
         <v>20.88999938964844</v>
       </c>
       <c r="F246" t="n">
-        <v>16.39533615112305</v>
+        <v>16.39533996582031</v>
       </c>
       <c r="G246" t="n">
         <v>3121300</v>
@@ -9029,7 +9029,7 @@
         <v>20.21999931335449</v>
       </c>
       <c r="F247" t="n">
-        <v>15.86949348449707</v>
+        <v>15.86949157714844</v>
       </c>
       <c r="G247" t="n">
         <v>4053200</v>
@@ -9064,7 +9064,7 @@
         <v>20.89999961853027</v>
       </c>
       <c r="F248" t="n">
-        <v>16.4031867980957</v>
+        <v>16.40318489074707</v>
       </c>
       <c r="G248" t="n">
         <v>1388600</v>
@@ -9099,7 +9099,7 @@
         <v>20.28000068664551</v>
       </c>
       <c r="F249" t="n">
-        <v>15.91658782958984</v>
+        <v>15.91658401489258</v>
       </c>
       <c r="G249" t="n">
         <v>1628800</v>
@@ -9169,7 +9169,7 @@
         <v>20.22999954223633</v>
       </c>
       <c r="F251" t="n">
-        <v>16.3019962310791</v>
+        <v>16.30199813842773</v>
       </c>
       <c r="G251" t="n">
         <v>2028800</v>
@@ -9239,7 +9239,7 @@
         <v>21.95000076293945</v>
       </c>
       <c r="F253" t="n">
-        <v>17.68802833557129</v>
+        <v>17.68803024291992</v>
       </c>
       <c r="G253" t="n">
         <v>1581100</v>
@@ -9274,7 +9274,7 @@
         <v>22.61000061035156</v>
       </c>
       <c r="F254" t="n">
-        <v>18.21988105773926</v>
+        <v>18.21988296508789</v>
       </c>
       <c r="G254" t="n">
         <v>2456100</v>
@@ -9344,7 +9344,7 @@
         <v>21.48999977111816</v>
       </c>
       <c r="F256" t="n">
-        <v>17.31734848022461</v>
+        <v>17.31734657287598</v>
       </c>
       <c r="G256" t="n">
         <v>1522600</v>
@@ -9379,7 +9379,7 @@
         <v>21.68000030517578</v>
       </c>
       <c r="F257" t="n">
-        <v>17.84763145446777</v>
+        <v>17.84762763977051</v>
       </c>
       <c r="G257" t="n">
         <v>2991200</v>
@@ -9414,7 +9414,7 @@
         <v>22.70000076293945</v>
       </c>
       <c r="F258" t="n">
-        <v>18.68732452392578</v>
+        <v>18.68732643127441</v>
       </c>
       <c r="G258" t="n">
         <v>1629500</v>
@@ -9519,7 +9519,7 @@
         <v>22.70000076293945</v>
       </c>
       <c r="F261" t="n">
-        <v>18.68732452392578</v>
+        <v>18.68732643127441</v>
       </c>
       <c r="G261" t="n">
         <v>1879100</v>
@@ -9554,7 +9554,7 @@
         <v>22.77000045776367</v>
       </c>
       <c r="F262" t="n">
-        <v>18.74494934082031</v>
+        <v>18.74495315551758</v>
       </c>
       <c r="G262" t="n">
         <v>2209000</v>
@@ -9659,7 +9659,7 @@
         <v>22.81999969482422</v>
       </c>
       <c r="F265" t="n">
-        <v>19.24789810180664</v>
+        <v>19.24789619445801</v>
       </c>
       <c r="G265" t="n">
         <v>2847100</v>
@@ -9694,7 +9694,7 @@
         <v>22.02000045776367</v>
       </c>
       <c r="F266" t="n">
-        <v>18.5731258392334</v>
+        <v>18.57312393188477</v>
       </c>
       <c r="G266" t="n">
         <v>4194800</v>
@@ -9834,7 +9834,7 @@
         <v>22.92000007629395</v>
       </c>
       <c r="F270" t="n">
-        <v>19.70762634277344</v>
+        <v>19.70762825012207</v>
       </c>
       <c r="G270" t="n">
         <v>2418000</v>
@@ -9869,7 +9869,7 @@
         <v>22.48999977111816</v>
       </c>
       <c r="F271" t="n">
-        <v>19.33789253234863</v>
+        <v>19.33789443969727</v>
       </c>
       <c r="G271" t="n">
         <v>2234600</v>
@@ -9904,7 +9904,7 @@
         <v>22.1200008392334</v>
       </c>
       <c r="F272" t="n">
-        <v>19.01975250244141</v>
+        <v>19.01975440979004</v>
       </c>
       <c r="G272" t="n">
         <v>1631400</v>
@@ -9939,7 +9939,7 @@
         <v>20.60000038146973</v>
       </c>
       <c r="F273" t="n">
-        <v>17.71278953552246</v>
+        <v>17.71278762817383</v>
       </c>
       <c r="G273" t="n">
         <v>1906000</v>
@@ -10044,7 +10044,7 @@
         <v>20.59000015258789</v>
       </c>
       <c r="F276" t="n">
-        <v>18.38776397705078</v>
+        <v>18.38776779174805</v>
       </c>
       <c r="G276" t="n">
         <v>2161600</v>
@@ -10079,7 +10079,7 @@
         <v>21.28000068664551</v>
       </c>
       <c r="F277" t="n">
-        <v>19.00396347045898</v>
+        <v>19.00396728515625</v>
       </c>
       <c r="G277" t="n">
         <v>1422300</v>
@@ -10114,7 +10114,7 @@
         <v>21.52000045776367</v>
       </c>
       <c r="F278" t="n">
-        <v>19.21829605102539</v>
+        <v>19.21829795837402</v>
       </c>
       <c r="G278" t="n">
         <v>1935900</v>
@@ -10149,7 +10149,7 @@
         <v>21.77000045776367</v>
       </c>
       <c r="F279" t="n">
-        <v>19.44155693054199</v>
+        <v>19.44155883789062</v>
       </c>
       <c r="G279" t="n">
         <v>4546500</v>
@@ -10219,7 +10219,7 @@
         <v>22.54000091552734</v>
       </c>
       <c r="F281" t="n">
-        <v>20.53886985778809</v>
+        <v>20.53887176513672</v>
       </c>
       <c r="G281" t="n">
         <v>1979000</v>
@@ -10289,7 +10289,7 @@
         <v>21.68000030517578</v>
       </c>
       <c r="F283" t="n">
-        <v>19.75522041320801</v>
+        <v>19.75522232055664</v>
       </c>
       <c r="G283" t="n">
         <v>2866600</v>
@@ -10324,7 +10324,7 @@
         <v>22.25</v>
       </c>
       <c r="F284" t="n">
-        <v>20.27461433410645</v>
+        <v>20.27461624145508</v>
       </c>
       <c r="G284" t="n">
         <v>1999800</v>
@@ -10359,7 +10359,7 @@
         <v>22.53000068664551</v>
       </c>
       <c r="F285" t="n">
-        <v>20.52975654602051</v>
+        <v>20.52975845336914</v>
       </c>
       <c r="G285" t="n">
         <v>1730400</v>
@@ -10429,7 +10429,7 @@
         <v>22.63999938964844</v>
       </c>
       <c r="F287" t="n">
-        <v>21.04969596862793</v>
+        <v>21.04969787597656</v>
       </c>
       <c r="G287" t="n">
         <v>2696300</v>
@@ -10499,7 +10499,7 @@
         <v>20.1200008392334</v>
       </c>
       <c r="F289" t="n">
-        <v>18.70670890808105</v>
+        <v>18.70671081542969</v>
       </c>
       <c r="G289" t="n">
         <v>10559800</v>
@@ -10569,7 +10569,7 @@
         <v>17.04000091552734</v>
       </c>
       <c r="F291" t="n">
-        <v>15.84305858612061</v>
+        <v>15.84305953979492</v>
       </c>
       <c r="G291" t="n">
         <v>3330700</v>
@@ -10604,7 +10604,7 @@
         <v>18.05999946594238</v>
       </c>
       <c r="F292" t="n">
-        <v>16.79140853881836</v>
+        <v>16.79141044616699</v>
       </c>
       <c r="G292" t="n">
         <v>5594700</v>
@@ -10709,7 +10709,7 @@
         <v>20.79000091552734</v>
       </c>
       <c r="F295" t="n">
-        <v>19.61985778808594</v>
+        <v>19.6198558807373</v>
       </c>
       <c r="G295" t="n">
         <v>4087000</v>
@@ -11295,31 +11295,31 @@
         <v>25.25</v>
       </c>
       <c r="C312" t="n">
-        <v>25.36499977111816</v>
+        <v>25.38500022888184</v>
       </c>
       <c r="D312" t="n">
         <v>25.21999931335449</v>
       </c>
       <c r="E312" t="n">
-        <v>25.3435001373291</v>
+        <v>25.35000038146973</v>
       </c>
       <c r="F312" t="n">
-        <v>25.3435001373291</v>
+        <v>25.35000038146973</v>
       </c>
       <c r="G312" t="n">
-        <v>501563</v>
+        <v>739125</v>
       </c>
       <c r="H312" t="n">
-        <v>0.02068063693922095</v>
+        <v>0.02094242687722314</v>
       </c>
       <c r="I312" t="n">
-        <v>0.05234452983406813</v>
+        <v>0.0523453176244197</v>
       </c>
       <c r="J312" t="n">
-        <v>0.06709474262438331</v>
+        <v>0.0673684371145149</v>
       </c>
       <c r="K312" t="n">
-        <v>0.06709474262438331</v>
+        <v>0.0673684371145149</v>
       </c>
     </row>
   </sheetData>
